--- a/Biomass_Sorting_Data.xlsx
+++ b/Biomass_Sorting_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="101">
   <si>
     <t>Plot</t>
   </si>
@@ -363,7 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="L343" sqref="L343"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,47 +1945,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>5</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
         <v>43293</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>15.6</v>
       </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62"/>
+      <c r="F62" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>5</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63">
-        <v>21.3</v>
-      </c>
-      <c r="F63">
-        <v>7</v>
-      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43293</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2">
+        <v>8.83</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -1998,13 +1998,13 @@
         <v>43292</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>4.63</v>
+        <v>21.3</v>
       </c>
       <c r="F64">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2018,10 +2018,10 @@
         <v>43292</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>5.51</v>
+        <v>4.63</v>
       </c>
       <c r="F65">
         <v>4.5999999999999996</v>
@@ -2038,10 +2038,10 @@
         <v>43292</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E66">
-        <v>4.67</v>
+        <v>5.51</v>
       </c>
       <c r="F66">
         <v>4.5999999999999996</v>
@@ -2058,13 +2058,13 @@
         <v>43292</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E67">
-        <v>48.6</v>
+        <v>4.67</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2078,10 +2078,10 @@
         <v>43292</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>15.6</v>
+        <v>48.6</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -2098,13 +2098,13 @@
         <v>43292</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>4.7699999999999996</v>
+        <v>15.6</v>
       </c>
       <c r="F69">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2112,16 +2112,16 @@
         <v>5</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1">
         <v>43292</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E70">
-        <v>13.27</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F70">
         <v>4.5999999999999996</v>
@@ -2138,10 +2138,10 @@
         <v>43292</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>4.76</v>
+        <v>13.27</v>
       </c>
       <c r="F71">
         <v>4.5999999999999996</v>
@@ -2158,13 +2158,13 @@
         <v>43292</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>31.4</v>
+        <v>4.76</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2178,13 +2178,13 @@
         <v>43292</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>8.5500000000000007</v>
+        <v>31.4</v>
       </c>
       <c r="F73">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2198,34 +2198,36 @@
         <v>43292</v>
       </c>
       <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F74">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D75" t="s">
         <v>66</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F74">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
-        <v>5</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7">
-        <v>43293</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="6">
-        <v>8.83</v>
-      </c>
-      <c r="F75" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="F75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -4796,6 +4798,12 @@
       <c r="D202" t="s">
         <v>18</v>
       </c>
+      <c r="E202">
+        <v>7.38</v>
+      </c>
+      <c r="F202">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
@@ -4877,23 +4885,23 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="6">
+    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
         <v>16</v>
       </c>
-      <c r="B207" s="6">
-        <v>2</v>
-      </c>
-      <c r="C207" s="7">
+      <c r="B207" s="2">
+        <v>2</v>
+      </c>
+      <c r="C207" s="3">
         <v>43293</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="2">
         <v>11.66</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F207" s="2">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4908,10 +4916,10 @@
         <v>43293</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E208">
-        <v>7.38</v>
+        <v>6.26</v>
       </c>
       <c r="F208">
         <v>4.5999999999999996</v>
@@ -4928,13 +4936,13 @@
         <v>43293</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>6.26</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="F209">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -4948,33 +4956,33 @@
         <v>43293</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E210">
-        <v>138.69999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="F210">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" s="1">
-        <v>43293</v>
+        <v>43291</v>
       </c>
       <c r="D211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E211">
-        <v>4.38</v>
+        <v>27.6</v>
       </c>
       <c r="F211">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -4988,13 +4996,13 @@
         <v>43291</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E212">
-        <v>27.6</v>
+        <v>4.76</v>
       </c>
       <c r="F212">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5008,13 +5016,13 @@
         <v>43291</v>
       </c>
       <c r="D213" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>4.76</v>
+        <v>41.7</v>
       </c>
       <c r="F213">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,13 +5036,13 @@
         <v>43291</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>41.7</v>
+        <v>8.44</v>
       </c>
       <c r="F214">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5042,19 +5050,19 @@
         <v>17</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215" s="1">
-        <v>43291</v>
+        <v>43286</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E215">
-        <v>8.44</v>
+        <v>23.2</v>
       </c>
       <c r="F215">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,13 +5076,13 @@
         <v>43286</v>
       </c>
       <c r="D216" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E216">
-        <v>23.2</v>
+        <v>2.85</v>
       </c>
       <c r="F216">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5088,10 +5096,10 @@
         <v>43286</v>
       </c>
       <c r="D217" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E217">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="F217">
         <v>2.77</v>
@@ -5108,13 +5116,13 @@
         <v>43286</v>
       </c>
       <c r="D218" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>2.86</v>
+        <v>25.7</v>
       </c>
       <c r="F218">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5128,13 +5136,13 @@
         <v>43286</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>25.7</v>
+        <v>11.8</v>
       </c>
       <c r="F219">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5142,16 +5150,16 @@
         <v>17</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C220" s="1">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E220">
-        <v>11.8</v>
+        <v>7.86</v>
       </c>
       <c r="F220">
         <v>4.5999999999999996</v>
@@ -5168,13 +5176,13 @@
         <v>43293</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>7.86</v>
+        <v>37.6</v>
       </c>
       <c r="F221">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5188,13 +5196,13 @@
         <v>43293</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E222">
-        <v>37.6</v>
+        <v>6.14</v>
       </c>
       <c r="F222">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,10 +5216,10 @@
         <v>43293</v>
       </c>
       <c r="D223" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E223">
-        <v>6.14</v>
+        <v>7.17</v>
       </c>
       <c r="F223">
         <v>4.5999999999999996</v>
@@ -5219,22 +5227,22 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1">
         <v>43293</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E224">
-        <v>7.17</v>
+        <v>36.4</v>
       </c>
       <c r="F224">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5248,13 +5256,13 @@
         <v>43293</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E225">
-        <v>36.4</v>
+        <v>4.68</v>
       </c>
       <c r="F225">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5268,13 +5276,13 @@
         <v>43293</v>
       </c>
       <c r="D226" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>4.68</v>
+        <v>31</v>
       </c>
       <c r="F226">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5282,16 +5290,16 @@
         <v>18</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" s="1">
-        <v>43293</v>
+        <v>43290</v>
       </c>
       <c r="D227" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E227">
-        <v>31</v>
+        <v>35.5</v>
       </c>
       <c r="F227">
         <v>7</v>
@@ -5308,7 +5316,13 @@
         <v>43290</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="E228">
+        <v>3.24</v>
+      </c>
+      <c r="F228">
+        <v>2.77</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5322,10 +5336,10 @@
         <v>43290</v>
       </c>
       <c r="D229" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E229">
-        <v>3.24</v>
+        <v>3.43</v>
       </c>
       <c r="F229">
         <v>2.77</v>
@@ -5342,13 +5356,13 @@
         <v>43290</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>3.43</v>
+        <v>32.9</v>
       </c>
       <c r="F230">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5362,10 +5376,10 @@
         <v>43290</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E231">
-        <v>32.9</v>
+        <v>14.2</v>
       </c>
       <c r="F231">
         <v>7</v>
@@ -5382,13 +5396,13 @@
         <v>43290</v>
       </c>
       <c r="D232" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E232">
-        <v>14.2</v>
+        <v>5.07</v>
       </c>
       <c r="F232">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5396,19 +5410,19 @@
         <v>18</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D233" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E233">
-        <v>5.07</v>
+        <v>11.3</v>
       </c>
       <c r="F233">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5422,13 +5436,13 @@
         <v>43293</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E234">
-        <v>11.3</v>
+        <v>4.74</v>
       </c>
       <c r="F234">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5442,30 +5456,30 @@
         <v>43293</v>
       </c>
       <c r="D235" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E235">
-        <v>4.74</v>
+        <v>35.5</v>
       </c>
       <c r="F235">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C236" s="1">
-        <v>43293</v>
+        <v>43291</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E236">
-        <v>35.5</v>
+        <v>30.6</v>
       </c>
       <c r="F236">
         <v>7</v>
@@ -5482,13 +5496,13 @@
         <v>43291</v>
       </c>
       <c r="D237" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E237">
-        <v>30.6</v>
+        <v>4.7</v>
       </c>
       <c r="F237">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5502,73 +5516,73 @@
         <v>43291</v>
       </c>
       <c r="D238" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E238">
-        <v>4.7</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F238">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>19</v>
       </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239" s="1">
+      <c r="B239" s="4">
+        <v>1</v>
+      </c>
+      <c r="C239" s="5">
+        <v>43290</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="4">
+        <v>8.83</v>
+      </c>
+      <c r="F239" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+      <c r="C240" s="3">
         <v>43291</v>
       </c>
-      <c r="D239" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="F239">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="D240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F240" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241">
         <v>19</v>
       </c>
-      <c r="B240" s="4">
-        <v>1</v>
-      </c>
-      <c r="C240" s="5">
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241" s="1">
         <v>43291</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" s="4">
-        <v>8.83</v>
-      </c>
-      <c r="F240" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
-        <v>19</v>
-      </c>
-      <c r="B241" s="4">
-        <v>1</v>
-      </c>
-      <c r="C241" s="5">
-        <v>43291</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F241" s="4">
-        <v>7</v>
+      <c r="D241" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241">
+        <v>6.53</v>
+      </c>
+      <c r="F241">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -5582,13 +5596,13 @@
         <v>43291</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>6.53</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F242">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -5602,13 +5616,13 @@
         <v>43291</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>73.599999999999994</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F243">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -5616,16 +5630,16 @@
         <v>19</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C244" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E244">
-        <v>17.600000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="F244">
         <v>7</v>
@@ -5642,13 +5656,13 @@
         <v>43292</v>
       </c>
       <c r="D245" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E245">
-        <v>25.9</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F245">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -5662,10 +5676,10 @@
         <v>43292</v>
       </c>
       <c r="D246" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E246">
-        <v>4.6100000000000003</v>
+        <v>4.75</v>
       </c>
       <c r="F246">
         <v>4.5999999999999996</v>
@@ -5682,13 +5696,13 @@
         <v>43292</v>
       </c>
       <c r="D247" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E247">
-        <v>4.75</v>
+        <v>36.5</v>
       </c>
       <c r="F247">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -5702,13 +5716,13 @@
         <v>43292</v>
       </c>
       <c r="D248" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E248">
-        <v>36.5</v>
+        <v>8.08</v>
       </c>
       <c r="F248">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -5722,10 +5736,10 @@
         <v>43292</v>
       </c>
       <c r="D249" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E249">
-        <v>8.08</v>
+        <v>4.63</v>
       </c>
       <c r="F249">
         <v>4.5999999999999996</v>
@@ -5742,36 +5756,36 @@
         <v>43292</v>
       </c>
       <c r="D250" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E250">
-        <v>4.63</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F250">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H250" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C251" s="1">
         <v>43292</v>
       </c>
       <c r="D251" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E251">
-        <v>4.6100000000000003</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F251">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H251" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -5785,13 +5799,13 @@
         <v>43292</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>16.899999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="F252">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -5805,13 +5819,13 @@
         <v>43292</v>
       </c>
       <c r="D253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E253">
-        <v>85.7</v>
+        <v>6.98</v>
       </c>
       <c r="F253">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -5825,10 +5839,10 @@
         <v>43292</v>
       </c>
       <c r="D254" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E254">
-        <v>6.98</v>
+        <v>5.32</v>
       </c>
       <c r="F254">
         <v>4.5999999999999996</v>
@@ -5845,10 +5859,10 @@
         <v>43292</v>
       </c>
       <c r="D255" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E255">
-        <v>5.32</v>
+        <v>4.46</v>
       </c>
       <c r="F255">
         <v>4.5999999999999996</v>
@@ -5859,19 +5873,19 @@
         <v>20</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D256" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E256">
-        <v>4.46</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F256">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -5885,13 +5899,13 @@
         <v>43291</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E257">
-        <v>19.600000000000001</v>
+        <v>124.6</v>
       </c>
       <c r="F257">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -5899,19 +5913,19 @@
         <v>20</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C258" s="1">
-        <v>43291</v>
+        <v>43283</v>
       </c>
       <c r="D258" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E258">
-        <v>124.6</v>
+        <v>26.2</v>
       </c>
       <c r="F258">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -5925,13 +5939,13 @@
         <v>43283</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E259">
-        <v>26.2</v>
+        <v>123.6</v>
       </c>
       <c r="F259">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -5945,33 +5959,33 @@
         <v>43283</v>
       </c>
       <c r="D260" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E260">
-        <v>123.6</v>
+        <v>4.46</v>
       </c>
       <c r="F260">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C261" s="1">
-        <v>43283</v>
+        <v>43292</v>
       </c>
       <c r="D261" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E261">
-        <v>4.46</v>
+        <v>23.2</v>
       </c>
       <c r="F261">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -5985,13 +5999,13 @@
         <v>43292</v>
       </c>
       <c r="D262" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E262">
-        <v>23.2</v>
+        <v>5.93</v>
       </c>
       <c r="F262">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -6005,10 +6019,10 @@
         <v>43292</v>
       </c>
       <c r="D263" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E263">
-        <v>5.93</v>
+        <v>4.87</v>
       </c>
       <c r="F263">
         <v>4.5999999999999996</v>
@@ -6025,10 +6039,10 @@
         <v>43292</v>
       </c>
       <c r="D264" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E264">
-        <v>4.87</v>
+        <v>4.53</v>
       </c>
       <c r="F264">
         <v>4.5999999999999996</v>
@@ -6045,10 +6059,10 @@
         <v>43292</v>
       </c>
       <c r="D265" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E265">
-        <v>4.53</v>
+        <v>11.91</v>
       </c>
       <c r="F265">
         <v>4.5999999999999996</v>
@@ -6065,10 +6079,10 @@
         <v>43292</v>
       </c>
       <c r="D266" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E266">
-        <v>11.91</v>
+        <v>4.84</v>
       </c>
       <c r="F266">
         <v>4.5999999999999996</v>
@@ -6079,19 +6093,19 @@
         <v>21</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" s="1">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="D267" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E267">
-        <v>4.84</v>
+        <v>14.3</v>
       </c>
       <c r="F267">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -6105,13 +6119,13 @@
         <v>43293</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E268">
-        <v>14.3</v>
+        <v>6.3</v>
       </c>
       <c r="F268">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -6125,10 +6139,10 @@
         <v>43293</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E269">
-        <v>6.3</v>
+        <v>8.19</v>
       </c>
       <c r="F269">
         <v>4.5999999999999996</v>
@@ -6136,22 +6150,22 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" s="1">
-        <v>43293</v>
+        <v>43290</v>
       </c>
       <c r="D270" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E270">
-        <v>8.19</v>
+        <v>82.4</v>
       </c>
       <c r="F270">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -6165,13 +6179,16 @@
         <v>43290</v>
       </c>
       <c r="D271" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E271">
-        <v>82.4</v>
+        <v>2.83</v>
       </c>
       <c r="F271">
-        <v>7</v>
+        <v>2.77</v>
+      </c>
+      <c r="H271" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -6179,16 +6196,19 @@
         <v>22</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272" s="1">
         <v>43290</v>
       </c>
       <c r="D272" t="s">
-        <v>23</v>
-      </c>
-      <c r="H272" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="E272">
+        <v>190.3</v>
+      </c>
+      <c r="F272">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -6202,13 +6222,13 @@
         <v>43290</v>
       </c>
       <c r="D273" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E273">
-        <v>190.3</v>
+        <v>2.82</v>
       </c>
       <c r="F273">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -6216,19 +6236,22 @@
         <v>22</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C274" s="1">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="D274" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E274">
-        <v>2.82</v>
+        <v>4.72</v>
       </c>
       <c r="F274">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H274" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -6242,16 +6265,13 @@
         <v>43292</v>
       </c>
       <c r="D275" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E275">
-        <v>4.72</v>
+        <v>4.54</v>
       </c>
       <c r="F275">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H275" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -6265,13 +6285,13 @@
         <v>43292</v>
       </c>
       <c r="D276" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E276">
-        <v>4.54</v>
+        <v>60.6</v>
       </c>
       <c r="F276">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -6285,36 +6305,36 @@
         <v>43292</v>
       </c>
       <c r="D277" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E277">
-        <v>60.6</v>
+        <v>4.51</v>
       </c>
       <c r="F277">
-        <v>7</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H277" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C278" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D278" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E278">
-        <v>4.51</v>
+        <v>6.6</v>
       </c>
       <c r="F278">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H278" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -6328,10 +6348,10 @@
         <v>43291</v>
       </c>
       <c r="D279" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E279">
-        <v>6.6</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F279">
         <v>4.5999999999999996</v>
@@ -6348,13 +6368,13 @@
         <v>43291</v>
       </c>
       <c r="D280" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E280">
-        <v>4.6100000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F280">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -6368,13 +6388,13 @@
         <v>43291</v>
       </c>
       <c r="D281" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E281">
-        <v>20.399999999999999</v>
+        <v>6.78</v>
       </c>
       <c r="F281">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -6388,10 +6408,10 @@
         <v>43291</v>
       </c>
       <c r="D282" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>6.78</v>
+        <v>9.67</v>
       </c>
       <c r="F282">
         <v>4.5999999999999996</v>
@@ -6408,10 +6428,10 @@
         <v>43291</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E283">
-        <v>9.67</v>
+        <v>5.41</v>
       </c>
       <c r="F283">
         <v>4.5999999999999996</v>
@@ -6428,10 +6448,10 @@
         <v>43291</v>
       </c>
       <c r="D284" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E284">
-        <v>5.41</v>
+        <v>11.19</v>
       </c>
       <c r="F284">
         <v>4.5999999999999996</v>
@@ -6448,10 +6468,10 @@
         <v>43291</v>
       </c>
       <c r="D285" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E285">
-        <v>11.19</v>
+        <v>6.96</v>
       </c>
       <c r="F285">
         <v>4.5999999999999996</v>
@@ -6462,16 +6482,16 @@
         <v>23</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D286" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E286">
-        <v>6.96</v>
+        <v>5.31</v>
       </c>
       <c r="F286">
         <v>4.5999999999999996</v>
@@ -6488,10 +6508,10 @@
         <v>43292</v>
       </c>
       <c r="D287" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E287">
-        <v>5.31</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F287">
         <v>4.5999999999999996</v>
@@ -6508,10 +6528,10 @@
         <v>43292</v>
       </c>
       <c r="D288" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E288">
-        <v>4.6500000000000004</v>
+        <v>7.45</v>
       </c>
       <c r="F288">
         <v>4.5999999999999996</v>
@@ -6528,10 +6548,10 @@
         <v>43292</v>
       </c>
       <c r="D289" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E289">
-        <v>7.45</v>
+        <v>5.99</v>
       </c>
       <c r="F289">
         <v>4.5999999999999996</v>
@@ -6548,10 +6568,10 @@
         <v>43292</v>
       </c>
       <c r="D290" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E290">
-        <v>5.99</v>
+        <v>9.4</v>
       </c>
       <c r="F290">
         <v>4.5999999999999996</v>
@@ -6568,13 +6588,13 @@
         <v>43292</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E291">
-        <v>9.4</v>
+        <v>22.8</v>
       </c>
       <c r="F291">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -6588,13 +6608,13 @@
         <v>43292</v>
       </c>
       <c r="D292" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E292">
-        <v>22.8</v>
+        <v>7.6</v>
       </c>
       <c r="F292">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -6608,10 +6628,10 @@
         <v>43292</v>
       </c>
       <c r="D293" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E293">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="F293">
         <v>4.5999999999999996</v>
@@ -6622,19 +6642,19 @@
         <v>23</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C294" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D294" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E294">
-        <v>7.1</v>
+        <v>33.4</v>
       </c>
       <c r="F294">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -6648,13 +6668,13 @@
         <v>43291</v>
       </c>
       <c r="D295" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E295">
-        <v>33.4</v>
+        <v>4.87</v>
       </c>
       <c r="F295">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -6668,13 +6688,13 @@
         <v>43291</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E296">
-        <v>4.87</v>
+        <v>10.57</v>
       </c>
       <c r="F296">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -6688,10 +6708,10 @@
         <v>43291</v>
       </c>
       <c r="D297" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E297">
-        <v>10.57</v>
+        <v>11.73</v>
       </c>
       <c r="F297">
         <v>4.5999999999999996</v>
@@ -6699,22 +6719,22 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C298" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D298" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E298">
-        <v>11.73</v>
+        <v>24</v>
       </c>
       <c r="F298">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -6728,7 +6748,13 @@
         <v>43290</v>
       </c>
       <c r="D299" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="E299">
+        <v>6.06</v>
+      </c>
+      <c r="F299">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -6739,10 +6765,16 @@
         <v>1</v>
       </c>
       <c r="C300" s="1">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="D300" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="E300">
+        <v>3.16</v>
+      </c>
+      <c r="F300">
+        <v>2.77</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -6756,10 +6788,10 @@
         <v>43291</v>
       </c>
       <c r="D301" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E301">
-        <v>3.16</v>
+        <v>2.73</v>
       </c>
       <c r="F301">
         <v>2.77</v>
@@ -6773,16 +6805,16 @@
         <v>1</v>
       </c>
       <c r="C302" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D302" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E302">
-        <v>2.73</v>
+        <v>15.58</v>
       </c>
       <c r="F302">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -6793,16 +6825,19 @@
         <v>1</v>
       </c>
       <c r="C303" s="1">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="D303" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E303">
-        <v>15.58</v>
+        <v>2.74</v>
       </c>
       <c r="F303">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
+      </c>
+      <c r="H303" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -6810,22 +6845,19 @@
         <v>24</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C304" s="1">
         <v>43291</v>
       </c>
       <c r="D304" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E304">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="F304">
         <v>2.77</v>
-      </c>
-      <c r="H304" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -6839,13 +6871,13 @@
         <v>43291</v>
       </c>
       <c r="D305" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E305">
-        <v>2.92</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F305">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -6859,13 +6891,13 @@
         <v>43291</v>
       </c>
       <c r="D306" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E306">
-        <v>8.4499999999999993</v>
+        <v>2.91</v>
       </c>
       <c r="F306">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -6879,10 +6911,10 @@
         <v>43291</v>
       </c>
       <c r="D307" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E307">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="F307">
         <v>2.77</v>
@@ -6899,13 +6931,13 @@
         <v>43291</v>
       </c>
       <c r="D308" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E308">
-        <v>2.92</v>
+        <v>5.65</v>
       </c>
       <c r="F308">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -6919,13 +6951,13 @@
         <v>43291</v>
       </c>
       <c r="D309" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E309">
-        <v>5.65</v>
+        <v>2.9</v>
       </c>
       <c r="F309">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -6939,13 +6971,13 @@
         <v>43291</v>
       </c>
       <c r="D310" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E310">
-        <v>2.9</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F310">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -6959,10 +6991,10 @@
         <v>43291</v>
       </c>
       <c r="D311" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E311">
-        <v>9.7100000000000009</v>
+        <v>7.64</v>
       </c>
       <c r="F311">
         <v>4.5999999999999996</v>
@@ -6973,16 +7005,16 @@
         <v>24</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C312" s="1">
         <v>43291</v>
       </c>
       <c r="D312" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E312">
-        <v>7.64</v>
+        <v>6.73</v>
       </c>
       <c r="F312">
         <v>4.5999999999999996</v>
@@ -6999,10 +7031,10 @@
         <v>43291</v>
       </c>
       <c r="D313" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E313">
-        <v>6.73</v>
+        <v>5.53</v>
       </c>
       <c r="F313">
         <v>4.5999999999999996</v>
@@ -7019,13 +7051,13 @@
         <v>43291</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E314">
-        <v>5.53</v>
+        <v>25.3</v>
       </c>
       <c r="F314">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -7039,13 +7071,13 @@
         <v>43291</v>
       </c>
       <c r="D315" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E315">
-        <v>25.3</v>
+        <v>2.84</v>
       </c>
       <c r="F315">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -7059,13 +7091,13 @@
         <v>43291</v>
       </c>
       <c r="D316" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E316">
-        <v>2.84</v>
+        <v>6.5</v>
       </c>
       <c r="F316">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -7079,13 +7111,13 @@
         <v>43291</v>
       </c>
       <c r="D317" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E317">
-        <v>6.5</v>
+        <v>2.87</v>
       </c>
       <c r="F317">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -7099,10 +7131,10 @@
         <v>43291</v>
       </c>
       <c r="D318" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E318">
-        <v>2.87</v>
+        <v>5.38</v>
       </c>
       <c r="F318">
         <v>2.77</v>
@@ -7119,10 +7151,10 @@
         <v>43291</v>
       </c>
       <c r="D319" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E319">
-        <v>5.38</v>
+        <v>2.89</v>
       </c>
       <c r="F319">
         <v>2.77</v>
@@ -7139,36 +7171,36 @@
         <v>43291</v>
       </c>
       <c r="D320" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E320">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="F320">
         <v>2.77</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C321" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D321" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E321">
-        <v>2.85</v>
+        <v>12.9</v>
       </c>
       <c r="F321">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>25</v>
       </c>
@@ -7179,16 +7211,16 @@
         <v>43292</v>
       </c>
       <c r="D322" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E322">
-        <v>12.9</v>
+        <v>20.9</v>
       </c>
       <c r="F322">
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>25</v>
       </c>
@@ -7199,16 +7231,16 @@
         <v>43292</v>
       </c>
       <c r="D323" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E323">
-        <v>20.9</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F323">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>25</v>
       </c>
@@ -7219,16 +7251,16 @@
         <v>43292</v>
       </c>
       <c r="D324" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E324">
-        <v>9.1199999999999992</v>
+        <v>8.16</v>
       </c>
       <c r="F324">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>25</v>
       </c>
@@ -7239,76 +7271,78 @@
         <v>43292</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E325">
-        <v>8.16</v>
+        <v>6.45</v>
       </c>
       <c r="F325">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326">
+    <row r="326" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
         <v>25</v>
       </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326" s="1">
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="3">
         <v>43292</v>
       </c>
-      <c r="D326" t="s">
-        <v>54</v>
-      </c>
-      <c r="E326">
-        <v>6.45</v>
-      </c>
-      <c r="F326">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="6">
+      <c r="D326" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E326" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="F326" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327">
         <v>25</v>
       </c>
-      <c r="B327" s="6">
-        <v>1</v>
-      </c>
-      <c r="C327" s="7">
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327" s="1">
         <v>43292</v>
       </c>
-      <c r="D327" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E327" s="6">
-        <v>10.54</v>
-      </c>
-      <c r="F327" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="6">
+      <c r="D327" t="s">
+        <v>52</v>
+      </c>
+      <c r="E327">
+        <v>5.53</v>
+      </c>
+      <c r="F327">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G327"/>
+      <c r="H327"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328">
         <v>25</v>
       </c>
-      <c r="B328" s="6">
-        <v>1</v>
-      </c>
-      <c r="C328" s="7">
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328" s="1">
         <v>43292</v>
       </c>
-      <c r="D328" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E328" s="6">
-        <v>9.31</v>
-      </c>
-      <c r="F328" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D328" t="s">
+        <v>60</v>
+      </c>
+      <c r="E328">
+        <v>4.57</v>
+      </c>
+      <c r="F328">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>25</v>
       </c>
@@ -7319,16 +7353,16 @@
         <v>43292</v>
       </c>
       <c r="D329" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E329">
-        <v>5.53</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F329">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>25</v>
       </c>
@@ -7339,16 +7373,16 @@
         <v>43292</v>
       </c>
       <c r="D330" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E330">
-        <v>4.57</v>
+        <v>23.8</v>
       </c>
       <c r="F330">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>25</v>
       </c>
@@ -7359,16 +7393,16 @@
         <v>43292</v>
       </c>
       <c r="D331" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E331">
-        <v>4.6500000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F331">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>25</v>
       </c>
@@ -7379,16 +7413,16 @@
         <v>43292</v>
       </c>
       <c r="D332" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E332">
-        <v>23.8</v>
+        <v>4.63</v>
       </c>
       <c r="F332">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>25</v>
       </c>
@@ -7399,16 +7433,16 @@
         <v>43292</v>
       </c>
       <c r="D333" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E333">
-        <v>4.7300000000000004</v>
+        <v>13.08</v>
       </c>
       <c r="F333">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>25</v>
       </c>
@@ -7419,36 +7453,38 @@
         <v>43292</v>
       </c>
       <c r="D334" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E334">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="F334">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
         <v>25</v>
       </c>
-      <c r="B335">
-        <v>2</v>
-      </c>
-      <c r="C335" s="1">
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+      <c r="C335" s="3">
         <v>43292</v>
       </c>
-      <c r="D335" t="s">
-        <v>8</v>
-      </c>
-      <c r="E335">
-        <v>13.08</v>
-      </c>
-      <c r="F335">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D335" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E335" s="2">
+        <v>9.31</v>
+      </c>
+      <c r="F335" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>25</v>
       </c>
@@ -7459,30 +7495,36 @@
         <v>43292</v>
       </c>
       <c r="D336" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E336">
-        <v>4.62</v>
+        <v>9.31</v>
       </c>
       <c r="F336">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337">
+    <row r="337" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
         <v>25</v>
       </c>
-      <c r="B337">
-        <v>2</v>
-      </c>
-      <c r="C337" s="1">
+      <c r="B337" s="2">
+        <v>2</v>
+      </c>
+      <c r="C337" s="3">
         <v>43292</v>
       </c>
-      <c r="D337" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D337" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E337" s="2">
+        <v>5.89</v>
+      </c>
+      <c r="F337" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>25</v>
       </c>
@@ -7493,38 +7535,36 @@
         <v>43292</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E338" s="2">
-        <v>5.89</v>
+        <v>5.23</v>
       </c>
       <c r="F338" s="2">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="6">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
         <v>25</v>
       </c>
-      <c r="B339" s="6">
-        <v>2</v>
-      </c>
-      <c r="C339" s="7">
-        <v>43292</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E339" s="6">
-        <v>5.23</v>
-      </c>
-      <c r="F339" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G339" s="6"/>
-      <c r="H339" s="6"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D339" t="s">
+        <v>52</v>
+      </c>
+      <c r="E339">
+        <v>3.54</v>
+      </c>
+      <c r="F339">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>25</v>
       </c>
@@ -7535,16 +7575,16 @@
         <v>43291</v>
       </c>
       <c r="D340" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E340">
-        <v>3.54</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F340">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>25</v>
       </c>
@@ -7555,16 +7595,16 @@
         <v>43291</v>
       </c>
       <c r="D341" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E341">
-        <v>17.899999999999999</v>
+        <v>7.22</v>
       </c>
       <c r="F341">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>25</v>
       </c>
@@ -7575,16 +7615,16 @@
         <v>43291</v>
       </c>
       <c r="D342" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E342">
-        <v>7.22</v>
+        <v>3.07</v>
       </c>
       <c r="F342">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>25</v>
       </c>
@@ -7595,16 +7635,16 @@
         <v>43291</v>
       </c>
       <c r="D343" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E343">
-        <v>3.07</v>
+        <v>8.14</v>
       </c>
       <c r="F343">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>25</v>
       </c>
@@ -7615,16 +7655,16 @@
         <v>43291</v>
       </c>
       <c r="D344" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E344">
-        <v>8.14</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F344">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>25</v>
       </c>
@@ -7635,16 +7675,16 @@
         <v>43291</v>
       </c>
       <c r="D345" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E345">
-        <v>19.600000000000001</v>
+        <v>2.79</v>
       </c>
       <c r="F345">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>25</v>
       </c>
@@ -7655,76 +7695,73 @@
         <v>43291</v>
       </c>
       <c r="D346" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E346">
-        <v>2.79</v>
+        <v>6.62</v>
       </c>
       <c r="F346">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C347" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D347" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E347">
-        <v>6.62</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="F347">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>26</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C348" s="1">
-        <v>43290</v>
+        <v>43283</v>
       </c>
       <c r="D348" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E348">
-        <v>68.900000000000006</v>
+        <v>3.31</v>
       </c>
       <c r="F348">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="6">
         <v>26</v>
       </c>
-      <c r="B349">
-        <v>2</v>
-      </c>
-      <c r="C349" s="1">
-        <v>43283</v>
-      </c>
-      <c r="D349" t="s">
-        <v>25</v>
-      </c>
-      <c r="E349">
-        <v>3.31</v>
-      </c>
-      <c r="F349">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B349" s="6">
+        <v>2</v>
+      </c>
+      <c r="C349" s="7">
+        <v>43286</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>26</v>
       </c>
@@ -7732,13 +7769,19 @@
         <v>2</v>
       </c>
       <c r="C350" s="1">
-        <v>43286</v>
+        <v>43283</v>
       </c>
       <c r="D350" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E350">
+        <v>61.4</v>
+      </c>
+      <c r="F350">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>26</v>
       </c>
@@ -7749,16 +7792,16 @@
         <v>43283</v>
       </c>
       <c r="D351" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E351">
-        <v>61.4</v>
+        <v>3.07</v>
       </c>
       <c r="F351">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>26</v>
       </c>
@@ -7769,13 +7812,13 @@
         <v>43283</v>
       </c>
       <c r="D352" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E352">
-        <v>3.07</v>
+        <v>34.4</v>
       </c>
       <c r="F352">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
@@ -7786,16 +7829,19 @@
         <v>2</v>
       </c>
       <c r="C353" s="1">
-        <v>43283</v>
+        <v>43290</v>
       </c>
       <c r="D353" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E353">
-        <v>34.4</v>
+        <v>2.82</v>
       </c>
       <c r="F353">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
+      </c>
+      <c r="H353" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7806,19 +7852,16 @@
         <v>2</v>
       </c>
       <c r="C354" s="1">
-        <v>43290</v>
+        <v>43286</v>
       </c>
       <c r="D354" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E354">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="F354">
         <v>2.77</v>
-      </c>
-      <c r="H354" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
@@ -7829,16 +7872,16 @@
         <v>2</v>
       </c>
       <c r="C355" s="1">
-        <v>43286</v>
+        <v>43283</v>
       </c>
       <c r="D355" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E355">
-        <v>2.84</v>
+        <v>5.57</v>
       </c>
       <c r="F355">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
@@ -7846,16 +7889,16 @@
         <v>26</v>
       </c>
       <c r="B356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C356" s="1">
-        <v>43283</v>
+        <v>43292</v>
       </c>
       <c r="D356" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E356">
-        <v>5.57</v>
+        <v>4.58</v>
       </c>
       <c r="F356">
         <v>4.5999999999999996</v>
@@ -7872,10 +7915,10 @@
         <v>43292</v>
       </c>
       <c r="D357" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="E357">
-        <v>4.58</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F357">
         <v>4.5999999999999996</v>
@@ -7892,13 +7935,13 @@
         <v>43292</v>
       </c>
       <c r="D358" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E358">
-        <v>4.8099999999999996</v>
+        <v>34.6</v>
       </c>
       <c r="F358">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -7912,13 +7955,13 @@
         <v>43292</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E359">
-        <v>34.6</v>
+        <v>5.12</v>
       </c>
       <c r="F359">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -7932,10 +7975,10 @@
         <v>43292</v>
       </c>
       <c r="D360" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E360">
-        <v>5.12</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F360">
         <v>4.5999999999999996</v>
@@ -7952,10 +7995,10 @@
         <v>43292</v>
       </c>
       <c r="D361" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E361">
-        <v>4.6500000000000004</v>
+        <v>11.59</v>
       </c>
       <c r="F361">
         <v>4.5999999999999996</v>
@@ -7972,10 +8015,10 @@
         <v>43292</v>
       </c>
       <c r="D362" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E362">
-        <v>11.59</v>
+        <v>4.54</v>
       </c>
       <c r="F362">
         <v>4.5999999999999996</v>
@@ -7992,36 +8035,36 @@
         <v>43292</v>
       </c>
       <c r="D363" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E363">
-        <v>4.54</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F363">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H363" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B364">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C364" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D364" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E364">
-        <v>4.6100000000000003</v>
+        <v>12.6</v>
       </c>
       <c r="F364">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H364" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -8035,10 +8078,10 @@
         <v>43290</v>
       </c>
       <c r="D365" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E365">
-        <v>12.6</v>
+        <v>22.9</v>
       </c>
       <c r="F365">
         <v>7</v>
@@ -8049,16 +8092,16 @@
         <v>27</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C366" s="1">
         <v>43290</v>
       </c>
       <c r="D366" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E366">
-        <v>22.9</v>
+        <v>10.4</v>
       </c>
       <c r="F366">
         <v>7</v>
@@ -8075,13 +8118,13 @@
         <v>43290</v>
       </c>
       <c r="D367" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E367">
-        <v>10.4</v>
+        <v>3.51</v>
       </c>
       <c r="F367">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -8095,10 +8138,10 @@
         <v>43290</v>
       </c>
       <c r="D368" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E368">
-        <v>3.51</v>
+        <v>3.01</v>
       </c>
       <c r="F368">
         <v>2.77</v>
@@ -8115,55 +8158,55 @@
         <v>43290</v>
       </c>
       <c r="D369" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E369">
-        <v>3.01</v>
+        <v>2.82</v>
       </c>
       <c r="F369">
         <v>2.77</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A370">
+      <c r="A370" s="2">
         <v>27</v>
       </c>
-      <c r="B370">
-        <v>2</v>
-      </c>
-      <c r="C370" s="1">
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="3">
         <v>43290</v>
       </c>
-      <c r="D370" t="s">
-        <v>13</v>
-      </c>
-      <c r="E370">
-        <v>2.82</v>
-      </c>
-      <c r="F370">
-        <v>2.77</v>
-      </c>
+      <c r="D370" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E370" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="F370" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="G370" s="2"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A371" s="2">
+      <c r="A371">
         <v>27</v>
       </c>
-      <c r="B371" s="2">
-        <v>2</v>
-      </c>
-      <c r="C371" s="3">
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371" s="1">
         <v>43290</v>
       </c>
-      <c r="D371" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E371" s="2">
-        <v>3.04</v>
-      </c>
-      <c r="F371" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="G371" s="2"/>
+      <c r="D371" t="s">
+        <v>16</v>
+      </c>
+      <c r="E371">
+        <v>2.89</v>
+      </c>
+      <c r="F371">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
@@ -8176,10 +8219,10 @@
         <v>43290</v>
       </c>
       <c r="D372" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E372">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="F372">
         <v>2.77</v>
@@ -8196,10 +8239,10 @@
         <v>43290</v>
       </c>
       <c r="D373" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E373">
-        <v>2.81</v>
+        <v>5.39</v>
       </c>
       <c r="F373">
         <v>2.77</v>
@@ -8216,32 +8259,32 @@
         <v>43290</v>
       </c>
       <c r="D374" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E374">
-        <v>5.39</v>
+        <v>3.01</v>
       </c>
       <c r="F374">
         <v>2.77</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375">
+      <c r="A375" s="2">
         <v>27</v>
       </c>
-      <c r="B375">
-        <v>2</v>
-      </c>
-      <c r="C375" s="1">
+      <c r="B375" s="2">
+        <v>2</v>
+      </c>
+      <c r="C375" s="3">
         <v>43290</v>
       </c>
-      <c r="D375" t="s">
-        <v>56</v>
-      </c>
-      <c r="E375">
-        <v>3.01</v>
-      </c>
-      <c r="F375">
+      <c r="D375" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E375" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="F375" s="2">
         <v>2.77</v>
       </c>
     </row>
@@ -8259,7 +8302,7 @@
         <v>54</v>
       </c>
       <c r="E376" s="2">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="F376" s="2">
         <v>2.77</v>
@@ -8270,19 +8313,19 @@
         <v>27</v>
       </c>
       <c r="B377" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C377" s="3">
         <v>43290</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E377" s="2">
-        <v>2.91</v>
+        <v>22.9</v>
       </c>
       <c r="F377" s="2">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
@@ -8296,10 +8339,10 @@
         <v>43290</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E378" s="2">
-        <v>22.9</v>
+        <v>13.7</v>
       </c>
       <c r="F378" s="2">
         <v>7</v>
@@ -8316,16 +8359,17 @@
         <v>43290</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E379" s="2">
-        <v>13.7</v>
+        <v>37</v>
       </c>
       <c r="F379" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G379" s="2"/>
+    </row>
+    <row r="380" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>27</v>
       </c>
@@ -8336,73 +8380,72 @@
         <v>43290</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E380" s="2">
-        <v>37</v>
+        <v>12.1</v>
       </c>
       <c r="F380" s="2">
         <v>7</v>
       </c>
-      <c r="G380" s="2"/>
     </row>
     <row r="381" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B381" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C381" s="3">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E381" s="2">
-        <v>12.1</v>
+        <v>6.84</v>
       </c>
       <c r="F381" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382">
         <v>28</v>
       </c>
-      <c r="B382" s="6">
-        <v>1</v>
-      </c>
-      <c r="C382" s="7">
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382" s="1">
         <v>43292</v>
       </c>
-      <c r="D382" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E382" s="6">
-        <v>6.84</v>
-      </c>
-      <c r="F382" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="6">
+      <c r="D382" t="s">
+        <v>71</v>
+      </c>
+      <c r="E382" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="F382" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383">
         <v>28</v>
       </c>
-      <c r="B383" s="6">
-        <v>1</v>
-      </c>
-      <c r="C383" s="7">
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383" s="1">
         <v>43292</v>
       </c>
-      <c r="D383" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E383" s="6">
+      <c r="D383" t="s">
+        <v>8</v>
+      </c>
+      <c r="E383">
         <v>94.3</v>
       </c>
-      <c r="F383" s="6">
+      <c r="F383">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -8417,12 +8460,12 @@
         <v>43292</v>
       </c>
       <c r="D384" t="s">
-        <v>71</v>
-      </c>
-      <c r="E384" s="2">
-        <v>5.07</v>
-      </c>
-      <c r="F384" s="2">
+        <v>9</v>
+      </c>
+      <c r="E384">
+        <v>5.85</v>
+      </c>
+      <c r="F384">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8437,7 +8480,13 @@
         <v>43292</v>
       </c>
       <c r="D385" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="E385">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F385">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -8451,10 +8500,10 @@
         <v>43292</v>
       </c>
       <c r="D386" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E386">
-        <v>5.85</v>
+        <v>6.07</v>
       </c>
       <c r="F386">
         <v>4.5999999999999996</v>
@@ -8471,10 +8520,10 @@
         <v>43292</v>
       </c>
       <c r="D387" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E387">
-        <v>8.9499999999999993</v>
+        <v>4.67</v>
       </c>
       <c r="F387">
         <v>4.5999999999999996</v>
@@ -8491,33 +8540,36 @@
         <v>43292</v>
       </c>
       <c r="D388" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E388">
-        <v>6.07</v>
+        <v>4.84</v>
       </c>
       <c r="F388">
         <v>4.5999999999999996</v>
       </c>
+      <c r="H388" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389">
+      <c r="A389" s="2">
         <v>28</v>
       </c>
-      <c r="B389">
-        <v>1</v>
-      </c>
-      <c r="C389" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D389" t="s">
-        <v>62</v>
-      </c>
-      <c r="E389">
-        <v>4.67</v>
-      </c>
-      <c r="F389">
-        <v>4.5999999999999996</v>
+      <c r="B389" s="2">
+        <v>2</v>
+      </c>
+      <c r="C389" s="3">
+        <v>43286</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E389" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F389" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -8525,42 +8577,39 @@
         <v>28</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C390" s="1">
-        <v>43292</v>
+        <v>43286</v>
       </c>
       <c r="D390" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E390">
-        <v>4.84</v>
+        <v>30.6</v>
       </c>
       <c r="F390">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H390" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
+      <c r="A391">
         <v>28</v>
       </c>
-      <c r="B391" s="2">
-        <v>2</v>
-      </c>
-      <c r="C391" s="3">
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391" s="1">
         <v>43286</v>
       </c>
-      <c r="D391" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E391" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="F391" s="2">
-        <v>7</v>
+      <c r="D391" t="s">
+        <v>86</v>
+      </c>
+      <c r="E391">
+        <v>3.24</v>
+      </c>
+      <c r="F391">
+        <v>2.77</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -8574,13 +8623,13 @@
         <v>43286</v>
       </c>
       <c r="D392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E392">
-        <v>30.6</v>
+        <v>7.26</v>
       </c>
       <c r="F392">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -8594,13 +8643,13 @@
         <v>43286</v>
       </c>
       <c r="D393" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E393">
-        <v>3.24</v>
+        <v>6.05</v>
       </c>
       <c r="F393">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -8608,39 +8657,39 @@
         <v>28</v>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C394" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="D394" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E394">
-        <v>7.26</v>
+        <v>6.06</v>
       </c>
       <c r="F394">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A395">
+      <c r="A395" s="2">
         <v>28</v>
       </c>
-      <c r="B395">
-        <v>2</v>
-      </c>
-      <c r="C395" s="1">
-        <v>43286</v>
-      </c>
-      <c r="D395" t="s">
-        <v>42</v>
-      </c>
-      <c r="E395">
-        <v>6.05</v>
-      </c>
-      <c r="F395">
-        <v>4.5999999999999996</v>
+      <c r="B395" s="2">
+        <v>3</v>
+      </c>
+      <c r="C395" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E395" s="2">
+        <v>21</v>
+      </c>
+      <c r="F395" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -8654,32 +8703,32 @@
         <v>43290</v>
       </c>
       <c r="D396" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E396">
-        <v>6.06</v>
+        <v>3.31</v>
       </c>
       <c r="F396">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
+      <c r="A397">
         <v>28</v>
       </c>
-      <c r="B397" s="2">
-        <v>3</v>
-      </c>
-      <c r="C397" s="3">
+      <c r="B397">
+        <v>3</v>
+      </c>
+      <c r="C397" s="1">
         <v>43290</v>
       </c>
-      <c r="D397" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E397" s="2">
-        <v>21</v>
-      </c>
-      <c r="F397" s="2">
+      <c r="D397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397">
+        <v>30.9</v>
+      </c>
+      <c r="F397">
         <v>7</v>
       </c>
     </row>
@@ -8694,13 +8743,13 @@
         <v>43290</v>
       </c>
       <c r="D398" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E398">
-        <v>3.31</v>
+        <v>7.67</v>
       </c>
       <c r="F398">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -8714,13 +8763,13 @@
         <v>43290</v>
       </c>
       <c r="D399" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E399">
-        <v>30.9</v>
+        <v>4.22</v>
       </c>
       <c r="F399">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -8734,67 +8783,27 @@
         <v>43290</v>
       </c>
       <c r="D400" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E400">
-        <v>7.67</v>
+        <v>2.83</v>
       </c>
       <c r="F400">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401">
-        <v>28</v>
-      </c>
-      <c r="B401">
-        <v>3</v>
-      </c>
-      <c r="C401" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D401" t="s">
-        <v>42</v>
-      </c>
-      <c r="E401">
-        <v>4.22</v>
-      </c>
-      <c r="F401">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A402">
-        <v>28</v>
-      </c>
-      <c r="B402">
-        <v>3</v>
-      </c>
-      <c r="C402" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D402" t="s">
-        <v>23</v>
-      </c>
-      <c r="E402">
-        <v>2.83</v>
-      </c>
-      <c r="F402">
-        <v>2.77</v>
-      </c>
-      <c r="H402" t="s">
+        <v>2.77</v>
+      </c>
+      <c r="H400" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H404">
-    <sortCondition ref="A2:A404"/>
-    <sortCondition ref="B2:B404"/>
-    <sortCondition ref="D2:D404"/>
+  <sortState ref="A2:H402">
+    <sortCondition ref="A2:A402"/>
+    <sortCondition ref="B2:B402"/>
+    <sortCondition ref="D2:D402"/>
   </sortState>
-  <conditionalFormatting sqref="A377:F382">
+  <conditionalFormatting sqref="A376:F381">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$G$377</formula>
+      <formula>$G$376</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">

--- a/Biomass_Sorting_Data.xlsx
+++ b/Biomass_Sorting_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14480" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="103">
   <si>
     <t>Plot</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Mentha arrens</t>
   </si>
   <si>
-    <t>Lycopus Uniflorus</t>
-  </si>
-  <si>
     <t>Fragaria sp.</t>
   </si>
   <si>
@@ -330,6 +327,15 @@
   </si>
   <si>
     <t>Equisetum palastre</t>
+  </si>
+  <si>
+    <t>Liatris aspera</t>
+  </si>
+  <si>
+    <t>Lycopus uniflorus</t>
+  </si>
+  <si>
+    <t>Cornus racemosa</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -421,6 +427,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -697,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:H420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2237,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>43290</v>
+        <v>43286</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>6.23</v>
+        <v>20.8</v>
       </c>
       <c r="F76">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2260,13 +2276,13 @@
         <v>43286</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>20.8</v>
+        <v>150.5</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2280,13 +2296,13 @@
         <v>43286</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>150.5</v>
+        <v>8.27</v>
       </c>
       <c r="F78">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2300,13 +2316,13 @@
         <v>43286</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E79">
-        <v>8.27</v>
+        <v>2.93</v>
       </c>
       <c r="F79">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2320,16 +2336,16 @@
         <v>43286</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E80">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="F80">
         <v>2.77</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2340,7 +2356,7 @@
         <v>43286</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E81">
         <v>2.87</v>
@@ -2349,7 +2365,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6</v>
       </c>
@@ -2357,64 +2373,70 @@
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82">
-        <v>2.87</v>
+        <v>6.23</v>
       </c>
       <c r="F82">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>4.3</v>
+        <v>2.81</v>
       </c>
       <c r="F83">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E84">
-        <v>195.9</v>
+        <v>2.84</v>
       </c>
       <c r="F84">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+      <c r="H84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>43286</v>
@@ -2423,18 +2445,18 @@
         <v>25</v>
       </c>
       <c r="E85">
-        <v>3.07</v>
+        <v>4.3</v>
       </c>
       <c r="F85">
         <v>2.77</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>6</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>43286</v>
@@ -2443,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>60.2</v>
+        <v>195.9</v>
       </c>
       <c r="F86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2460,16 +2482,16 @@
         <v>43286</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>2.85</v>
+        <v>3.07</v>
       </c>
       <c r="F87">
         <v>2.77</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -2480,16 +2502,16 @@
         <v>43286</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>3.07</v>
+        <v>60.2</v>
       </c>
       <c r="F88">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6</v>
       </c>
@@ -2500,16 +2522,16 @@
         <v>43286</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E89">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="F89">
         <v>2.77</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>6</v>
       </c>
@@ -2520,16 +2542,16 @@
         <v>43286</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E90">
-        <v>2.88</v>
+        <v>3.07</v>
       </c>
       <c r="F90">
         <v>2.77</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -2540,16 +2562,16 @@
         <v>43286</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>2.98</v>
+        <v>3.07</v>
       </c>
       <c r="F91">
         <v>2.77</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -2560,93 +2582,93 @@
         <v>43286</v>
       </c>
       <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <v>2.88</v>
+      </c>
+      <c r="F92">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <v>2.98</v>
+      </c>
+      <c r="F93">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D94" t="s">
         <v>28</v>
       </c>
-      <c r="E92">
+      <c r="E94">
         <v>2.9</v>
       </c>
-      <c r="F92">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>8</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93">
-        <v>163.6</v>
-      </c>
-      <c r="F93">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>8</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <v>10.3</v>
-      </c>
       <c r="F94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
         <v>43292</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>4.96</v>
+        <v>163.6</v>
       </c>
       <c r="F95">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1">
         <v>43292</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>5.64</v>
+        <v>10.3</v>
       </c>
       <c r="F96">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -2660,13 +2682,13 @@
         <v>43292</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="E97">
-        <v>76.900000000000006</v>
+        <v>4.96</v>
       </c>
       <c r="F97">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -2680,10 +2702,10 @@
         <v>43292</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E98">
-        <v>4.49</v>
+        <v>5.64</v>
       </c>
       <c r="F98">
         <v>4.5999999999999996</v>
@@ -2700,16 +2722,13 @@
         <v>43292</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>4.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F99">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H99" t="s">
-        <v>72</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -2717,16 +2736,16 @@
         <v>8</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
         <v>43292</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E100">
-        <v>5.17</v>
+        <v>4.49</v>
       </c>
       <c r="F100">
         <v>4.5999999999999996</v>
@@ -2737,19 +2756,22 @@
         <v>8</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1">
         <v>43292</v>
       </c>
       <c r="D101" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>4.67</v>
+        <v>4.5</v>
       </c>
       <c r="F101">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -2763,10 +2785,10 @@
         <v>43292</v>
       </c>
       <c r="D102" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E102">
-        <v>4.62</v>
+        <v>5.17</v>
       </c>
       <c r="F102">
         <v>4.5999999999999996</v>
@@ -2783,13 +2805,13 @@
         <v>43292</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E103">
-        <v>63.4</v>
+        <v>4.67</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -2803,10 +2825,10 @@
         <v>43292</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E104">
-        <v>4.4800000000000004</v>
+        <v>4.62</v>
       </c>
       <c r="F104">
         <v>4.5999999999999996</v>
@@ -2823,53 +2845,53 @@
         <v>43292</v>
       </c>
       <c r="D105" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>5.07</v>
+        <v>63.4</v>
       </c>
       <c r="F105">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E106">
-        <v>2.83</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F106">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E107">
-        <v>2.98</v>
+        <v>5.07</v>
       </c>
       <c r="F107">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -2883,10 +2905,10 @@
         <v>43293</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E108">
-        <v>2.99</v>
+        <v>2.83</v>
       </c>
       <c r="F108">
         <v>2.77</v>
@@ -2900,16 +2922,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
-      </c>
-      <c r="E109">
-        <v>3.04</v>
-      </c>
-      <c r="F109">
-        <v>2.77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -2923,10 +2939,10 @@
         <v>43293</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E110">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="F110">
         <v>2.77</v>
@@ -2943,13 +2959,13 @@
         <v>43293</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E111">
-        <v>118.4</v>
+        <v>2.99</v>
       </c>
       <c r="F111">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -2966,7 +2982,7 @@
         <v>99</v>
       </c>
       <c r="E112">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="F112">
         <v>2.77</v>
@@ -2983,13 +2999,13 @@
         <v>43293</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E113">
-        <v>4.93</v>
+        <v>2.84</v>
       </c>
       <c r="F113">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3003,13 +3019,13 @@
         <v>43293</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>2.99</v>
+        <v>118.4</v>
       </c>
       <c r="F114">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -3023,16 +3039,13 @@
         <v>43293</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E115">
-        <v>3.17</v>
+        <v>3.23</v>
       </c>
       <c r="F115">
         <v>2.77</v>
-      </c>
-      <c r="H115" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -3040,16 +3053,16 @@
         <v>9</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D116" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>6.03</v>
+        <v>4.93</v>
       </c>
       <c r="F116">
         <v>4.5999999999999996</v>
@@ -3060,19 +3073,19 @@
         <v>9</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>48</v>
+        <v>2.99</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -3080,19 +3093,22 @@
         <v>9</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D118" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E118">
-        <v>2.93</v>
+        <v>3.17</v>
       </c>
       <c r="F118">
         <v>2.77</v>
+      </c>
+      <c r="H118" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3106,13 +3122,7 @@
         <v>43294</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119">
-        <v>7.01</v>
-      </c>
-      <c r="F119">
-        <v>4.5999999999999996</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3126,10 +3136,10 @@
         <v>43294</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E120">
-        <v>7.77</v>
+        <v>6.03</v>
       </c>
       <c r="F120">
         <v>4.5999999999999996</v>
@@ -3146,16 +3156,13 @@
         <v>43294</v>
       </c>
       <c r="D121" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>5.27</v>
+        <v>48</v>
       </c>
       <c r="F121">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H121" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -3163,19 +3170,19 @@
         <v>9</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E122">
-        <v>10.3</v>
+        <v>2.93</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3183,19 +3190,19 @@
         <v>9</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D123" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>2.83</v>
+        <v>7.01</v>
       </c>
       <c r="F123">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,16 +3210,16 @@
         <v>9</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D124" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>7.11</v>
+        <v>7.77</v>
       </c>
       <c r="F124">
         <v>4.5999999999999996</v>
@@ -3223,19 +3230,22 @@
         <v>9</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>5.27</v>
       </c>
       <c r="F125">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H125" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -3249,10 +3259,10 @@
         <v>43293</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E126">
-        <v>55</v>
+        <v>10.3</v>
       </c>
       <c r="F126">
         <v>7</v>
@@ -3269,10 +3279,10 @@
         <v>43293</v>
       </c>
       <c r="D127" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E127">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="F127">
         <v>2.77</v>
@@ -3289,13 +3299,13 @@
         <v>43293</v>
       </c>
       <c r="D128" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E128">
-        <v>3.69</v>
+        <v>7.11</v>
       </c>
       <c r="F128">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3309,10 +3319,10 @@
         <v>43293</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E129">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="F129">
         <v>2.77</v>
@@ -3329,13 +3339,13 @@
         <v>43293</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>7.03</v>
+        <v>55</v>
       </c>
       <c r="F130">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -3349,16 +3359,13 @@
         <v>43293</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E131">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="F131">
         <v>2.77</v>
-      </c>
-      <c r="H131" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -3372,96 +3379,99 @@
         <v>43293</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E132">
-        <v>3.13</v>
+        <v>3.69</v>
       </c>
       <c r="F132">
         <v>2.77</v>
-      </c>
-      <c r="H132" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E133">
-        <v>6.81</v>
+        <v>3.85</v>
       </c>
       <c r="F133">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>73.5</v>
+        <v>7.03</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E135">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="F135">
         <v>2.77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" s="1">
-        <v>43294</v>
+        <v>43293</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E136">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="F136">
         <v>2.77</v>
+      </c>
+      <c r="H136" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3475,16 +3485,13 @@
         <v>43294</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E137">
-        <v>2.77</v>
+        <v>6.81</v>
       </c>
       <c r="F137">
-        <v>2.77</v>
-      </c>
-      <c r="H137" t="s">
-        <v>67</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3498,16 +3505,13 @@
         <v>43294</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>2.83</v>
+        <v>73.5</v>
       </c>
       <c r="F138">
-        <v>2.77</v>
-      </c>
-      <c r="H138" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3521,10 +3525,10 @@
         <v>43294</v>
       </c>
       <c r="D139" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="F139">
         <v>2.77</v>
@@ -3535,19 +3539,19 @@
         <v>10</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E140">
-        <v>15.8</v>
+        <v>2.97</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3555,19 +3559,22 @@
         <v>10</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E141">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
       <c r="F141">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
+      </c>
+      <c r="H141" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3575,19 +3582,22 @@
         <v>10</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D142" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E142">
-        <v>4.91</v>
+        <v>2.83</v>
       </c>
       <c r="F142">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -3595,19 +3605,19 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="1">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E143">
-        <v>96.5</v>
+        <v>2.87</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -3621,13 +3631,13 @@
         <v>43293</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E144">
-        <v>5.83</v>
+        <v>15.8</v>
       </c>
       <c r="F144">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -3635,19 +3645,19 @@
         <v>10</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" s="1">
         <v>43293</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E145">
-        <v>10.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3655,16 +3665,16 @@
         <v>10</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" s="1">
         <v>43293</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E146">
-        <v>4.5599999999999996</v>
+        <v>4.91</v>
       </c>
       <c r="F146">
         <v>4.5999999999999996</v>
@@ -3675,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" s="1">
         <v>43293</v>
@@ -3684,10 +3694,10 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>99.3</v>
+        <v>96.5</v>
       </c>
       <c r="F147">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -3695,19 +3705,19 @@
         <v>10</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" s="1">
         <v>43293</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E148">
-        <v>8.4</v>
+        <v>5.83</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -3721,13 +3731,13 @@
         <v>43293</v>
       </c>
       <c r="D149" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E149">
-        <v>5.27</v>
+        <v>10.6</v>
       </c>
       <c r="F149">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3741,16 +3751,13 @@
         <v>43293</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E150">
-        <v>4.47</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F150">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H150" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3764,96 +3771,99 @@
         <v>43293</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>4.5599999999999996</v>
+        <v>99.3</v>
       </c>
       <c r="F151">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H151" t="s">
-        <v>90</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1">
         <v>43293</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>3.99</v>
+        <v>8.4</v>
       </c>
       <c r="F152">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1">
         <v>43293</v>
       </c>
       <c r="D153" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E153">
-        <v>3.03</v>
+        <v>5.27</v>
       </c>
       <c r="F153">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1">
         <v>43293</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E154">
-        <v>6.76</v>
+        <v>4.47</v>
       </c>
       <c r="F154">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H154" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" s="1">
         <v>43293</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E155">
-        <v>108.8</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F155">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H155" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -3867,13 +3877,13 @@
         <v>43293</v>
       </c>
       <c r="D156" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E156">
-        <v>4.97</v>
+        <v>3.99</v>
       </c>
       <c r="F156">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -3881,19 +3891,19 @@
         <v>11</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="1">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E157">
-        <v>28.4</v>
+        <v>3.03</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -3901,19 +3911,19 @@
         <v>11</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="1">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>17.8</v>
+        <v>6.76</v>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -3921,19 +3931,19 @@
         <v>11</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E159">
-        <v>7.16</v>
+        <v>108.8</v>
       </c>
       <c r="F159">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -3941,19 +3951,19 @@
         <v>11</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="1">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E160">
-        <v>2.95</v>
+        <v>4.97</v>
       </c>
       <c r="F160">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -3967,13 +3977,13 @@
         <v>43286</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E161">
-        <v>96.2</v>
+        <v>28.4</v>
       </c>
       <c r="F161">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -3987,13 +3997,13 @@
         <v>43286</v>
       </c>
       <c r="D162" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E162">
-        <v>8.77</v>
+        <v>17.8</v>
       </c>
       <c r="F162">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4007,13 +4017,13 @@
         <v>43286</v>
       </c>
       <c r="D163" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>2.96</v>
+        <v>7.16</v>
       </c>
       <c r="F163">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4021,19 +4031,19 @@
         <v>11</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E164">
-        <v>25.6</v>
+        <v>2.95</v>
       </c>
       <c r="F164">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4041,19 +4051,19 @@
         <v>11</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E165">
-        <v>11.9</v>
+        <v>96.2</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4061,19 +4071,19 @@
         <v>11</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D166" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E166">
-        <v>8.4</v>
+        <v>8.77</v>
       </c>
       <c r="F166">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -4081,19 +4091,19 @@
         <v>11</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E167">
-        <v>8.6999999999999993</v>
+        <v>2.96</v>
       </c>
       <c r="F167">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -4107,10 +4117,10 @@
         <v>43293</v>
       </c>
       <c r="D168" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E168">
-        <v>7.9</v>
+        <v>25.6</v>
       </c>
       <c r="F168">
         <v>7</v>
@@ -4127,13 +4137,13 @@
         <v>43293</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E169">
-        <v>119.3</v>
+        <v>11.9</v>
       </c>
       <c r="F169">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -4147,10 +4157,10 @@
         <v>43293</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E170">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="F170">
         <v>7</v>
@@ -4167,90 +4177,90 @@
         <v>43293</v>
       </c>
       <c r="D171" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E171">
-        <v>4.96</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F171">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D172" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E172">
-        <v>4.9800000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="F172">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E173">
-        <v>4.7699999999999996</v>
+        <v>119.3</v>
       </c>
       <c r="F173">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E174">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="F174">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E175">
-        <v>4.2</v>
+        <v>4.96</v>
       </c>
       <c r="F175">
         <v>4.5999999999999996</v>
@@ -4267,16 +4277,16 @@
         <v>43291</v>
       </c>
       <c r="D176" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E176">
-        <v>4.74</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F176">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>14</v>
       </c>
@@ -4287,16 +4297,16 @@
         <v>43291</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E177">
-        <v>47.3</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F177">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>14</v>
       </c>
@@ -4307,16 +4317,16 @@
         <v>43291</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E178">
-        <v>18.100000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="F178">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>14</v>
       </c>
@@ -4327,16 +4337,16 @@
         <v>43291</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E179">
-        <v>4.54</v>
+        <v>4.2</v>
       </c>
       <c r="F179">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>14</v>
       </c>
@@ -4347,7 +4357,7 @@
         <v>43291</v>
       </c>
       <c r="D180" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E180">
         <v>4.74</v>
@@ -4356,7 +4366,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>14</v>
       </c>
@@ -4367,21 +4377,21 @@
         <v>43291</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>4.5999999999999996</v>
+        <v>47.3</v>
       </c>
       <c r="F181">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>14</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="1">
         <v>43291</v>
@@ -4396,87 +4406,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>14</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183" s="1">
         <v>43291</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E183">
-        <v>11.97</v>
+        <v>4.54</v>
       </c>
       <c r="F183">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>14</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C184" s="1">
         <v>43291</v>
       </c>
       <c r="D184" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E184">
-        <v>2.77</v>
+        <v>4.74</v>
       </c>
       <c r="F184">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>14</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C185" s="1">
         <v>43291</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E185">
-        <v>2.78</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F185">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>14</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" s="1">
         <v>43291</v>
       </c>
       <c r="D186" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F186">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>14</v>
       </c>
@@ -4487,16 +4497,16 @@
         <v>43291</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E187">
-        <v>4.6900000000000004</v>
+        <v>11.97</v>
       </c>
       <c r="F187">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>14</v>
       </c>
@@ -4507,16 +4517,16 @@
         <v>43291</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E188">
-        <v>71.7</v>
+        <v>2.77</v>
       </c>
       <c r="F188">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>14</v>
       </c>
@@ -4527,16 +4537,16 @@
         <v>43291</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>5.98</v>
+        <v>2.78</v>
       </c>
       <c r="F189">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>14</v>
       </c>
@@ -4547,19 +4557,16 @@
         <v>43291</v>
       </c>
       <c r="D190" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E190">
-        <v>5.78</v>
+        <v>3</v>
       </c>
       <c r="F190">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H190" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>14</v>
       </c>
@@ -4570,16 +4577,16 @@
         <v>43291</v>
       </c>
       <c r="D191" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E191">
-        <v>5.68</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F191">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>14</v>
       </c>
@@ -4590,13 +4597,13 @@
         <v>43291</v>
       </c>
       <c r="D192" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>5.41</v>
+        <v>71.7</v>
       </c>
       <c r="F192">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -4610,13 +4617,13 @@
         <v>43291</v>
       </c>
       <c r="D193" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>2.81</v>
+        <v>5.98</v>
       </c>
       <c r="F193">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -4630,13 +4637,16 @@
         <v>43291</v>
       </c>
       <c r="D194" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E194">
-        <v>2.81</v>
+        <v>5.78</v>
       </c>
       <c r="F194">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H194" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -4650,16 +4660,13 @@
         <v>43291</v>
       </c>
       <c r="D195" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E195">
-        <v>2.78</v>
+        <v>5.68</v>
       </c>
       <c r="F195">
-        <v>2.77</v>
-      </c>
-      <c r="H195" t="s">
-        <v>67</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -4673,96 +4680,99 @@
         <v>43291</v>
       </c>
       <c r="D196" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E196">
-        <v>2.81</v>
+        <v>5.41</v>
       </c>
       <c r="F196">
-        <v>2.77</v>
-      </c>
-      <c r="H196" t="s">
-        <v>67</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E197">
-        <v>20</v>
+        <v>2.81</v>
       </c>
       <c r="F197">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E198">
-        <v>168.8</v>
+        <v>2.81</v>
       </c>
       <c r="F198">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C199" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E199">
-        <v>4.0199999999999996</v>
+        <v>2.78</v>
       </c>
       <c r="F199">
         <v>2.77</v>
+      </c>
+      <c r="H199" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200" s="1">
         <v>43291</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E200">
-        <v>27.4</v>
+        <v>2.81</v>
       </c>
       <c r="F200">
-        <v>7</v>
+        <v>2.77</v>
+      </c>
+      <c r="H200" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -4770,19 +4780,19 @@
         <v>15</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" s="1">
-        <v>43291</v>
+        <v>43283</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>117.2</v>
+        <v>20</v>
       </c>
       <c r="F201">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -4790,19 +4800,19 @@
         <v>15</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C202" s="1">
-        <v>43291</v>
+        <v>43283</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>7.38</v>
+        <v>168.8</v>
       </c>
       <c r="F202">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -4810,19 +4820,19 @@
         <v>15</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C203" s="1">
-        <v>43291</v>
+        <v>43283</v>
       </c>
       <c r="D203" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>5.38</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F203">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -4830,16 +4840,16 @@
         <v>15</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" s="1">
         <v>43291</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E204">
-        <v>45.7</v>
+        <v>27.4</v>
       </c>
       <c r="F204">
         <v>7</v>
@@ -4850,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" s="1">
         <v>43291</v>
@@ -4859,7 +4869,7 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>98.6</v>
+        <v>117.2</v>
       </c>
       <c r="F205">
         <v>10.199999999999999</v>
@@ -4876,256 +4886,260 @@
         <v>43291</v>
       </c>
       <c r="D206" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E206">
-        <v>6.55</v>
+        <v>7.38</v>
       </c>
       <c r="F206">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>16</v>
-      </c>
-      <c r="B207" s="2">
-        <v>2</v>
-      </c>
-      <c r="C207" s="3">
-        <v>43293</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207" s="2">
-        <v>11.66</v>
-      </c>
-      <c r="F207" s="2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>15</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D207" t="s">
+        <v>61</v>
+      </c>
+      <c r="E207">
+        <v>5.38</v>
+      </c>
+      <c r="F207">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C208" s="1">
-        <v>43293</v>
+        <v>43291</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E208">
-        <v>6.26</v>
+        <v>45.7</v>
       </c>
       <c r="F208">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C209" s="1">
-        <v>43293</v>
+        <v>43291</v>
       </c>
       <c r="D209" t="s">
         <v>8</v>
       </c>
       <c r="E209">
-        <v>138.69999999999999</v>
+        <v>98.6</v>
       </c>
       <c r="F209">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209"/>
+      <c r="H209"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
+        <v>15</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D210" t="s">
+        <v>42</v>
+      </c>
+      <c r="E210">
+        <v>6.55</v>
+      </c>
+      <c r="F210">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
         <v>16</v>
       </c>
-      <c r="B210">
-        <v>2</v>
-      </c>
-      <c r="C210" s="1">
+      <c r="B211" s="2">
+        <v>2</v>
+      </c>
+      <c r="C211" s="3">
         <v>43293</v>
       </c>
-      <c r="D210" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210">
-        <v>4.38</v>
-      </c>
-      <c r="F210">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>17</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D211" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>27.6</v>
-      </c>
-      <c r="F211">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="2">
+        <v>11.66</v>
+      </c>
+      <c r="F211" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D212" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>4.76</v>
+        <v>6.26</v>
       </c>
       <c r="F212">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D213" t="s">
         <v>8</v>
       </c>
       <c r="E213">
-        <v>41.7</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="F213">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E214">
-        <v>8.44</v>
+        <v>4.38</v>
       </c>
       <c r="F214">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>17</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="D215" t="s">
         <v>20</v>
       </c>
       <c r="E215">
-        <v>23.2</v>
+        <v>27.6</v>
       </c>
       <c r="F215">
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>17</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" s="1">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="D216" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E216">
-        <v>2.85</v>
+        <v>4.76</v>
       </c>
       <c r="F216">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="D217" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>2.86</v>
+        <v>41.7</v>
       </c>
       <c r="F217">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>17</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>25.7</v>
+        <v>8.44</v>
       </c>
       <c r="F218">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17</v>
       </c>
@@ -5136,173 +5150,173 @@
         <v>43286</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E219">
-        <v>11.8</v>
+        <v>23.2</v>
       </c>
       <c r="F219">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>17</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E220">
-        <v>7.86</v>
+        <v>2.85</v>
       </c>
       <c r="F220">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>17</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E221">
-        <v>37.6</v>
+        <v>2.86</v>
       </c>
       <c r="F221">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>17</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D222" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>6.14</v>
+        <v>25.7</v>
       </c>
       <c r="F222">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>17</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
       </c>
       <c r="E223">
-        <v>7.17</v>
+        <v>11.8</v>
       </c>
       <c r="F223">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C224" s="1">
         <v>43293</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E224">
-        <v>36.4</v>
+        <v>7.86</v>
       </c>
       <c r="F224">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C225" s="1">
         <v>43293</v>
       </c>
       <c r="D225" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>4.68</v>
+        <v>37.6</v>
       </c>
       <c r="F225">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C226" s="1">
         <v>43293</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E226">
-        <v>31</v>
+        <v>6.14</v>
       </c>
       <c r="F226">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>35.5</v>
+        <v>7.17</v>
       </c>
       <c r="F227">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,19 +5324,19 @@
         <v>18</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E228">
-        <v>3.24</v>
+        <v>36.4</v>
       </c>
       <c r="F228">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5330,19 +5344,19 @@
         <v>18</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E229">
-        <v>3.43</v>
+        <v>4.68</v>
       </c>
       <c r="F229">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5350,16 +5364,16 @@
         <v>18</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D230" t="s">
         <v>8</v>
       </c>
       <c r="E230">
-        <v>32.9</v>
+        <v>31</v>
       </c>
       <c r="F230">
         <v>7</v>
@@ -5376,10 +5390,10 @@
         <v>43290</v>
       </c>
       <c r="D231" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E231">
-        <v>14.2</v>
+        <v>35.5</v>
       </c>
       <c r="F231">
         <v>7</v>
@@ -5396,10 +5410,10 @@
         <v>43290</v>
       </c>
       <c r="D232" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E232">
-        <v>5.07</v>
+        <v>3.24</v>
       </c>
       <c r="F232">
         <v>2.77</v>
@@ -5410,19 +5424,19 @@
         <v>18</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="1">
-        <v>43293</v>
+        <v>43290</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E233">
-        <v>11.3</v>
+        <v>3.43</v>
       </c>
       <c r="F233">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5430,19 +5444,19 @@
         <v>18</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" s="1">
-        <v>43293</v>
+        <v>43290</v>
       </c>
       <c r="D234" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E234">
-        <v>4.74</v>
+        <v>32.9</v>
       </c>
       <c r="F234">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5450,16 +5464,16 @@
         <v>18</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" s="1">
-        <v>43293</v>
+        <v>43290</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E235">
-        <v>35.5</v>
+        <v>14.2</v>
       </c>
       <c r="F235">
         <v>7</v>
@@ -5467,102 +5481,102 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D236" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E236">
-        <v>30.6</v>
+        <v>5.07</v>
       </c>
       <c r="F236">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C237" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D237" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E237">
-        <v>4.7</v>
+        <v>11.3</v>
       </c>
       <c r="F237">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
+        <v>18</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" s="1">
+        <v>43293</v>
+      </c>
+      <c r="D238" t="s">
+        <v>51</v>
+      </c>
+      <c r="E238">
+        <v>4.74</v>
+      </c>
+      <c r="F238">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>18</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1">
+        <v>43293</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239">
+        <v>35.5</v>
+      </c>
+      <c r="F239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
         <v>19</v>
       </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D238" t="s">
-        <v>8</v>
-      </c>
-      <c r="E238">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="F238">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
-        <v>19</v>
-      </c>
-      <c r="B239" s="4">
-        <v>1</v>
-      </c>
-      <c r="C239" s="5">
+      <c r="B240" s="4">
+        <v>1</v>
+      </c>
+      <c r="C240" s="5">
         <v>43290</v>
       </c>
-      <c r="D239" s="4" t="s">
+      <c r="D240" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E240" s="4">
         <v>8.83</v>
       </c>
-      <c r="F239" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2">
-        <v>1</v>
-      </c>
-      <c r="C240" s="3">
-        <v>43291</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F240" s="2">
-        <v>7</v>
+      <c r="F240" s="4">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -5570,96 +5584,100 @@
         <v>19</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="1">
         <v>43291</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E241">
-        <v>6.53</v>
+        <v>30.6</v>
       </c>
       <c r="F241">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>19</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" s="1">
         <v>43291</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E242">
-        <v>73.599999999999994</v>
+        <v>4.7</v>
       </c>
       <c r="F242">
-        <v>10.199999999999999</v>
-      </c>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G242"/>
+      <c r="H242"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>19</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" s="1">
         <v>43291</v>
       </c>
       <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>19</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+      <c r="C244" s="3">
+        <v>43291</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E243">
+      <c r="E244" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="F243">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>19</v>
-      </c>
-      <c r="B244">
-        <v>3</v>
-      </c>
-      <c r="C244" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D244" t="s">
-        <v>20</v>
-      </c>
-      <c r="E244">
-        <v>25.9</v>
-      </c>
-      <c r="F244">
-        <v>7</v>
-      </c>
+      <c r="F244" s="2">
+        <v>7</v>
+      </c>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>19</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D245" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E245">
-        <v>4.6100000000000003</v>
+        <v>6.53</v>
       </c>
       <c r="F245">
         <v>4.5999999999999996</v>
@@ -5670,19 +5688,19 @@
         <v>19</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D246" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>4.75</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F246">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -5690,16 +5708,16 @@
         <v>19</v>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E247">
-        <v>36.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F247">
         <v>7</v>
@@ -5716,13 +5734,13 @@
         <v>43292</v>
       </c>
       <c r="D248" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E248">
-        <v>8.08</v>
+        <v>25.9</v>
       </c>
       <c r="F248">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -5736,10 +5754,10 @@
         <v>43292</v>
       </c>
       <c r="D249" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E249">
-        <v>4.63</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F249">
         <v>4.5999999999999996</v>
@@ -5756,33 +5774,30 @@
         <v>43292</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E250">
-        <v>4.6100000000000003</v>
+        <v>4.75</v>
       </c>
       <c r="F250">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H250" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C251" s="1">
         <v>43292</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E251">
-        <v>16.899999999999999</v>
+        <v>36.5</v>
       </c>
       <c r="F251">
         <v>7</v>
@@ -5790,39 +5805,39 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C252" s="1">
         <v>43292</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E252">
-        <v>85.7</v>
+        <v>8.08</v>
       </c>
       <c r="F252">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1">
         <v>43292</v>
       </c>
       <c r="D253" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E253">
-        <v>6.98</v>
+        <v>4.63</v>
       </c>
       <c r="F253">
         <v>4.5999999999999996</v>
@@ -5830,22 +5845,25 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1">
         <v>43292</v>
       </c>
       <c r="D254" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E254">
-        <v>5.32</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F254">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H254" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -5859,13 +5877,13 @@
         <v>43292</v>
       </c>
       <c r="D255" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E255">
-        <v>4.46</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F255">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -5873,182 +5891,182 @@
         <v>20</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C256" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E256">
-        <v>19.600000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="F256">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>20</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>124.6</v>
+        <v>6.98</v>
       </c>
       <c r="F257">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>20</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C258" s="1">
-        <v>43283</v>
+        <v>43292</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E258">
-        <v>26.2</v>
+        <v>5.32</v>
       </c>
       <c r="F258">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>20</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C259" s="1">
-        <v>43283</v>
+        <v>43292</v>
       </c>
       <c r="D259" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E259">
-        <v>123.6</v>
+        <v>4.46</v>
       </c>
       <c r="F259">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>20</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D260" t="s">
+        <v>18</v>
+      </c>
+      <c r="E260">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F260">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>20</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261">
+        <v>124.6</v>
+      </c>
+      <c r="F261">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>20</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" s="1">
         <v>43283</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D262" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262">
+        <v>26.2</v>
+      </c>
+      <c r="F262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>20</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263" s="1">
+        <v>43283</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263">
+        <v>123.6</v>
+      </c>
+      <c r="F263">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" s="1">
+        <v>43283</v>
+      </c>
+      <c r="D264" t="s">
         <v>19</v>
       </c>
-      <c r="E260">
+      <c r="E264">
         <v>4.46</v>
       </c>
-      <c r="F260">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>21</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-      <c r="C261" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D261" t="s">
-        <v>18</v>
-      </c>
-      <c r="E261">
-        <v>23.2</v>
-      </c>
-      <c r="F261">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>21</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D262" t="s">
-        <v>81</v>
-      </c>
-      <c r="E262">
-        <v>5.93</v>
-      </c>
-      <c r="F262">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>21</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D263" t="s">
-        <v>51</v>
-      </c>
-      <c r="E263">
-        <v>4.87</v>
-      </c>
-      <c r="F263">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <v>21</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D264" t="s">
-        <v>16</v>
-      </c>
-      <c r="E264">
-        <v>4.53</v>
-      </c>
       <c r="F264">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>21</v>
       </c>
@@ -6059,16 +6077,16 @@
         <v>43292</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E265">
-        <v>11.91</v>
+        <v>23.2</v>
       </c>
       <c r="F265">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>21</v>
       </c>
@@ -6079,196 +6097,190 @@
         <v>43292</v>
       </c>
       <c r="D266" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E266">
-        <v>4.84</v>
+        <v>5.93</v>
       </c>
       <c r="F266">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>21</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E267">
-        <v>14.3</v>
+        <v>4.87</v>
       </c>
       <c r="F267">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>21</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E268">
-        <v>6.3</v>
+        <v>4.53</v>
       </c>
       <c r="F268">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>21</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269">
+        <v>11.91</v>
+      </c>
+      <c r="F269">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>21</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D270" t="s">
+        <v>66</v>
+      </c>
+      <c r="E270">
+        <v>4.84</v>
+      </c>
+      <c r="F270">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>21</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" s="1">
         <v>43293</v>
       </c>
-      <c r="D269" t="s">
-        <v>11</v>
-      </c>
-      <c r="E269">
-        <v>8.19</v>
-      </c>
-      <c r="F269">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>22</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-      <c r="C270" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D270" t="s">
-        <v>8</v>
-      </c>
-      <c r="E270">
-        <v>82.4</v>
-      </c>
-      <c r="F270">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>22</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-      <c r="C271" s="1">
-        <v>43290</v>
-      </c>
       <c r="D271" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E271">
-        <v>2.83</v>
+        <v>14.3</v>
       </c>
       <c r="F271">
-        <v>2.77</v>
-      </c>
-      <c r="H271" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B272">
         <v>2</v>
       </c>
       <c r="C272" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D272" t="s">
         <v>8</v>
       </c>
       <c r="E272">
-        <v>190.3</v>
+        <v>6.3</v>
       </c>
       <c r="F272">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B273">
         <v>2</v>
       </c>
       <c r="C273" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D273" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E273">
-        <v>2.82</v>
+        <v>8.19</v>
       </c>
       <c r="F273">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D274" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E274">
-        <v>4.72</v>
+        <v>9.82</v>
       </c>
       <c r="F274">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H274" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D275" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E275">
-        <v>4.54</v>
+        <v>5.55</v>
       </c>
       <c r="F275">
         <v>4.5999999999999996</v>
@@ -6276,202 +6288,202 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E276">
-        <v>60.6</v>
+        <v>3.09</v>
       </c>
       <c r="F276">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>22</v>
-      </c>
-      <c r="B277">
-        <v>3</v>
-      </c>
-      <c r="C277" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D277" t="s">
-        <v>23</v>
-      </c>
-      <c r="E277">
-        <v>4.51</v>
-      </c>
-      <c r="F277">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H277" t="s">
-        <v>75</v>
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="6">
+        <v>21</v>
+      </c>
+      <c r="B277" s="6">
+        <v>3</v>
+      </c>
+      <c r="C277" s="7">
+        <v>43290</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
+        <v>21</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D278" t="s">
         <v>23</v>
       </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D278" t="s">
-        <v>52</v>
-      </c>
       <c r="E278">
-        <v>6.6</v>
+        <v>2.79</v>
       </c>
       <c r="F278">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
+      </c>
+      <c r="H278" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D279" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E279">
-        <v>4.6100000000000003</v>
+        <v>82.4</v>
       </c>
       <c r="F279">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
+        <v>22</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D280" t="s">
         <v>23</v>
       </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="C280" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D280" t="s">
-        <v>61</v>
-      </c>
       <c r="E280">
-        <v>20.399999999999999</v>
+        <v>2.83</v>
       </c>
       <c r="F280">
-        <v>7</v>
+        <v>2.77</v>
+      </c>
+      <c r="H280" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D281" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E281">
-        <v>6.78</v>
+        <v>190.3</v>
       </c>
       <c r="F281">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E282">
-        <v>9.67</v>
+        <v>2.82</v>
       </c>
       <c r="F282">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C283" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D283" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E283">
-        <v>5.41</v>
+        <v>2.83</v>
       </c>
       <c r="F283">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C284" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D284" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E284">
-        <v>11.19</v>
+        <v>4.72</v>
       </c>
       <c r="F284">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H284" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C285" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D285" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E285">
-        <v>6.96</v>
+        <v>4.54</v>
       </c>
       <c r="F285">
         <v>4.5999999999999996</v>
@@ -6479,42 +6491,45 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C286" s="1">
         <v>43292</v>
       </c>
       <c r="D286" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E286">
-        <v>5.31</v>
+        <v>60.6</v>
       </c>
       <c r="F286">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C287" s="1">
         <v>43292</v>
       </c>
       <c r="D287" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E287">
-        <v>4.6500000000000004</v>
+        <v>4.51</v>
       </c>
       <c r="F287">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H287" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -6522,590 +6537,590 @@
         <v>23</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C288" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D288" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E288">
-        <v>7.45</v>
+        <v>6.6</v>
       </c>
       <c r="F288">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>23</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C289" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D289" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E289">
-        <v>5.99</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F289">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>23</v>
       </c>
       <c r="B290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D290" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E290">
-        <v>9.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F290">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>23</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C291" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D291" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E291">
-        <v>22.8</v>
+        <v>6.78</v>
       </c>
       <c r="F291">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>23</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D292" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E292">
-        <v>7.6</v>
+        <v>9.67</v>
       </c>
       <c r="F292">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>23</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C293" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D293" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E293">
-        <v>7.1</v>
+        <v>5.41</v>
       </c>
       <c r="F293">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>23</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C294" s="1">
         <v>43291</v>
       </c>
       <c r="D294" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E294">
-        <v>33.4</v>
+        <v>11.19</v>
       </c>
       <c r="F294">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>23</v>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C295" s="1">
         <v>43291</v>
       </c>
       <c r="D295" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E295">
-        <v>4.87</v>
+        <v>6.96</v>
       </c>
       <c r="F295">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>23</v>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D296" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E296">
-        <v>10.57</v>
+        <v>5.31</v>
       </c>
       <c r="F296">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>23</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D297" t="s">
+        <v>84</v>
+      </c>
+      <c r="E297">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F297">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>23</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D298" t="s">
+        <v>61</v>
+      </c>
+      <c r="E298">
+        <v>7.45</v>
+      </c>
+      <c r="F298">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>23</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D299" t="s">
+        <v>51</v>
+      </c>
+      <c r="E299">
+        <v>5.99</v>
+      </c>
+      <c r="F299">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>23</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D300" t="s">
         <v>8</v>
       </c>
-      <c r="E297">
-        <v>11.73</v>
-      </c>
-      <c r="F297">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <v>24</v>
-      </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-      <c r="C298" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D298" t="s">
-        <v>60</v>
-      </c>
-      <c r="E298">
-        <v>24</v>
-      </c>
-      <c r="F298">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <v>24</v>
-      </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-      <c r="C299" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D299" t="s">
-        <v>18</v>
-      </c>
-      <c r="E299">
-        <v>6.06</v>
-      </c>
-      <c r="F299">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <v>24</v>
-      </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-      <c r="C300" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D300" t="s">
-        <v>59</v>
-      </c>
       <c r="E300">
-        <v>3.16</v>
+        <v>9.4</v>
       </c>
       <c r="F300">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C301" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D301" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E301">
-        <v>2.73</v>
+        <v>22.8</v>
       </c>
       <c r="F301">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C302" s="1">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="D302" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E302">
-        <v>15.58</v>
+        <v>7.6</v>
       </c>
       <c r="F302">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303">
+        <v>7.1</v>
+      </c>
+      <c r="F303">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
         <v>23</v>
       </c>
-      <c r="E303">
-        <v>2.74</v>
-      </c>
-      <c r="F303">
-        <v>2.77</v>
-      </c>
-      <c r="H303" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <v>24</v>
-      </c>
       <c r="B304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C304" s="1">
         <v>43291</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E304">
-        <v>2.92</v>
+        <v>33.4</v>
       </c>
       <c r="F304">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C305" s="1">
         <v>43291</v>
       </c>
       <c r="D305" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E305">
-        <v>8.4499999999999993</v>
+        <v>4.87</v>
       </c>
       <c r="F305">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C306" s="1">
         <v>43291</v>
       </c>
       <c r="D306" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E306">
-        <v>2.91</v>
+        <v>10.57</v>
       </c>
       <c r="F306">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C307" s="1">
         <v>43291</v>
       </c>
       <c r="D307" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E307">
-        <v>2.92</v>
+        <v>11.73</v>
       </c>
       <c r="F307">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>24</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C308" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D308" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E308">
-        <v>5.65</v>
+        <v>24</v>
       </c>
       <c r="F308">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>24</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C309" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D309" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E309">
-        <v>2.9</v>
+        <v>6.06</v>
       </c>
       <c r="F309">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>24</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C310" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D310" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E310">
-        <v>9.7100000000000009</v>
+        <v>15.58</v>
       </c>
       <c r="F310">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>24</v>
       </c>
       <c r="B311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C311" s="1">
         <v>43291</v>
       </c>
       <c r="D311" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E311">
-        <v>7.64</v>
+        <v>3.16</v>
       </c>
       <c r="F311">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>24</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C312" s="1">
         <v>43291</v>
       </c>
       <c r="D312" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E312">
-        <v>6.73</v>
+        <v>2.73</v>
       </c>
       <c r="F312">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>24</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C313" s="1">
         <v>43291</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E313">
-        <v>5.53</v>
+        <v>2.74</v>
       </c>
       <c r="F313">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+      <c r="H313" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>24</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314" s="1">
         <v>43291</v>
       </c>
       <c r="D314" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E314">
-        <v>25.3</v>
+        <v>2.92</v>
       </c>
       <c r="F314">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>24</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C315" s="1">
         <v>43291</v>
       </c>
       <c r="D315" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E315">
-        <v>2.84</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F315">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>24</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" s="1">
         <v>43291</v>
       </c>
       <c r="D316" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E316">
-        <v>6.5</v>
+        <v>2.91</v>
       </c>
       <c r="F316">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>24</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C317" s="1">
         <v>43291</v>
@@ -7114,18 +7129,18 @@
         <v>51</v>
       </c>
       <c r="E317">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="F317">
         <v>2.77</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>24</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318" s="1">
         <v>43291</v>
@@ -7134,107 +7149,107 @@
         <v>8</v>
       </c>
       <c r="E318">
-        <v>5.38</v>
+        <v>5.65</v>
       </c>
       <c r="F318">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>24</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319" s="1">
         <v>43291</v>
       </c>
       <c r="D319" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E319">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="F319">
         <v>2.77</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>24</v>
       </c>
       <c r="B320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320" s="1">
         <v>43291</v>
       </c>
       <c r="D320" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E320">
-        <v>2.85</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F320">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D321" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E321">
-        <v>12.9</v>
+        <v>7.64</v>
       </c>
       <c r="F321">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C322" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D322" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E322">
-        <v>20.9</v>
+        <v>6.73</v>
       </c>
       <c r="F322">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C323" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D323" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E323">
-        <v>9.1199999999999992</v>
+        <v>5.53</v>
       </c>
       <c r="F323">
         <v>4.5999999999999996</v>
@@ -7242,144 +7257,146 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C324" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D324" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E324">
-        <v>8.16</v>
+        <v>25.3</v>
       </c>
       <c r="F324">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C325" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D325" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E325">
-        <v>6.45</v>
+        <v>2.84</v>
       </c>
       <c r="F325">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="2">
-        <v>25</v>
-      </c>
-      <c r="B326" s="2">
-        <v>1</v>
-      </c>
-      <c r="C326" s="3">
-        <v>43292</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E326" s="2">
-        <v>10.54</v>
-      </c>
-      <c r="F326" s="2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>24</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326">
+        <v>6.5</v>
+      </c>
+      <c r="F326">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C327" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D327" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E327">
-        <v>5.53</v>
+        <v>2.87</v>
       </c>
       <c r="F327">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
       <c r="G327"/>
       <c r="H327"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C328" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D328" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E328">
-        <v>4.57</v>
+        <v>5.38</v>
       </c>
       <c r="F328">
-        <v>4.5999999999999996</v>
-      </c>
+        <v>2.77</v>
+      </c>
+      <c r="G328"/>
+      <c r="H328"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C329" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D329" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E329">
-        <v>4.6500000000000004</v>
+        <v>2.89</v>
       </c>
       <c r="F329">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C330" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D330" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E330">
-        <v>23.8</v>
+        <v>2.85</v>
       </c>
       <c r="F330">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7387,19 +7404,19 @@
         <v>25</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" s="1">
         <v>43292</v>
       </c>
       <c r="D331" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E331">
-        <v>4.7300000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="F331">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -7407,19 +7424,19 @@
         <v>25</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C332" s="1">
         <v>43292</v>
       </c>
       <c r="D332" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E332">
-        <v>4.63</v>
+        <v>20.9</v>
       </c>
       <c r="F332">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7427,16 +7444,16 @@
         <v>25</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C333" s="1">
         <v>43292</v>
       </c>
       <c r="D333" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E333">
-        <v>13.08</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F333">
         <v>4.5999999999999996</v>
@@ -7447,352 +7464,365 @@
         <v>25</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C334" s="1">
         <v>43292</v>
       </c>
       <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334">
+        <v>8.16</v>
+      </c>
+      <c r="F334">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>25</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D335" t="s">
         <v>54</v>
       </c>
-      <c r="E334">
-        <v>4.62</v>
-      </c>
-      <c r="F334">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="2">
+      <c r="E335">
+        <v>6.45</v>
+      </c>
+      <c r="F335">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
         <v>25</v>
       </c>
-      <c r="B335" s="2">
-        <v>2</v>
-      </c>
-      <c r="C335" s="3">
+      <c r="B336" s="2">
+        <v>1</v>
+      </c>
+      <c r="C336" s="3">
         <v>43292</v>
       </c>
-      <c r="D335" s="2" t="s">
+      <c r="D336" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E335" s="2">
-        <v>9.31</v>
-      </c>
-      <c r="F335" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336">
+      <c r="E336" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="F336" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337">
         <v>25</v>
       </c>
-      <c r="B336">
-        <v>2</v>
-      </c>
-      <c r="C336" s="1">
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337" s="1">
         <v>43292</v>
       </c>
-      <c r="D336" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336">
-        <v>9.31</v>
-      </c>
-      <c r="F336">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="2">
+      <c r="D337" t="s">
+        <v>52</v>
+      </c>
+      <c r="E337">
+        <v>5.53</v>
+      </c>
+      <c r="F337">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338">
         <v>25</v>
       </c>
-      <c r="B337" s="2">
-        <v>2</v>
-      </c>
-      <c r="C337" s="3">
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="C338" s="1">
         <v>43292</v>
       </c>
-      <c r="D337" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E337" s="2">
-        <v>5.89</v>
-      </c>
-      <c r="F337" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="2">
-        <v>25</v>
-      </c>
-      <c r="B338" s="2">
-        <v>2</v>
-      </c>
-      <c r="C338" s="3">
-        <v>43292</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E338" s="2">
-        <v>5.23</v>
-      </c>
-      <c r="F338" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D338" t="s">
+        <v>60</v>
+      </c>
+      <c r="E338">
+        <v>4.57</v>
+      </c>
+      <c r="F338">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G338"/>
+      <c r="H338"/>
+    </row>
+    <row r="339" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>25</v>
       </c>
       <c r="B339">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C339" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D339" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E339">
-        <v>3.54</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F339">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G339"/>
+      <c r="H339"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>25</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D340" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E340">
-        <v>17.899999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="F340">
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>25</v>
       </c>
       <c r="B341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D341" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E341">
-        <v>7.22</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F341">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>25</v>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C342" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D342" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E342">
-        <v>3.07</v>
+        <v>4.63</v>
       </c>
       <c r="F342">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>25</v>
       </c>
       <c r="B343">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C343" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D343" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E343">
-        <v>8.14</v>
+        <v>13.08</v>
       </c>
       <c r="F343">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>25</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C344" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D344" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E344">
-        <v>19.600000000000001</v>
+        <v>4.62</v>
       </c>
       <c r="F344">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>25</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C345" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D345" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345">
+        <v>9.31</v>
+      </c>
+      <c r="F345">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>25</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2</v>
+      </c>
+      <c r="C346" s="3">
+        <v>43292</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E346" s="2">
+        <v>5.89</v>
+      </c>
+      <c r="F346" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>25</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" s="3">
+        <v>43292</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="F347" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>25</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" s="1">
         <v>43291</v>
       </c>
-      <c r="D345" t="s">
-        <v>54</v>
-      </c>
-      <c r="E345">
-        <v>2.79</v>
-      </c>
-      <c r="F345">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A346">
+      <c r="D348" t="s">
+        <v>52</v>
+      </c>
+      <c r="E348">
+        <v>3.54</v>
+      </c>
+      <c r="F348">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349">
         <v>25</v>
       </c>
-      <c r="B346">
-        <v>3</v>
-      </c>
-      <c r="C346" s="1">
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" s="1">
         <v>43291</v>
       </c>
-      <c r="D346" t="s">
-        <v>62</v>
-      </c>
-      <c r="E346">
-        <v>6.62</v>
-      </c>
-      <c r="F346">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A347">
-        <v>26</v>
-      </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
-      <c r="C347" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D347" t="s">
+      <c r="D349" t="s">
+        <v>60</v>
+      </c>
+      <c r="E349">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F349">
+        <v>7</v>
+      </c>
+      <c r="G349"/>
+      <c r="H349"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>25</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D350" t="s">
+        <v>61</v>
+      </c>
+      <c r="E350">
+        <v>7.22</v>
+      </c>
+      <c r="F350">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>25</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D351" t="s">
         <v>8</v>
-      </c>
-      <c r="E347">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F347">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A348">
-        <v>26</v>
-      </c>
-      <c r="B348">
-        <v>2</v>
-      </c>
-      <c r="C348" s="1">
-        <v>43283</v>
-      </c>
-      <c r="D348" t="s">
-        <v>25</v>
-      </c>
-      <c r="E348">
-        <v>3.31</v>
-      </c>
-      <c r="F348">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="6">
-        <v>26</v>
-      </c>
-      <c r="B349" s="6">
-        <v>2</v>
-      </c>
-      <c r="C349" s="7">
-        <v>43286</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E349" s="6"/>
-      <c r="F349" s="6"/>
-      <c r="G349" s="6"/>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A350">
-        <v>26</v>
-      </c>
-      <c r="B350">
-        <v>2</v>
-      </c>
-      <c r="C350" s="1">
-        <v>43283</v>
-      </c>
-      <c r="D350" t="s">
-        <v>8</v>
-      </c>
-      <c r="E350">
-        <v>61.4</v>
-      </c>
-      <c r="F350">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A351">
-        <v>26</v>
-      </c>
-      <c r="B351">
-        <v>2</v>
-      </c>
-      <c r="C351" s="1">
-        <v>43283</v>
-      </c>
-      <c r="D351" t="s">
-        <v>32</v>
       </c>
       <c r="E351">
         <v>3.07</v>
@@ -7801,355 +7831,349 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C352" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D352" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E352">
-        <v>34.4</v>
+        <v>8.14</v>
       </c>
       <c r="F352">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C353" s="1">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="D353" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E353">
-        <v>2.82</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F353">
-        <v>2.77</v>
-      </c>
-      <c r="H353" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C354" s="1">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="D354" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E354">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="F354">
         <v>2.77</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C355" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D355" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E355">
-        <v>5.57</v>
+        <v>6.62</v>
       </c>
       <c r="F355">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>26</v>
       </c>
       <c r="B356">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C356" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D356" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E356">
-        <v>4.58</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="F356">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>26</v>
       </c>
       <c r="B357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C357" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D357" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E357">
-        <v>4.8099999999999996</v>
+        <v>2.97</v>
       </c>
       <c r="F357">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>26</v>
       </c>
       <c r="B358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C358" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D358" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E358">
-        <v>34.6</v>
+        <v>3.03</v>
       </c>
       <c r="F358">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>26</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C359" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D359" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E359">
-        <v>5.12</v>
+        <v>3.2</v>
       </c>
       <c r="F359">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>26</v>
       </c>
       <c r="B360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C360" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D360" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E360">
-        <v>4.6500000000000004</v>
+        <v>2.96</v>
       </c>
       <c r="F360">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>26</v>
       </c>
       <c r="B361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C361" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D361" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E361">
-        <v>11.59</v>
+        <v>3.04</v>
       </c>
       <c r="F361">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>26</v>
       </c>
       <c r="B362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C362" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D362" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E362">
-        <v>4.54</v>
+        <v>3.64</v>
       </c>
       <c r="F362">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>26</v>
       </c>
       <c r="B363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363" s="1">
-        <v>43292</v>
+        <v>43283</v>
       </c>
       <c r="D363" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E363">
-        <v>4.6100000000000003</v>
+        <v>3.31</v>
       </c>
       <c r="F363">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H363" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C364" s="1">
-        <v>43290</v>
+        <v>43283</v>
       </c>
       <c r="D364" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E364">
-        <v>12.6</v>
+        <v>61.4</v>
       </c>
       <c r="F364">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C365" s="1">
-        <v>43290</v>
+        <v>43283</v>
       </c>
       <c r="D365" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E365">
-        <v>22.9</v>
+        <v>3.07</v>
       </c>
       <c r="F365">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B366">
         <v>2</v>
       </c>
       <c r="C366" s="1">
-        <v>43290</v>
+        <v>43283</v>
       </c>
       <c r="D366" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E366">
-        <v>10.4</v>
+        <v>34.4</v>
       </c>
       <c r="F366">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B367">
         <v>2</v>
       </c>
       <c r="C367" s="1">
-        <v>43290</v>
+        <v>43283</v>
       </c>
       <c r="D367" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E367">
-        <v>3.51</v>
+        <v>5.57</v>
       </c>
       <c r="F367">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B368">
         <v>2</v>
       </c>
       <c r="C368" s="1">
-        <v>43290</v>
+        <v>43286</v>
       </c>
       <c r="D368" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E368">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="F368">
         <v>2.77</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -8158,7 +8182,7 @@
         <v>43290</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E369">
         <v>2.82</v>
@@ -8166,515 +8190,545 @@
       <c r="F369">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A370" s="2">
+      <c r="H369" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>26</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D370" t="s">
+        <v>82</v>
+      </c>
+      <c r="E370">
+        <v>4.58</v>
+      </c>
+      <c r="F370">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>26</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D371" t="s">
+        <v>25</v>
+      </c>
+      <c r="E371">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F371">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G371"/>
+      <c r="H371"/>
+    </row>
+    <row r="372" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>26</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D372" t="s">
+        <v>8</v>
+      </c>
+      <c r="E372">
+        <v>34.6</v>
+      </c>
+      <c r="F372">
+        <v>7</v>
+      </c>
+      <c r="G372"/>
+      <c r="H372"/>
+    </row>
+    <row r="373" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>26</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D373" t="s">
+        <v>10</v>
+      </c>
+      <c r="E373">
+        <v>5.12</v>
+      </c>
+      <c r="F373">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G373"/>
+      <c r="H373"/>
+    </row>
+    <row r="374" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>26</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D374" t="s">
+        <v>43</v>
+      </c>
+      <c r="E374">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F374">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G374"/>
+      <c r="H374"/>
+    </row>
+    <row r="375" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>26</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D375" t="s">
+        <v>33</v>
+      </c>
+      <c r="E375">
+        <v>11.59</v>
+      </c>
+      <c r="F375">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G375"/>
+      <c r="H375"/>
+    </row>
+    <row r="376" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>26</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D376" t="s">
+        <v>30</v>
+      </c>
+      <c r="E376">
+        <v>4.54</v>
+      </c>
+      <c r="F376">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G376"/>
+      <c r="H376"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>26</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D377" t="s">
+        <v>23</v>
+      </c>
+      <c r="E377">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F377">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H377" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378">
         <v>27</v>
       </c>
-      <c r="B370" s="2">
-        <v>2</v>
-      </c>
-      <c r="C370" s="3">
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378" s="1">
         <v>43290</v>
       </c>
-      <c r="D370" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E370" s="2">
-        <v>3.04</v>
-      </c>
-      <c r="F370" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="G370" s="2"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A371">
+      <c r="D378" t="s">
+        <v>52</v>
+      </c>
+      <c r="E378">
+        <v>12.6</v>
+      </c>
+      <c r="F378">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379">
         <v>27</v>
       </c>
-      <c r="B371">
-        <v>2</v>
-      </c>
-      <c r="C371" s="1">
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379" s="1">
         <v>43290</v>
       </c>
-      <c r="D371" t="s">
-        <v>16</v>
-      </c>
-      <c r="E371">
-        <v>2.89</v>
-      </c>
-      <c r="F371">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A372">
-        <v>27</v>
-      </c>
-      <c r="B372">
-        <v>2</v>
-      </c>
-      <c r="C372" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D372" t="s">
-        <v>53</v>
-      </c>
-      <c r="E372">
-        <v>2.81</v>
-      </c>
-      <c r="F372">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A373">
-        <v>27</v>
-      </c>
-      <c r="B373">
-        <v>2</v>
-      </c>
-      <c r="C373" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D373" t="s">
-        <v>8</v>
-      </c>
-      <c r="E373">
-        <v>5.39</v>
-      </c>
-      <c r="F373">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A374">
-        <v>27</v>
-      </c>
-      <c r="B374">
-        <v>2</v>
-      </c>
-      <c r="C374" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D374" t="s">
+      <c r="D379" t="s">
         <v>56</v>
       </c>
-      <c r="E374">
-        <v>3.01</v>
-      </c>
-      <c r="F374">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>27</v>
-      </c>
-      <c r="B375" s="2">
-        <v>2</v>
-      </c>
-      <c r="C375" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E375" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="F375" s="2">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>27</v>
-      </c>
-      <c r="B376" s="2">
-        <v>2</v>
-      </c>
-      <c r="C376" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E376" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="F376" s="2">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A377" s="2">
-        <v>27</v>
-      </c>
-      <c r="B377" s="2">
-        <v>3</v>
-      </c>
-      <c r="C377" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E377" s="2">
+      <c r="E379">
         <v>22.9</v>
       </c>
-      <c r="F377" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378" s="2">
-        <v>27</v>
-      </c>
-      <c r="B378" s="2">
-        <v>3</v>
-      </c>
-      <c r="C378" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E378" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="F378" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>27</v>
-      </c>
-      <c r="B379" s="2">
-        <v>3</v>
-      </c>
-      <c r="C379" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E379" s="2">
-        <v>37</v>
-      </c>
-      <c r="F379" s="2">
-        <v>7</v>
-      </c>
-      <c r="G379" s="2"/>
-    </row>
-    <row r="380" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F379">
+        <v>7</v>
+      </c>
+      <c r="G379"/>
+      <c r="H379"/>
+    </row>
+    <row r="380" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>27</v>
       </c>
       <c r="B380" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C380" s="3">
         <v>43290</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E380" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="F380" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B381" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C381" s="3">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E381" s="2">
-        <v>6.84</v>
+        <v>3.51</v>
       </c>
       <c r="F381" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.77</v>
+      </c>
+      <c r="G381" s="2"/>
+      <c r="H381" s="2"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C382" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D382" t="s">
-        <v>71</v>
-      </c>
-      <c r="E382" s="2">
-        <v>5.07</v>
-      </c>
-      <c r="F382" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E382">
+        <v>3.01</v>
+      </c>
+      <c r="F382">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C383" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D383" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E383">
-        <v>94.3</v>
+        <v>2.82</v>
       </c>
       <c r="F383">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A384">
-        <v>28</v>
-      </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-      <c r="C384" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D384" t="s">
-        <v>9</v>
-      </c>
-      <c r="E384">
-        <v>5.85</v>
-      </c>
-      <c r="F384">
-        <v>4.5999999999999996</v>
-      </c>
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>27</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2</v>
+      </c>
+      <c r="C384" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E384" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="F384" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="G384" s="2"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C385" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D385" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E385">
-        <v>8.9499999999999993</v>
+        <v>2.89</v>
       </c>
       <c r="F385">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C386" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D386" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E386">
-        <v>6.07</v>
+        <v>2.81</v>
       </c>
       <c r="F386">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C387" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D387" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E387">
-        <v>4.67</v>
+        <v>5.39</v>
       </c>
       <c r="F387">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C388" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D388" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E388">
-        <v>4.84</v>
+        <v>3.01</v>
       </c>
       <c r="F388">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H388" t="s">
-        <v>67</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
-        <v>28</v>
-      </c>
-      <c r="B389" s="2">
-        <v>2</v>
-      </c>
-      <c r="C389" s="3">
-        <v>43286</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E389" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="F389" s="2">
-        <v>7</v>
-      </c>
+      <c r="A389" s="4">
+        <v>27</v>
+      </c>
+      <c r="B389" s="4">
+        <v>2</v>
+      </c>
+      <c r="C389" s="5">
+        <v>43290</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E389" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="F389" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="G389" s="4"/>
+      <c r="H389" s="4"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390">
-        <v>28</v>
-      </c>
-      <c r="B390">
-        <v>2</v>
-      </c>
-      <c r="C390" s="1">
-        <v>43286</v>
-      </c>
-      <c r="D390" t="s">
+      <c r="A390" s="4">
+        <v>27</v>
+      </c>
+      <c r="B390" s="4">
+        <v>2</v>
+      </c>
+      <c r="C390" s="5">
+        <v>43290</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E390" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="F390" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="G390" s="4"/>
+      <c r="H390" s="4"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>27</v>
+      </c>
+      <c r="B391" s="2">
+        <v>3</v>
+      </c>
+      <c r="C391" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F391" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G391" s="2"/>
+      <c r="H391" s="2"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>27</v>
+      </c>
+      <c r="B392" s="2">
+        <v>3</v>
+      </c>
+      <c r="C392" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D392" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E390">
-        <v>30.6</v>
-      </c>
-      <c r="F390">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391">
-        <v>28</v>
-      </c>
-      <c r="B391">
-        <v>2</v>
-      </c>
-      <c r="C391" s="1">
-        <v>43286</v>
-      </c>
-      <c r="D391" t="s">
-        <v>86</v>
-      </c>
-      <c r="E391">
-        <v>3.24</v>
-      </c>
-      <c r="F391">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A392">
-        <v>28</v>
-      </c>
-      <c r="B392">
-        <v>2</v>
-      </c>
-      <c r="C392" s="1">
-        <v>43286</v>
-      </c>
-      <c r="D392" t="s">
-        <v>9</v>
-      </c>
-      <c r="E392">
-        <v>7.26</v>
-      </c>
-      <c r="F392">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="E392" s="2">
+        <v>8.77</v>
+      </c>
+      <c r="F392" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G392" s="2"/>
+      <c r="H392" s="2"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A393">
-        <v>28</v>
-      </c>
-      <c r="B393">
-        <v>2</v>
-      </c>
-      <c r="C393" s="1">
-        <v>43286</v>
-      </c>
-      <c r="D393" t="s">
-        <v>42</v>
-      </c>
-      <c r="E393">
-        <v>6.05</v>
-      </c>
-      <c r="F393">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="A393" s="2">
+        <v>27</v>
+      </c>
+      <c r="B393" s="2">
+        <v>3</v>
+      </c>
+      <c r="C393" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E393" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="F393" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="G393" s="2"/>
+      <c r="H393" s="2"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394">
-        <v>28</v>
-      </c>
-      <c r="B394">
-        <v>3</v>
-      </c>
-      <c r="C394" s="1">
+      <c r="A394" s="2">
+        <v>27</v>
+      </c>
+      <c r="B394" s="2">
+        <v>3</v>
+      </c>
+      <c r="C394" s="3">
         <v>43290</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E394">
-        <v>6.06</v>
-      </c>
-      <c r="F394">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="E394" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="F394" s="2">
+        <v>7</v>
+      </c>
+      <c r="G394" s="2"/>
+      <c r="H394" s="2"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B395" s="2">
         <v>3</v>
@@ -8683,93 +8737,98 @@
         <v>43290</v>
       </c>
       <c r="D395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="F395" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>27</v>
+      </c>
+      <c r="B396" s="2">
+        <v>3</v>
+      </c>
+      <c r="C396" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E396" s="2">
+        <v>37</v>
+      </c>
+      <c r="F396" s="2">
+        <v>7</v>
+      </c>
+      <c r="G396" s="2"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>27</v>
+      </c>
+      <c r="B397" s="2">
+        <v>3</v>
+      </c>
+      <c r="C397" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E397" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="F397" s="2">
+        <v>7</v>
+      </c>
+      <c r="G397" s="2"/>
+      <c r="H397" s="2"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>28</v>
+      </c>
+      <c r="B398" s="2">
+        <v>1</v>
+      </c>
+      <c r="C398" s="3">
+        <v>43292</v>
+      </c>
+      <c r="D398" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E395" s="2">
-        <v>21</v>
-      </c>
-      <c r="F395" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A396">
-        <v>28</v>
-      </c>
-      <c r="B396">
-        <v>3</v>
-      </c>
-      <c r="C396" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D396" t="s">
-        <v>58</v>
-      </c>
-      <c r="E396">
-        <v>3.31</v>
-      </c>
-      <c r="F396">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397">
-        <v>28</v>
-      </c>
-      <c r="B397">
-        <v>3</v>
-      </c>
-      <c r="C397" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D397" t="s">
-        <v>8</v>
-      </c>
-      <c r="E397">
-        <v>30.9</v>
-      </c>
-      <c r="F397">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A398">
-        <v>28</v>
-      </c>
-      <c r="B398">
-        <v>3</v>
-      </c>
-      <c r="C398" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D398" t="s">
-        <v>9</v>
-      </c>
-      <c r="E398">
-        <v>7.67</v>
-      </c>
-      <c r="F398">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="E398" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="F398" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G398" s="2"/>
+      <c r="H398" s="2"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>28</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C399" s="1">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="D399" t="s">
-        <v>42</v>
-      </c>
-      <c r="E399">
-        <v>4.22</v>
-      </c>
-      <c r="F399">
-        <v>2.77</v>
+        <v>71</v>
+      </c>
+      <c r="E399" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="F399" s="2">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -8777,33 +8836,418 @@
         <v>28</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C400" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D400" t="s">
+        <v>8</v>
+      </c>
+      <c r="E400">
+        <v>94.3</v>
+      </c>
+      <c r="F400">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>28</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D401" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401">
+        <v>5.85</v>
+      </c>
+      <c r="F401">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>28</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D402" t="s">
+        <v>70</v>
+      </c>
+      <c r="E402">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F402">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>28</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D403" t="s">
+        <v>49</v>
+      </c>
+      <c r="E403">
+        <v>6.07</v>
+      </c>
+      <c r="F403">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>28</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D404" t="s">
+        <v>62</v>
+      </c>
+      <c r="E404">
+        <v>4.67</v>
+      </c>
+      <c r="F404">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>28</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D405" t="s">
+        <v>23</v>
+      </c>
+      <c r="E405">
+        <v>4.84</v>
+      </c>
+      <c r="F405">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H405" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>28</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2</v>
+      </c>
+      <c r="C406" s="3">
+        <v>43286</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F406" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>28</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D407" t="s">
+        <v>8</v>
+      </c>
+      <c r="E407">
+        <v>30.6</v>
+      </c>
+      <c r="F407">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>28</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D408" t="s">
+        <v>86</v>
+      </c>
+      <c r="E408">
+        <v>3.24</v>
+      </c>
+      <c r="F408">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>28</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D409" t="s">
+        <v>9</v>
+      </c>
+      <c r="E409">
+        <v>7.26</v>
+      </c>
+      <c r="F409">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>28</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D410" t="s">
+        <v>42</v>
+      </c>
+      <c r="E410">
+        <v>6.05</v>
+      </c>
+      <c r="F410">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>28</v>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+      <c r="C411" s="1">
         <v>43290</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D411" t="s">
+        <v>18</v>
+      </c>
+      <c r="E411">
+        <v>6.06</v>
+      </c>
+      <c r="F411">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>28</v>
+      </c>
+      <c r="B412" s="2">
+        <v>3</v>
+      </c>
+      <c r="C412" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E412" s="2">
+        <v>21</v>
+      </c>
+      <c r="F412" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>28</v>
+      </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
+      <c r="C413" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D413" t="s">
+        <v>58</v>
+      </c>
+      <c r="E413">
+        <v>3.31</v>
+      </c>
+      <c r="F413">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>28</v>
+      </c>
+      <c r="B414">
+        <v>3</v>
+      </c>
+      <c r="C414" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D414" t="s">
+        <v>8</v>
+      </c>
+      <c r="E414">
+        <v>30.9</v>
+      </c>
+      <c r="F414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>28</v>
+      </c>
+      <c r="B415">
+        <v>3</v>
+      </c>
+      <c r="C415" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D415" t="s">
+        <v>9</v>
+      </c>
+      <c r="E415">
+        <v>7.67</v>
+      </c>
+      <c r="F415">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>28</v>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+      <c r="C416" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D416" t="s">
+        <v>42</v>
+      </c>
+      <c r="E416">
+        <v>4.22</v>
+      </c>
+      <c r="F416">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>28</v>
+      </c>
+      <c r="B417">
+        <v>3</v>
+      </c>
+      <c r="C417" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D417" t="s">
         <v>23</v>
       </c>
-      <c r="E400">
+      <c r="E417">
         <v>2.83</v>
       </c>
-      <c r="F400">
-        <v>2.77</v>
-      </c>
-      <c r="H400" t="s">
+      <c r="F417">
+        <v>2.77</v>
+      </c>
+      <c r="H417" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>28</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D418" t="s">
+        <v>100</v>
+      </c>
+      <c r="E418">
+        <v>3.39</v>
+      </c>
+      <c r="F418">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D419" t="s">
+        <v>20</v>
+      </c>
+      <c r="E419">
+        <v>14.71</v>
+      </c>
+      <c r="F419">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D420" t="s">
+        <v>9</v>
+      </c>
+      <c r="E420">
+        <v>9.41</v>
+      </c>
+      <c r="F420">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H402">
-    <sortCondition ref="A2:A402"/>
-    <sortCondition ref="B2:B402"/>
-    <sortCondition ref="D2:D402"/>
+  <sortState ref="A2:H420">
+    <sortCondition ref="A2:A420"/>
+    <sortCondition ref="B2:B420"/>
+    <sortCondition ref="C2:C420"/>
   </sortState>
-  <conditionalFormatting sqref="A376:F381">
+  <conditionalFormatting sqref="A372:F380">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$G$376</formula>
+      <formula>$G$372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">

--- a/Biomass_Sorting_Data.xlsx
+++ b/Biomass_Sorting_Data.xlsx
@@ -29,30 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="109">
   <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Subplot</t>
-  </si>
-  <si>
-    <t>Sort Date</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Dried Wt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bag Wt </t>
-  </si>
-  <si>
-    <t>Biomass Wt</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Litter</t>
   </si>
   <si>
@@ -350,10 +326,34 @@
     <t>Asclepias sp.</t>
   </si>
   <si>
-    <t>Tare (L)</t>
-  </si>
-  <si>
-    <t>Tare (S)</t>
+    <t>dried_wt</t>
+  </si>
+  <si>
+    <t>biomass_wt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bag_wt </t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>sort_date</t>
+  </si>
+  <si>
+    <t>subplot</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>tare_l</t>
+  </si>
+  <si>
+    <t>tare_s</t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J252" sqref="J252"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,28 +720,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
@@ -761,7 +761,7 @@
         <v>43283</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>126.2</v>
@@ -787,7 +787,7 @@
         <v>43283</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>13.3</v>
@@ -813,7 +813,7 @@
         <v>43283</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>109.4</v>
@@ -839,7 +839,7 @@
         <v>43283</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>28.7</v>
@@ -865,7 +865,7 @@
         <v>43280</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>92.8</v>
@@ -885,7 +885,7 @@
         <v>43280</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>19.5</v>
@@ -905,7 +905,7 @@
         <v>43280</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>8.76</v>
@@ -925,7 +925,7 @@
         <v>43280</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>2.97</v>
@@ -945,7 +945,7 @@
         <v>43283</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>3.32</v>
@@ -965,7 +965,7 @@
         <v>43283</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>9.75</v>
@@ -985,7 +985,7 @@
         <v>43283</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>54.5</v>
@@ -1005,7 +1005,7 @@
         <v>43283</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>89.7</v>
@@ -1025,7 +1025,7 @@
         <v>43283</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>3.03</v>
@@ -1045,7 +1045,7 @@
         <v>43283</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>14.1</v>
@@ -1065,7 +1065,7 @@
         <v>43280</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>29.6</v>
@@ -1085,7 +1085,7 @@
         <v>43280</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>3.35</v>
@@ -1105,7 +1105,7 @@
         <v>43280</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>87.1</v>
@@ -1125,7 +1125,7 @@
         <v>43280</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>2.92</v>
@@ -1145,7 +1145,7 @@
         <v>43283</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>22.5</v>
@@ -1165,7 +1165,7 @@
         <v>43283</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>4.07</v>
@@ -1185,7 +1185,7 @@
         <v>43283</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>143.9</v>
@@ -1205,7 +1205,7 @@
         <v>43283</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>18.899999999999999</v>
@@ -1225,7 +1225,7 @@
         <v>43283</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>2.91</v>
@@ -1245,7 +1245,7 @@
         <v>43283</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2.8</v>
@@ -1265,7 +1265,7 @@
         <v>43283</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>171.5</v>
@@ -1285,7 +1285,7 @@
         <v>43283</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>2.85</v>
@@ -1305,7 +1305,7 @@
         <v>43283</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3.22</v>
@@ -1325,7 +1325,7 @@
         <v>43283</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>2.9</v>
@@ -1345,7 +1345,7 @@
         <v>43283</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>2.95</v>
@@ -1365,7 +1365,7 @@
         <v>43283</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>2.96</v>
@@ -1385,7 +1385,7 @@
         <v>43283</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>6.6</v>
@@ -1405,7 +1405,7 @@
         <v>43283</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>104.6</v>
@@ -1425,7 +1425,7 @@
         <v>43283</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>3.77</v>
@@ -1445,7 +1445,7 @@
         <v>43283</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>2.87</v>
@@ -1454,7 +1454,7 @@
         <v>2.77</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>43283</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>2.8</v>
@@ -1477,7 +1477,7 @@
         <v>2.77</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>43283</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>2.8</v>
@@ -1511,7 +1511,7 @@
         <v>43280</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>3.5</v>
@@ -1531,7 +1531,7 @@
         <v>43280</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>126.6</v>
@@ -1551,7 +1551,7 @@
         <v>43280</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>12.8</v>
@@ -1571,7 +1571,7 @@
         <v>43280</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>5.51</v>
@@ -1591,7 +1591,7 @@
         <v>43283</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>3.12</v>
@@ -1611,7 +1611,7 @@
         <v>43283</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>24.2</v>
@@ -1631,7 +1631,7 @@
         <v>43283</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>2.8</v>
@@ -1651,7 +1651,7 @@
         <v>43283</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>38.1</v>
@@ -1671,7 +1671,7 @@
         <v>43280</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -1691,7 +1691,7 @@
         <v>43280</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>6.16</v>
@@ -1711,7 +1711,7 @@
         <v>43280</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>59.1</v>
@@ -1731,7 +1731,7 @@
         <v>43280</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>13</v>
@@ -1751,7 +1751,7 @@
         <v>43280</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>43280</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>2.82</v>
@@ -1780,7 +1780,7 @@
         <v>2.77</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>43283</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>14.7</v>
@@ -1814,7 +1814,7 @@
         <v>43283</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>13</v>
@@ -1834,7 +1834,7 @@
         <v>43283</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>73</v>
@@ -1854,7 +1854,7 @@
         <v>43283</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>3.28</v>
@@ -1874,7 +1874,7 @@
         <v>43283</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>27.2</v>
@@ -1894,7 +1894,7 @@
         <v>43283</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>6.28</v>
@@ -1914,7 +1914,7 @@
         <v>43283</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>13.5</v>
@@ -1934,7 +1934,7 @@
         <v>43283</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>3.02</v>
@@ -1954,7 +1954,7 @@
         <v>43293</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>14.1</v>
@@ -1974,7 +1974,7 @@
         <v>43293</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>31.7</v>
@@ -1994,7 +1994,7 @@
         <v>43293</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
         <v>15.6</v>
@@ -2014,7 +2014,7 @@
         <v>43293</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2">
         <v>8.83</v>
@@ -2036,7 +2036,7 @@
         <v>43292</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>21.3</v>
@@ -2056,7 +2056,7 @@
         <v>43292</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>4.63</v>
@@ -2076,7 +2076,7 @@
         <v>43292</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E66">
         <v>5.51</v>
@@ -2096,7 +2096,7 @@
         <v>43292</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E67">
         <v>4.67</v>
@@ -2116,7 +2116,7 @@
         <v>43292</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>48.6</v>
@@ -2136,7 +2136,7 @@
         <v>43292</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>15.6</v>
@@ -2156,7 +2156,7 @@
         <v>43292</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E70">
         <v>4.7699999999999996</v>
@@ -2176,7 +2176,7 @@
         <v>43292</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>13.27</v>
@@ -2196,7 +2196,7 @@
         <v>43292</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>4.76</v>
@@ -2216,7 +2216,7 @@
         <v>43292</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>31.4</v>
@@ -2236,7 +2236,7 @@
         <v>43292</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>8.5500000000000007</v>
@@ -2256,7 +2256,7 @@
         <v>43292</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <v>4.6100000000000003</v>
@@ -2278,7 +2278,7 @@
         <v>43290</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E76">
         <v>6.23</v>
@@ -2298,7 +2298,7 @@
         <v>43286</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>20.8</v>
@@ -2318,7 +2318,7 @@
         <v>43286</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>150.5</v>
@@ -2338,7 +2338,7 @@
         <v>43286</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>8.27</v>
@@ -2358,7 +2358,7 @@
         <v>43286</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E80">
         <v>2.93</v>
@@ -2378,7 +2378,7 @@
         <v>43286</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <v>2.87</v>
@@ -2398,7 +2398,7 @@
         <v>43286</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>2.87</v>
@@ -2418,7 +2418,7 @@
         <v>43290</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>2.81</v>
@@ -2427,7 +2427,7 @@
         <v>2.77</v>
       </c>
       <c r="H83" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -2441,7 +2441,7 @@
         <v>43290</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>2.84</v>
@@ -2450,7 +2450,7 @@
         <v>2.77</v>
       </c>
       <c r="H84" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2464,7 +2464,7 @@
         <v>43286</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>4.3</v>
@@ -2484,7 +2484,7 @@
         <v>43286</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>195.9</v>
@@ -2504,7 +2504,7 @@
         <v>43286</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>3.07</v>
@@ -2524,7 +2524,7 @@
         <v>43286</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>60.2</v>
@@ -2544,7 +2544,7 @@
         <v>43286</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <v>2.85</v>
@@ -2564,7 +2564,7 @@
         <v>43286</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E90">
         <v>3.07</v>
@@ -2584,7 +2584,7 @@
         <v>43286</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E91">
         <v>3.07</v>
@@ -2604,7 +2604,7 @@
         <v>43286</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E92">
         <v>2.88</v>
@@ -2624,7 +2624,7 @@
         <v>43286</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E93">
         <v>2.98</v>
@@ -2644,7 +2644,7 @@
         <v>43286</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>2.9</v>
@@ -2664,7 +2664,7 @@
         <v>43294</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E95">
         <v>3.12</v>
@@ -2684,7 +2684,7 @@
         <v>43294</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>10.199999999999999</v>
@@ -2704,7 +2704,7 @@
         <v>43294</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E97">
         <v>2.77</v>
@@ -2724,7 +2724,7 @@
         <v>43294</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E98">
         <v>2.83</v>
@@ -2744,7 +2744,7 @@
         <v>43294</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>104</v>
@@ -2764,7 +2764,7 @@
         <v>43294</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E100">
         <v>7.08</v>
@@ -2784,7 +2784,7 @@
         <v>43297</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>13</v>
@@ -2804,7 +2804,7 @@
         <v>43297</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E102">
         <v>4.7</v>
@@ -2824,7 +2824,7 @@
         <v>43297</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>186.5</v>
@@ -2844,7 +2844,7 @@
         <v>43297</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E104">
         <v>11.8</v>
@@ -2864,7 +2864,7 @@
         <v>43294</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>14.3</v>
@@ -2884,7 +2884,7 @@
         <v>43294</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>77.099999999999994</v>
@@ -2904,7 +2904,7 @@
         <v>43294</v>
       </c>
       <c r="D107" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E107">
         <v>19.100000000000001</v>
@@ -2924,7 +2924,7 @@
         <v>43292</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>163.6</v>
@@ -2944,7 +2944,7 @@
         <v>43292</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>10.3</v>
@@ -2964,7 +2964,7 @@
         <v>43292</v>
       </c>
       <c r="D110" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E110">
         <v>4.96</v>
@@ -2984,7 +2984,7 @@
         <v>43292</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>5.64</v>
@@ -3004,7 +3004,7 @@
         <v>43292</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>76.900000000000006</v>
@@ -3024,7 +3024,7 @@
         <v>43292</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E113">
         <v>4.49</v>
@@ -3044,7 +3044,7 @@
         <v>43292</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>4.5</v>
@@ -3053,7 +3053,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -3067,7 +3067,7 @@
         <v>43292</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>5.17</v>
@@ -3087,7 +3087,7 @@
         <v>43292</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E116">
         <v>4.67</v>
@@ -3107,7 +3107,7 @@
         <v>43292</v>
       </c>
       <c r="D117" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E117">
         <v>4.62</v>
@@ -3127,7 +3127,7 @@
         <v>43292</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>63.4</v>
@@ -3147,7 +3147,7 @@
         <v>43292</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E119">
         <v>4.4800000000000004</v>
@@ -3167,7 +3167,7 @@
         <v>43292</v>
       </c>
       <c r="D120" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E120">
         <v>5.07</v>
@@ -3187,7 +3187,7 @@
         <v>43293</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E121">
         <v>2.83</v>
@@ -3207,7 +3207,7 @@
         <v>43293</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>2.98</v>
@@ -3227,7 +3227,7 @@
         <v>43294</v>
       </c>
       <c r="D123" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E123">
         <v>4.66</v>
@@ -3247,7 +3247,7 @@
         <v>43293</v>
       </c>
       <c r="D124" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E124">
         <v>2.99</v>
@@ -3267,7 +3267,7 @@
         <v>43293</v>
       </c>
       <c r="D125" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E125">
         <v>3.04</v>
@@ -3287,7 +3287,7 @@
         <v>43293</v>
       </c>
       <c r="D126" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E126">
         <v>2.84</v>
@@ -3307,7 +3307,7 @@
         <v>43293</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>118.4</v>
@@ -3327,7 +3327,7 @@
         <v>43293</v>
       </c>
       <c r="D128" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E128">
         <v>3.23</v>
@@ -3347,7 +3347,7 @@
         <v>43293</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>4.93</v>
@@ -3367,7 +3367,7 @@
         <v>43293</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <v>2.99</v>
@@ -3387,7 +3387,7 @@
         <v>43293</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E131">
         <v>3.17</v>
@@ -3396,7 +3396,7 @@
         <v>2.77</v>
       </c>
       <c r="H131" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -3410,7 +3410,7 @@
         <v>43294</v>
       </c>
       <c r="D132" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E132">
         <v>3.54</v>
@@ -3430,7 +3430,7 @@
         <v>43294</v>
       </c>
       <c r="D133" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E133">
         <v>6.03</v>
@@ -3450,7 +3450,7 @@
         <v>43294</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>48</v>
@@ -3470,7 +3470,7 @@
         <v>43294</v>
       </c>
       <c r="D135" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E135">
         <v>2.93</v>
@@ -3490,7 +3490,7 @@
         <v>43294</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>7.01</v>
@@ -3510,7 +3510,7 @@
         <v>43294</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>7.77</v>
@@ -3530,7 +3530,7 @@
         <v>43294</v>
       </c>
       <c r="D138" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>5.27</v>
@@ -3539,7 +3539,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H138" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3553,7 +3553,7 @@
         <v>43293</v>
       </c>
       <c r="D139" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E139">
         <v>10.3</v>
@@ -3573,7 +3573,7 @@
         <v>43293</v>
       </c>
       <c r="D140" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E140">
         <v>2.83</v>
@@ -3593,7 +3593,7 @@
         <v>43293</v>
       </c>
       <c r="D141" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E141">
         <v>7.11</v>
@@ -3613,7 +3613,7 @@
         <v>43293</v>
       </c>
       <c r="D142" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -3633,7 +3633,7 @@
         <v>43293</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>55</v>
@@ -3653,7 +3653,7 @@
         <v>43293</v>
       </c>
       <c r="D144" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E144">
         <v>2.93</v>
@@ -3673,7 +3673,7 @@
         <v>43293</v>
       </c>
       <c r="D145" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E145">
         <v>3.69</v>
@@ -3693,7 +3693,7 @@
         <v>43293</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E146">
         <v>3.85</v>
@@ -3713,7 +3713,7 @@
         <v>43293</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>7.03</v>
@@ -3733,7 +3733,7 @@
         <v>43293</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E148">
         <v>2.87</v>
@@ -3742,7 +3742,7 @@
         <v>2.77</v>
       </c>
       <c r="H148" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
         <v>43293</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>3.13</v>
@@ -3765,7 +3765,7 @@
         <v>2.77</v>
       </c>
       <c r="H149" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>43294</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>6.81</v>
@@ -3799,7 +3799,7 @@
         <v>43294</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>73.5</v>
@@ -3819,7 +3819,7 @@
         <v>43294</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>2.89</v>
@@ -3839,7 +3839,7 @@
         <v>43294</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E153">
         <v>2.97</v>
@@ -3859,7 +3859,7 @@
         <v>43294</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E154">
         <v>2.77</v>
@@ -3868,7 +3868,7 @@
         <v>2.77</v>
       </c>
       <c r="H154" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -3882,7 +3882,7 @@
         <v>43294</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>2.83</v>
@@ -3891,7 +3891,7 @@
         <v>2.77</v>
       </c>
       <c r="H155" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>43294</v>
       </c>
       <c r="D156" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E156">
         <v>2.87</v>
@@ -3925,7 +3925,7 @@
         <v>43293</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>15.8</v>
@@ -3945,7 +3945,7 @@
         <v>43293</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E158">
         <v>4.5999999999999996</v>
@@ -3965,7 +3965,7 @@
         <v>43293</v>
       </c>
       <c r="D159" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E159">
         <v>4.91</v>
@@ -3985,7 +3985,7 @@
         <v>43293</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>96.5</v>
@@ -4005,7 +4005,7 @@
         <v>43293</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E161">
         <v>5.83</v>
@@ -4025,7 +4025,7 @@
         <v>43293</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>10.6</v>
@@ -4045,7 +4045,7 @@
         <v>43293</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E163">
         <v>4.5599999999999996</v>
@@ -4065,7 +4065,7 @@
         <v>43293</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>99.3</v>
@@ -4085,7 +4085,7 @@
         <v>43293</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>8.4</v>
@@ -4105,7 +4105,7 @@
         <v>43293</v>
       </c>
       <c r="D166" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E166">
         <v>5.27</v>
@@ -4125,7 +4125,7 @@
         <v>43293</v>
       </c>
       <c r="D167" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E167">
         <v>4.47</v>
@@ -4134,7 +4134,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H167" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
         <v>43293</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E168">
         <v>4.5599999999999996</v>
@@ -4157,7 +4157,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H168" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -4171,7 +4171,7 @@
         <v>43293</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E169">
         <v>3.99</v>
@@ -4191,7 +4191,7 @@
         <v>43293</v>
       </c>
       <c r="D170" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E170">
         <v>3.03</v>
@@ -4211,7 +4211,7 @@
         <v>43293</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E171">
         <v>6.76</v>
@@ -4231,7 +4231,7 @@
         <v>43293</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>108.8</v>
@@ -4251,7 +4251,7 @@
         <v>43293</v>
       </c>
       <c r="D173" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E173">
         <v>4.97</v>
@@ -4271,7 +4271,7 @@
         <v>43286</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>28.4</v>
@@ -4291,7 +4291,7 @@
         <v>43286</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E175">
         <v>17.8</v>
@@ -4311,7 +4311,7 @@
         <v>43286</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E176">
         <v>7.16</v>
@@ -4331,7 +4331,7 @@
         <v>43286</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E177">
         <v>2.95</v>
@@ -4351,7 +4351,7 @@
         <v>43286</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E178">
         <v>96.2</v>
@@ -4371,7 +4371,7 @@
         <v>43286</v>
       </c>
       <c r="D179" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E179">
         <v>8.77</v>
@@ -4391,7 +4391,7 @@
         <v>43286</v>
       </c>
       <c r="D180" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E180">
         <v>2.96</v>
@@ -4411,7 +4411,7 @@
         <v>43293</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>25.6</v>
@@ -4431,7 +4431,7 @@
         <v>43293</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E182">
         <v>11.9</v>
@@ -4451,7 +4451,7 @@
         <v>43293</v>
       </c>
       <c r="D183" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>8.4</v>
@@ -4471,7 +4471,7 @@
         <v>43293</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E184">
         <v>8.6999999999999993</v>
@@ -4491,7 +4491,7 @@
         <v>43293</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E185">
         <v>7.9</v>
@@ -4511,7 +4511,7 @@
         <v>43293</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>119.3</v>
@@ -4531,7 +4531,7 @@
         <v>43293</v>
       </c>
       <c r="D187" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E187">
         <v>12</v>
@@ -4551,7 +4551,7 @@
         <v>43293</v>
       </c>
       <c r="D188" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E188">
         <v>4.96</v>
@@ -4571,7 +4571,7 @@
         <v>43297</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E189">
         <v>14.6</v>
@@ -4591,7 +4591,7 @@
         <v>43297</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>44.2</v>
@@ -4611,7 +4611,7 @@
         <v>43297</v>
       </c>
       <c r="D191" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E191">
         <v>4.8899999999999997</v>
@@ -4631,7 +4631,7 @@
         <v>43297</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E192">
         <v>7.03</v>
@@ -4651,7 +4651,7 @@
         <v>43297</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E193">
         <v>19.5</v>
@@ -4671,7 +4671,7 @@
         <v>43297</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>54.6</v>
@@ -4691,7 +4691,7 @@
         <v>43297</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>5.0199999999999996</v>
@@ -4713,7 +4713,7 @@
         <v>43297</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E196">
         <v>10.199999999999999</v>
@@ -4733,7 +4733,7 @@
         <v>43297</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E197">
         <v>7.56</v>
@@ -4753,7 +4753,7 @@
         <v>43297</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E198">
         <v>58.3</v>
@@ -4773,7 +4773,7 @@
         <v>43297</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>2.95</v>
@@ -4793,7 +4793,7 @@
         <v>43297</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E200">
         <v>3.63</v>
@@ -4813,7 +4813,7 @@
         <v>43297</v>
       </c>
       <c r="D201" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E201">
         <v>2.76</v>
@@ -4822,7 +4822,7 @@
         <v>2.77</v>
       </c>
       <c r="H201" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -4836,7 +4836,7 @@
         <v>43297</v>
       </c>
       <c r="D202" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E202">
         <v>8.69</v>
@@ -4856,7 +4856,7 @@
         <v>43297</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E203">
         <v>7.08</v>
@@ -4876,7 +4876,7 @@
         <v>43297</v>
       </c>
       <c r="D204" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E204">
         <v>2.76</v>
@@ -4896,7 +4896,7 @@
         <v>43297</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>52.8</v>
@@ -4916,7 +4916,7 @@
         <v>43297</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E206">
         <v>12.95</v>
@@ -4936,7 +4936,7 @@
         <v>43297</v>
       </c>
       <c r="D207" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E207">
         <v>22.8</v>
@@ -4956,7 +4956,7 @@
         <v>43297</v>
       </c>
       <c r="D208" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E208">
         <v>7.12</v>
@@ -4976,7 +4976,7 @@
         <v>43297</v>
       </c>
       <c r="D209" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E209">
         <v>2.77</v>
@@ -4985,7 +4985,7 @@
         <v>2.77</v>
       </c>
       <c r="H209" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>43297</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E210">
         <v>2.85</v>
@@ -5008,7 +5008,7 @@
         <v>2.77</v>
       </c>
       <c r="H210" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -5022,7 +5022,7 @@
         <v>43297</v>
       </c>
       <c r="D211" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E211">
         <v>4.88</v>
@@ -5042,7 +5042,7 @@
         <v>43297</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E212">
         <v>4.72</v>
@@ -5062,7 +5062,7 @@
         <v>43297</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E213">
         <v>76.7</v>
@@ -5082,7 +5082,7 @@
         <v>43297</v>
       </c>
       <c r="D214" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E214">
         <v>19.5</v>
@@ -5102,7 +5102,7 @@
         <v>43297</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E215">
         <v>2.75</v>
@@ -5111,7 +5111,7 @@
         <v>2.77</v>
       </c>
       <c r="H215" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -5125,7 +5125,7 @@
         <v>43294</v>
       </c>
       <c r="D216" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E216">
         <v>8.39</v>
@@ -5145,7 +5145,7 @@
         <v>43294</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>47.4</v>
@@ -5165,7 +5165,7 @@
         <v>43294</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E218">
         <v>9.2799999999999994</v>
@@ -5185,7 +5185,7 @@
         <v>43294</v>
       </c>
       <c r="D219" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E219">
         <v>20.2</v>
@@ -5205,7 +5205,7 @@
         <v>43291</v>
       </c>
       <c r="D220" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E220">
         <v>4.9800000000000004</v>
@@ -5225,7 +5225,7 @@
         <v>43291</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E221">
         <v>4.7699999999999996</v>
@@ -5245,7 +5245,7 @@
         <v>43291</v>
       </c>
       <c r="D222" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E222">
         <v>5.2</v>
@@ -5265,7 +5265,7 @@
         <v>43291</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E223">
         <v>4.2</v>
@@ -5285,7 +5285,7 @@
         <v>43291</v>
       </c>
       <c r="D224" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E224">
         <v>4.74</v>
@@ -5305,7 +5305,7 @@
         <v>43291</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>47.3</v>
@@ -5325,7 +5325,7 @@
         <v>43291</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E226">
         <v>18.100000000000001</v>
@@ -5345,7 +5345,7 @@
         <v>43291</v>
       </c>
       <c r="D227" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E227">
         <v>4.54</v>
@@ -5367,7 +5367,7 @@
         <v>43291</v>
       </c>
       <c r="D228" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E228">
         <v>4.74</v>
@@ -5387,7 +5387,7 @@
         <v>43291</v>
       </c>
       <c r="D229" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E229">
         <v>4.5999999999999996</v>
@@ -5407,7 +5407,7 @@
         <v>43291</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E230">
         <v>18.100000000000001</v>
@@ -5427,7 +5427,7 @@
         <v>43291</v>
       </c>
       <c r="D231" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E231">
         <v>11.97</v>
@@ -5447,7 +5447,7 @@
         <v>43291</v>
       </c>
       <c r="D232" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E232">
         <v>2.77</v>
@@ -5467,7 +5467,7 @@
         <v>43291</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E233">
         <v>2.78</v>
@@ -5487,7 +5487,7 @@
         <v>43291</v>
       </c>
       <c r="D234" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E234">
         <v>3</v>
@@ -5507,7 +5507,7 @@
         <v>43291</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E235">
         <v>4.6900000000000004</v>
@@ -5527,7 +5527,7 @@
         <v>43291</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>71.7</v>
@@ -5547,7 +5547,7 @@
         <v>43291</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>5.98</v>
@@ -5567,7 +5567,7 @@
         <v>43291</v>
       </c>
       <c r="D238" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E238">
         <v>5.78</v>
@@ -5576,7 +5576,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H238" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>43291</v>
       </c>
       <c r="D239" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E239">
         <v>5.68</v>
@@ -5610,7 +5610,7 @@
         <v>43291</v>
       </c>
       <c r="D240" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E240">
         <v>5.41</v>
@@ -5630,7 +5630,7 @@
         <v>43291</v>
       </c>
       <c r="D241" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E241">
         <v>2.81</v>
@@ -5650,7 +5650,7 @@
         <v>43291</v>
       </c>
       <c r="D242" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E242">
         <v>2.81</v>
@@ -5670,7 +5670,7 @@
         <v>43291</v>
       </c>
       <c r="D243" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E243">
         <v>2.78</v>
@@ -5679,7 +5679,7 @@
         <v>2.77</v>
       </c>
       <c r="H243" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -5693,7 +5693,7 @@
         <v>43291</v>
       </c>
       <c r="D244" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E244">
         <v>2.81</v>
@@ -5702,7 +5702,7 @@
         <v>2.77</v>
       </c>
       <c r="H244" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -5716,7 +5716,7 @@
         <v>43283</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E245">
         <v>20</v>
@@ -5736,7 +5736,7 @@
         <v>43283</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E246">
         <v>168.8</v>
@@ -5756,7 +5756,7 @@
         <v>43283</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E247">
         <v>4.0199999999999996</v>
@@ -5776,7 +5776,7 @@
         <v>43291</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E248">
         <v>27.4</v>
@@ -5796,7 +5796,7 @@
         <v>43291</v>
       </c>
       <c r="D249" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E249">
         <v>117.2</v>
@@ -5816,7 +5816,7 @@
         <v>43291</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E250">
         <v>7.38</v>
@@ -5836,7 +5836,7 @@
         <v>43291</v>
       </c>
       <c r="D251" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E251">
         <v>5.38</v>
@@ -5856,7 +5856,7 @@
         <v>43291</v>
       </c>
       <c r="D252" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E252">
         <v>45.7</v>
@@ -5876,7 +5876,7 @@
         <v>43291</v>
       </c>
       <c r="D253" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>98.6</v>
@@ -5896,7 +5896,7 @@
         <v>43291</v>
       </c>
       <c r="D254" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E254">
         <v>6.55</v>
@@ -5916,7 +5916,7 @@
         <v>43297</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E255">
         <v>16.8</v>
@@ -5936,7 +5936,7 @@
         <v>43297</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>118.3</v>
@@ -5956,7 +5956,7 @@
         <v>43297</v>
       </c>
       <c r="D257" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E257">
         <v>9.84</v>
@@ -5976,7 +5976,7 @@
         <v>43293</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E258" s="2">
         <v>11.66</v>
@@ -5998,7 +5998,7 @@
         <v>43293</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E259">
         <v>6.26</v>
@@ -6018,7 +6018,7 @@
         <v>43293</v>
       </c>
       <c r="D260" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>138.69999999999999</v>
@@ -6038,7 +6038,7 @@
         <v>43293</v>
       </c>
       <c r="D261" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E261">
         <v>4.38</v>
@@ -6058,7 +6058,7 @@
         <v>43297</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E262" s="2">
         <v>10.56</v>
@@ -6078,7 +6078,7 @@
         <v>43297</v>
       </c>
       <c r="D263" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E263">
         <v>107.3</v>
@@ -6098,7 +6098,7 @@
         <v>43291</v>
       </c>
       <c r="D264" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E264">
         <v>27.6</v>
@@ -6118,7 +6118,7 @@
         <v>43291</v>
       </c>
       <c r="D265" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E265">
         <v>4.76</v>
@@ -6138,7 +6138,7 @@
         <v>43291</v>
       </c>
       <c r="D266" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>41.7</v>
@@ -6158,7 +6158,7 @@
         <v>43291</v>
       </c>
       <c r="D267" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>8.44</v>
@@ -6178,7 +6178,7 @@
         <v>43286</v>
       </c>
       <c r="D268" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E268">
         <v>23.2</v>
@@ -6198,7 +6198,7 @@
         <v>43286</v>
       </c>
       <c r="D269" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E269">
         <v>2.85</v>
@@ -6218,7 +6218,7 @@
         <v>43286</v>
       </c>
       <c r="D270" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E270">
         <v>2.86</v>
@@ -6238,7 +6238,7 @@
         <v>43286</v>
       </c>
       <c r="D271" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E271">
         <v>25.7</v>
@@ -6258,7 +6258,7 @@
         <v>43286</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E272">
         <v>11.8</v>
@@ -6278,7 +6278,7 @@
         <v>43293</v>
       </c>
       <c r="D273" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E273">
         <v>7.86</v>
@@ -6298,7 +6298,7 @@
         <v>43293</v>
       </c>
       <c r="D274" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E274">
         <v>37.6</v>
@@ -6318,7 +6318,7 @@
         <v>43293</v>
       </c>
       <c r="D275" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E275">
         <v>6.14</v>
@@ -6338,7 +6338,7 @@
         <v>43293</v>
       </c>
       <c r="D276" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>7.17</v>
@@ -6358,7 +6358,7 @@
         <v>43293</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E277">
         <v>36.4</v>
@@ -6378,7 +6378,7 @@
         <v>43293</v>
       </c>
       <c r="D278" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E278">
         <v>4.68</v>
@@ -6398,7 +6398,7 @@
         <v>43293</v>
       </c>
       <c r="D279" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>31</v>
@@ -6418,7 +6418,7 @@
         <v>43290</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E280">
         <v>35.5</v>
@@ -6438,7 +6438,7 @@
         <v>43290</v>
       </c>
       <c r="D281" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E281">
         <v>3.24</v>
@@ -6458,7 +6458,7 @@
         <v>43290</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E282">
         <v>3.43</v>
@@ -6478,7 +6478,7 @@
         <v>43290</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E283">
         <v>32.9</v>
@@ -6498,7 +6498,7 @@
         <v>43290</v>
       </c>
       <c r="D284" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E284">
         <v>14.2</v>
@@ -6518,7 +6518,7 @@
         <v>43290</v>
       </c>
       <c r="D285" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E285">
         <v>5.07</v>
@@ -6538,7 +6538,7 @@
         <v>43293</v>
       </c>
       <c r="D286" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E286">
         <v>11.3</v>
@@ -6558,7 +6558,7 @@
         <v>43293</v>
       </c>
       <c r="D287" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E287">
         <v>4.74</v>
@@ -6578,7 +6578,7 @@
         <v>43293</v>
       </c>
       <c r="D288" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E288">
         <v>35.5</v>
@@ -6598,7 +6598,7 @@
         <v>43291</v>
       </c>
       <c r="D289" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E289">
         <v>30.6</v>
@@ -6618,7 +6618,7 @@
         <v>43291</v>
       </c>
       <c r="D290" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E290">
         <v>4.7</v>
@@ -6638,7 +6638,7 @@
         <v>43291</v>
       </c>
       <c r="D291" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>39.299999999999997</v>
@@ -6658,7 +6658,7 @@
         <v>43291</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E292" s="2">
         <v>17.600000000000001</v>
@@ -6678,7 +6678,7 @@
         <v>43291</v>
       </c>
       <c r="D293" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E293">
         <v>14.71</v>
@@ -6698,7 +6698,7 @@
         <v>43291</v>
       </c>
       <c r="D294" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E294">
         <v>6.53</v>
@@ -6718,7 +6718,7 @@
         <v>43291</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>73.599999999999994</v>
@@ -6738,7 +6738,7 @@
         <v>43291</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E296" s="2">
         <v>17.600000000000001</v>
@@ -6758,7 +6758,7 @@
         <v>43292</v>
       </c>
       <c r="D297" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E297">
         <v>25.9</v>
@@ -6778,7 +6778,7 @@
         <v>43292</v>
       </c>
       <c r="D298" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E298">
         <v>4.6100000000000003</v>
@@ -6798,7 +6798,7 @@
         <v>43292</v>
       </c>
       <c r="D299" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E299">
         <v>4.75</v>
@@ -6818,7 +6818,7 @@
         <v>43292</v>
       </c>
       <c r="D300" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>36.5</v>
@@ -6838,7 +6838,7 @@
         <v>43292</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E301" s="2">
         <v>8.08</v>
@@ -6858,7 +6858,7 @@
         <v>43292</v>
       </c>
       <c r="D302" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E302">
         <v>4.63</v>
@@ -6878,7 +6878,7 @@
         <v>43292</v>
       </c>
       <c r="D303" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E303">
         <v>4.6100000000000003</v>
@@ -6887,7 +6887,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H303" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -6901,7 +6901,7 @@
         <v>43292</v>
       </c>
       <c r="D304" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E304">
         <v>16.899999999999999</v>
@@ -6921,7 +6921,7 @@
         <v>43292</v>
       </c>
       <c r="D305" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>85.7</v>
@@ -6941,7 +6941,7 @@
         <v>43292</v>
       </c>
       <c r="D306" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E306">
         <v>6.98</v>
@@ -6961,7 +6961,7 @@
         <v>43292</v>
       </c>
       <c r="D307" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E307">
         <v>5.32</v>
@@ -6981,7 +6981,7 @@
         <v>43292</v>
       </c>
       <c r="D308" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E308">
         <v>4.46</v>
@@ -7001,7 +7001,7 @@
         <v>43291</v>
       </c>
       <c r="D309" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E309">
         <v>19.600000000000001</v>
@@ -7021,7 +7021,7 @@
         <v>43291</v>
       </c>
       <c r="D310" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E310">
         <v>124.6</v>
@@ -7043,7 +7043,7 @@
         <v>43283</v>
       </c>
       <c r="D311" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E311">
         <v>26.2</v>
@@ -7065,7 +7065,7 @@
         <v>43283</v>
       </c>
       <c r="D312" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E312">
         <v>123.6</v>
@@ -7085,7 +7085,7 @@
         <v>43283</v>
       </c>
       <c r="D313" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E313">
         <v>4.46</v>
@@ -7105,7 +7105,7 @@
         <v>43292</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E314">
         <v>23.2</v>
@@ -7125,7 +7125,7 @@
         <v>43292</v>
       </c>
       <c r="D315" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E315">
         <v>5.93</v>
@@ -7145,7 +7145,7 @@
         <v>43292</v>
       </c>
       <c r="D316" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E316">
         <v>4.87</v>
@@ -7165,7 +7165,7 @@
         <v>43292</v>
       </c>
       <c r="D317" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E317">
         <v>4.53</v>
@@ -7185,7 +7185,7 @@
         <v>43292</v>
       </c>
       <c r="D318" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E318">
         <v>11.91</v>
@@ -7205,7 +7205,7 @@
         <v>43292</v>
       </c>
       <c r="D319" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E319">
         <v>4.84</v>
@@ -7225,7 +7225,7 @@
         <v>43293</v>
       </c>
       <c r="D320" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E320">
         <v>14.3</v>
@@ -7245,7 +7245,7 @@
         <v>43293</v>
       </c>
       <c r="D321" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E321">
         <v>6.3</v>
@@ -7267,7 +7267,7 @@
         <v>43293</v>
       </c>
       <c r="D322" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E322">
         <v>8.19</v>
@@ -7289,7 +7289,7 @@
         <v>43290</v>
       </c>
       <c r="D323" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E323">
         <v>3.09</v>
@@ -7309,7 +7309,7 @@
         <v>43290</v>
       </c>
       <c r="D324" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E324">
         <v>9.82</v>
@@ -7329,7 +7329,7 @@
         <v>43290</v>
       </c>
       <c r="D325" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E325">
         <v>5.55</v>
@@ -7349,7 +7349,7 @@
         <v>43290</v>
       </c>
       <c r="D326" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E326">
         <v>2.79</v>
@@ -7358,7 +7358,7 @@
         <v>2.77</v>
       </c>
       <c r="H326" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -7372,7 +7372,7 @@
         <v>43290</v>
       </c>
       <c r="D327" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E327">
         <v>82.4</v>
@@ -7392,7 +7392,7 @@
         <v>43290</v>
       </c>
       <c r="D328" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E328">
         <v>2.83</v>
@@ -7401,7 +7401,7 @@
         <v>2.77</v>
       </c>
       <c r="H328" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -7415,7 +7415,7 @@
         <v>43290</v>
       </c>
       <c r="D329" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E329">
         <v>190.3</v>
@@ -7435,7 +7435,7 @@
         <v>43290</v>
       </c>
       <c r="D330" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E330">
         <v>2.83</v>
@@ -7455,7 +7455,7 @@
         <v>43290</v>
       </c>
       <c r="D331" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E331">
         <v>2.82</v>
@@ -7477,7 +7477,7 @@
         <v>43292</v>
       </c>
       <c r="D332" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E332">
         <v>4.72</v>
@@ -7486,7 +7486,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H332" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7500,7 +7500,7 @@
         <v>43292</v>
       </c>
       <c r="D333" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E333">
         <v>4.54</v>
@@ -7520,7 +7520,7 @@
         <v>43292</v>
       </c>
       <c r="D334" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E334">
         <v>60.6</v>
@@ -7540,7 +7540,7 @@
         <v>43292</v>
       </c>
       <c r="D335" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E335">
         <v>4.51</v>
@@ -7549,7 +7549,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H335" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -7563,7 +7563,7 @@
         <v>43291</v>
       </c>
       <c r="D336" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E336">
         <v>6.6</v>
@@ -7583,7 +7583,7 @@
         <v>43291</v>
       </c>
       <c r="D337" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E337">
         <v>4.6100000000000003</v>
@@ -7603,7 +7603,7 @@
         <v>43291</v>
       </c>
       <c r="D338" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E338">
         <v>20.399999999999999</v>
@@ -7623,7 +7623,7 @@
         <v>43291</v>
       </c>
       <c r="D339" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E339">
         <v>6.78</v>
@@ -7643,7 +7643,7 @@
         <v>43291</v>
       </c>
       <c r="D340" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E340">
         <v>9.67</v>
@@ -7663,7 +7663,7 @@
         <v>43291</v>
       </c>
       <c r="D341" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E341">
         <v>5.41</v>
@@ -7683,7 +7683,7 @@
         <v>43291</v>
       </c>
       <c r="D342" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E342">
         <v>11.19</v>
@@ -7703,7 +7703,7 @@
         <v>43291</v>
       </c>
       <c r="D343" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E343">
         <v>6.96</v>
@@ -7723,7 +7723,7 @@
         <v>43292</v>
       </c>
       <c r="D344" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E344">
         <v>5.31</v>
@@ -7743,7 +7743,7 @@
         <v>43292</v>
       </c>
       <c r="D345" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E345">
         <v>4.6500000000000004</v>
@@ -7763,7 +7763,7 @@
         <v>43292</v>
       </c>
       <c r="D346" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E346">
         <v>7.45</v>
@@ -7783,7 +7783,7 @@
         <v>43292</v>
       </c>
       <c r="D347" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E347">
         <v>5.99</v>
@@ -7803,7 +7803,7 @@
         <v>43292</v>
       </c>
       <c r="D348" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E348">
         <v>9.4</v>
@@ -7823,7 +7823,7 @@
         <v>43292</v>
       </c>
       <c r="D349" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E349">
         <v>22.8</v>
@@ -7843,7 +7843,7 @@
         <v>43292</v>
       </c>
       <c r="D350" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E350">
         <v>7.6</v>
@@ -7863,7 +7863,7 @@
         <v>43292</v>
       </c>
       <c r="D351" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E351">
         <v>7.1</v>
@@ -7883,7 +7883,7 @@
         <v>43291</v>
       </c>
       <c r="D352" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E352">
         <v>33.4</v>
@@ -7903,7 +7903,7 @@
         <v>43291</v>
       </c>
       <c r="D353" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E353">
         <v>4.87</v>
@@ -7925,7 +7925,7 @@
         <v>43291</v>
       </c>
       <c r="D354" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E354">
         <v>10.57</v>
@@ -7947,7 +7947,7 @@
         <v>43291</v>
       </c>
       <c r="D355" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E355">
         <v>11.73</v>
@@ -7969,7 +7969,7 @@
         <v>43290</v>
       </c>
       <c r="D356" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E356">
         <v>24</v>
@@ -7991,7 +7991,7 @@
         <v>43290</v>
       </c>
       <c r="D357" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E357">
         <v>6.06</v>
@@ -8013,7 +8013,7 @@
         <v>43291</v>
       </c>
       <c r="D358" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E358">
         <v>3.16</v>
@@ -8035,7 +8035,7 @@
         <v>43291</v>
       </c>
       <c r="D359" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E359">
         <v>2.73</v>
@@ -8055,7 +8055,7 @@
         <v>43290</v>
       </c>
       <c r="D360" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E360">
         <v>15.58</v>
@@ -8075,7 +8075,7 @@
         <v>43291</v>
       </c>
       <c r="D361" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E361">
         <v>2.74</v>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="362" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8099,7 +8099,7 @@
         <v>43291</v>
       </c>
       <c r="D362" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E362">
         <v>2.92</v>
@@ -8121,7 +8121,7 @@
         <v>43291</v>
       </c>
       <c r="D363" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E363">
         <v>8.4499999999999993</v>
@@ -8141,7 +8141,7 @@
         <v>43291</v>
       </c>
       <c r="D364" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E364">
         <v>2.91</v>
@@ -8161,7 +8161,7 @@
         <v>43291</v>
       </c>
       <c r="D365" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E365">
         <v>2.92</v>
@@ -8181,7 +8181,7 @@
         <v>43291</v>
       </c>
       <c r="D366" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E366">
         <v>5.65</v>
@@ -8201,7 +8201,7 @@
         <v>43291</v>
       </c>
       <c r="D367" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E367">
         <v>2.9</v>
@@ -8221,7 +8221,7 @@
         <v>43291</v>
       </c>
       <c r="D368" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E368">
         <v>9.7100000000000009</v>
@@ -8241,7 +8241,7 @@
         <v>43291</v>
       </c>
       <c r="D369" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E369">
         <v>7.64</v>
@@ -8261,7 +8261,7 @@
         <v>43291</v>
       </c>
       <c r="D370" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E370">
         <v>6.73</v>
@@ -8281,7 +8281,7 @@
         <v>43291</v>
       </c>
       <c r="D371" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E371">
         <v>5.53</v>
@@ -8301,7 +8301,7 @@
         <v>43291</v>
       </c>
       <c r="D372" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E372">
         <v>25.3</v>
@@ -8321,7 +8321,7 @@
         <v>43291</v>
       </c>
       <c r="D373" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E373">
         <v>2.84</v>
@@ -8341,7 +8341,7 @@
         <v>43291</v>
       </c>
       <c r="D374" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E374">
         <v>6.5</v>
@@ -8361,7 +8361,7 @@
         <v>43291</v>
       </c>
       <c r="D375" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E375">
         <v>2.87</v>
@@ -8381,7 +8381,7 @@
         <v>43291</v>
       </c>
       <c r="D376" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E376">
         <v>5.38</v>
@@ -8401,7 +8401,7 @@
         <v>43291</v>
       </c>
       <c r="D377" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E377">
         <v>2.89</v>
@@ -8421,7 +8421,7 @@
         <v>43291</v>
       </c>
       <c r="D378" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E378">
         <v>2.85</v>
@@ -8441,7 +8441,7 @@
         <v>43292</v>
       </c>
       <c r="D379" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E379">
         <v>12.9</v>
@@ -8461,7 +8461,7 @@
         <v>43292</v>
       </c>
       <c r="D380" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E380">
         <v>20.9</v>
@@ -8481,7 +8481,7 @@
         <v>43292</v>
       </c>
       <c r="D381" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E381">
         <v>9.1199999999999992</v>
@@ -8501,7 +8501,7 @@
         <v>43292</v>
       </c>
       <c r="D382" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E382">
         <v>8.16</v>
@@ -8521,7 +8521,7 @@
         <v>43292</v>
       </c>
       <c r="D383" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E383">
         <v>6.45</v>
@@ -8541,7 +8541,7 @@
         <v>43292</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E384" s="2">
         <v>10.54</v>
@@ -8563,7 +8563,7 @@
         <v>43292</v>
       </c>
       <c r="D385" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E385">
         <v>5.53</v>
@@ -8583,7 +8583,7 @@
         <v>43292</v>
       </c>
       <c r="D386" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E386">
         <v>4.57</v>
@@ -8603,7 +8603,7 @@
         <v>43292</v>
       </c>
       <c r="D387" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E387">
         <v>4.6500000000000004</v>
@@ -8623,7 +8623,7 @@
         <v>43292</v>
       </c>
       <c r="D388" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E388">
         <v>23.8</v>
@@ -8643,7 +8643,7 @@
         <v>43292</v>
       </c>
       <c r="D389" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E389">
         <v>4.7300000000000004</v>
@@ -8663,7 +8663,7 @@
         <v>43292</v>
       </c>
       <c r="D390" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E390">
         <v>4.63</v>
@@ -8683,7 +8683,7 @@
         <v>43292</v>
       </c>
       <c r="D391" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E391">
         <v>13.08</v>
@@ -8703,7 +8703,7 @@
         <v>43292</v>
       </c>
       <c r="D392" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E392">
         <v>4.62</v>
@@ -8723,7 +8723,7 @@
         <v>43292</v>
       </c>
       <c r="D393" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E393">
         <v>9.31</v>
@@ -8743,7 +8743,7 @@
         <v>43292</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E394" s="2">
         <v>5.89</v>
@@ -8765,7 +8765,7 @@
         <v>43292</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E395" s="2">
         <v>5.23</v>
@@ -8787,7 +8787,7 @@
         <v>43291</v>
       </c>
       <c r="D396" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E396">
         <v>3.54</v>
@@ -8807,7 +8807,7 @@
         <v>43291</v>
       </c>
       <c r="D397" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E397">
         <v>17.899999999999999</v>
@@ -8827,7 +8827,7 @@
         <v>43291</v>
       </c>
       <c r="D398" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E398">
         <v>7.22</v>
@@ -8847,7 +8847,7 @@
         <v>43291</v>
       </c>
       <c r="D399" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E399">
         <v>3.07</v>
@@ -8867,7 +8867,7 @@
         <v>43291</v>
       </c>
       <c r="D400" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E400">
         <v>8.14</v>
@@ -8887,7 +8887,7 @@
         <v>43291</v>
       </c>
       <c r="D401" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E401">
         <v>19.600000000000001</v>
@@ -8907,7 +8907,7 @@
         <v>43291</v>
       </c>
       <c r="D402" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E402">
         <v>2.79</v>
@@ -8927,7 +8927,7 @@
         <v>43291</v>
       </c>
       <c r="D403" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E403">
         <v>6.62</v>
@@ -8947,7 +8947,7 @@
         <v>43290</v>
       </c>
       <c r="D404" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E404">
         <v>3.2</v>
@@ -8967,7 +8967,7 @@
         <v>43290</v>
       </c>
       <c r="D405" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E405">
         <v>68.900000000000006</v>
@@ -8987,7 +8987,7 @@
         <v>43290</v>
       </c>
       <c r="D406" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E406">
         <v>2.97</v>
@@ -9007,7 +9007,7 @@
         <v>43290</v>
       </c>
       <c r="D407" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E407">
         <v>3.64</v>
@@ -9027,7 +9027,7 @@
         <v>43290</v>
       </c>
       <c r="D408" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E408">
         <v>3.04</v>
@@ -9047,7 +9047,7 @@
         <v>43290</v>
       </c>
       <c r="D409" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E409">
         <v>2.96</v>
@@ -9067,7 +9067,7 @@
         <v>43290</v>
       </c>
       <c r="D410" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E410">
         <v>3.03</v>
@@ -9087,7 +9087,7 @@
         <v>43283</v>
       </c>
       <c r="D411" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E411">
         <v>3.31</v>
@@ -9107,7 +9107,7 @@
         <v>43283</v>
       </c>
       <c r="D412" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E412">
         <v>61.4</v>
@@ -9127,7 +9127,7 @@
         <v>43283</v>
       </c>
       <c r="D413" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E413">
         <v>3.07</v>
@@ -9147,7 +9147,7 @@
         <v>43283</v>
       </c>
       <c r="D414" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E414">
         <v>34.4</v>
@@ -9167,7 +9167,7 @@
         <v>43290</v>
       </c>
       <c r="D415" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E415">
         <v>2.82</v>
@@ -9176,7 +9176,7 @@
         <v>2.77</v>
       </c>
       <c r="H415" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -9190,7 +9190,7 @@
         <v>43286</v>
       </c>
       <c r="D416" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E416">
         <v>2.84</v>
@@ -9210,7 +9210,7 @@
         <v>43283</v>
       </c>
       <c r="D417" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E417">
         <v>5.57</v>
@@ -9230,7 +9230,7 @@
         <v>43292</v>
       </c>
       <c r="D418" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E418">
         <v>4.58</v>
@@ -9250,7 +9250,7 @@
         <v>43292</v>
       </c>
       <c r="D419" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E419">
         <v>4.8099999999999996</v>
@@ -9270,7 +9270,7 @@
         <v>43292</v>
       </c>
       <c r="D420" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E420">
         <v>34.6</v>
@@ -9290,7 +9290,7 @@
         <v>43292</v>
       </c>
       <c r="D421" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E421">
         <v>5.12</v>
@@ -9310,7 +9310,7 @@
         <v>43292</v>
       </c>
       <c r="D422" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E422">
         <v>4.6500000000000004</v>
@@ -9330,7 +9330,7 @@
         <v>43292</v>
       </c>
       <c r="D423" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E423">
         <v>11.59</v>
@@ -9350,7 +9350,7 @@
         <v>43292</v>
       </c>
       <c r="D424" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E424">
         <v>4.54</v>
@@ -9370,7 +9370,7 @@
         <v>43292</v>
       </c>
       <c r="D425" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E425">
         <v>4.6100000000000003</v>
@@ -9379,7 +9379,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H425" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
@@ -9393,7 +9393,7 @@
         <v>43290</v>
       </c>
       <c r="D426" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E426">
         <v>12.6</v>
@@ -9413,7 +9413,7 @@
         <v>43290</v>
       </c>
       <c r="D427" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E427">
         <v>22.9</v>
@@ -9433,7 +9433,7 @@
         <v>43290</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E428" s="2">
         <v>2.91</v>
@@ -9457,7 +9457,7 @@
         <v>43290</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E429" s="2">
         <v>10.4</v>
@@ -9479,7 +9479,7 @@
         <v>43290</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E430" s="2">
         <v>3.51</v>
@@ -9501,7 +9501,7 @@
         <v>43290</v>
       </c>
       <c r="D431" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E431">
         <v>3.01</v>
@@ -9521,7 +9521,7 @@
         <v>43290</v>
       </c>
       <c r="D432" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E432">
         <v>2.82</v>
@@ -9541,7 +9541,7 @@
         <v>43290</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E433" s="2">
         <v>3.04</v>
@@ -9562,7 +9562,7 @@
         <v>43290</v>
       </c>
       <c r="D434" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E434">
         <v>2.89</v>
@@ -9582,7 +9582,7 @@
         <v>43290</v>
       </c>
       <c r="D435" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E435">
         <v>2.81</v>
@@ -9602,7 +9602,7 @@
         <v>43290</v>
       </c>
       <c r="D436" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E436">
         <v>5.39</v>
@@ -9622,7 +9622,7 @@
         <v>43290</v>
       </c>
       <c r="D437" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E437">
         <v>3.01</v>
@@ -9646,7 +9646,7 @@
         <v>43290</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E438" s="2">
         <v>3.21</v>
@@ -9666,7 +9666,7 @@
         <v>43290</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E439" s="2">
         <v>22.9</v>
@@ -9688,7 +9688,7 @@
         <v>43290</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E440" s="2">
         <v>5.3</v>
@@ -9710,7 +9710,7 @@
         <v>43290</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E441" s="2">
         <v>13.7</v>
@@ -9730,7 +9730,7 @@
         <v>43290</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E442" s="2">
         <v>37</v>
@@ -9751,7 +9751,7 @@
         <v>43290</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E443" s="2">
         <v>8.77</v>
@@ -9773,7 +9773,7 @@
         <v>43290</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E444" s="2">
         <v>2.86</v>
@@ -9795,7 +9795,7 @@
         <v>43290</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E445" s="2">
         <v>12.1</v>
@@ -9817,7 +9817,7 @@
         <v>43292</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E446" s="2">
         <v>6.84</v>
@@ -9839,7 +9839,7 @@
         <v>43292</v>
       </c>
       <c r="D447" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E447" s="2">
         <v>5.07</v>
@@ -9859,7 +9859,7 @@
         <v>43292</v>
       </c>
       <c r="D448" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E448">
         <v>94.3</v>
@@ -9879,7 +9879,7 @@
         <v>43292</v>
       </c>
       <c r="D449" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E449">
         <v>5.85</v>
@@ -9899,7 +9899,7 @@
         <v>43292</v>
       </c>
       <c r="D450" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E450">
         <v>8.9499999999999993</v>
@@ -9919,7 +9919,7 @@
         <v>43292</v>
       </c>
       <c r="D451" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E451">
         <v>6.07</v>
@@ -9939,7 +9939,7 @@
         <v>43292</v>
       </c>
       <c r="D452" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E452">
         <v>4.67</v>
@@ -9959,7 +9959,7 @@
         <v>43292</v>
       </c>
       <c r="D453" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E453">
         <v>4.84</v>
@@ -9968,7 +9968,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H453" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>43286</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E454" s="2">
         <v>14.4</v>
@@ -10002,7 +10002,7 @@
         <v>43286</v>
       </c>
       <c r="D455" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E455">
         <v>30.6</v>
@@ -10022,7 +10022,7 @@
         <v>43286</v>
       </c>
       <c r="D456" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E456">
         <v>3.24</v>
@@ -10042,7 +10042,7 @@
         <v>43286</v>
       </c>
       <c r="D457" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E457">
         <v>7.26</v>
@@ -10062,7 +10062,7 @@
         <v>43286</v>
       </c>
       <c r="D458" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E458">
         <v>6.05</v>
@@ -10082,7 +10082,7 @@
         <v>43290</v>
       </c>
       <c r="D459" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E459">
         <v>6.06</v>
@@ -10102,7 +10102,7 @@
         <v>43290</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E460" s="2">
         <v>21</v>
@@ -10122,7 +10122,7 @@
         <v>43290</v>
       </c>
       <c r="D461" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E461">
         <v>3.39</v>
@@ -10142,7 +10142,7 @@
         <v>43290</v>
       </c>
       <c r="D462" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E462">
         <v>3.31</v>
@@ -10162,7 +10162,7 @@
         <v>43290</v>
       </c>
       <c r="D463" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E463">
         <v>30.9</v>
@@ -10182,7 +10182,7 @@
         <v>43290</v>
       </c>
       <c r="D464" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E464">
         <v>7.67</v>
@@ -10202,7 +10202,7 @@
         <v>43290</v>
       </c>
       <c r="D465" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E465">
         <v>4.22</v>
@@ -10222,7 +10222,7 @@
         <v>43290</v>
       </c>
       <c r="D466" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E466">
         <v>2.83</v>
@@ -10231,7 +10231,7 @@
         <v>2.77</v>
       </c>
       <c r="H466" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Biomass_Sorting_Data.xlsx
+++ b/Biomass_Sorting_Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="107">
   <si>
     <t>Litter</t>
   </si>
@@ -348,12 +348,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>tare_l</t>
-  </si>
-  <si>
-    <t>tare_s</t>
   </si>
 </sst>
 </file>
@@ -708,7 +702,7 @@
   <dimension ref="A1:J466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +712,7 @@
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -743,14 +737,8 @@
       <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -769,14 +757,8 @@
       <c r="F2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J2">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -795,14 +777,8 @@
       <c r="F3">
         <v>7</v>
       </c>
-      <c r="I3">
-        <v>4.49</v>
-      </c>
-      <c r="J3">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -821,14 +797,8 @@
       <c r="F4">
         <v>10.199999999999999</v>
       </c>
-      <c r="I4">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="J4">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -847,14 +817,8 @@
       <c r="F5">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>4.47</v>
-      </c>
-      <c r="J5">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -874,7 +838,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -894,7 +858,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -911,10 +875,10 @@
         <v>8.76</v>
       </c>
       <c r="F8">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -931,10 +895,10 @@
         <v>2.97</v>
       </c>
       <c r="F9">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.7475000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -951,10 +915,10 @@
         <v>3.32</v>
       </c>
       <c r="F10">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.7475000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -971,10 +935,10 @@
         <v>9.75</v>
       </c>
       <c r="F11">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -994,7 +958,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1014,7 +978,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1031,10 +995,10 @@
         <v>3.03</v>
       </c>
       <c r="F14">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.7475000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1054,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1091,7 +1055,7 @@
         <v>3.35</v>
       </c>
       <c r="F17">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,7 +1095,7 @@
         <v>2.92</v>
       </c>
       <c r="F19">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1171,7 +1135,7 @@
         <v>4.07</v>
       </c>
       <c r="F21">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1231,7 +1195,7 @@
         <v>2.91</v>
       </c>
       <c r="F24">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1251,7 +1215,7 @@
         <v>2.8</v>
       </c>
       <c r="F25">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1291,7 +1255,7 @@
         <v>2.85</v>
       </c>
       <c r="F27">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1311,7 +1275,7 @@
         <v>3.22</v>
       </c>
       <c r="F28">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1331,7 +1295,7 @@
         <v>2.9</v>
       </c>
       <c r="F29">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1351,7 +1315,7 @@
         <v>2.95</v>
       </c>
       <c r="F30">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1371,7 +1335,7 @@
         <v>2.96</v>
       </c>
       <c r="F31">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1391,7 +1355,7 @@
         <v>6.6</v>
       </c>
       <c r="F32">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1408,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>104.6</v>
+        <v>104.51</v>
       </c>
       <c r="F33">
         <v>10.199999999999999</v>
@@ -1431,7 +1395,7 @@
         <v>3.77</v>
       </c>
       <c r="F34">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1451,7 +1415,7 @@
         <v>2.87</v>
       </c>
       <c r="F35">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
@@ -1474,7 +1438,7 @@
         <v>2.8</v>
       </c>
       <c r="F36">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H36" t="s">
         <v>31</v>
@@ -1497,7 +1461,7 @@
         <v>2.8</v>
       </c>
       <c r="F37">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1517,7 +1481,7 @@
         <v>3.5</v>
       </c>
       <c r="F38">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1577,7 +1541,7 @@
         <v>5.51</v>
       </c>
       <c r="F41">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1597,7 +1561,7 @@
         <v>3.12</v>
       </c>
       <c r="F42">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1637,7 +1601,7 @@
         <v>2.8</v>
       </c>
       <c r="F44">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1697,7 +1661,7 @@
         <v>6.16</v>
       </c>
       <c r="F47">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1777,7 +1741,7 @@
         <v>2.82</v>
       </c>
       <c r="F51">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H51" t="s">
         <v>37</v>
@@ -1860,7 +1824,7 @@
         <v>3.28</v>
       </c>
       <c r="F55">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -1900,7 +1864,7 @@
         <v>6.28</v>
       </c>
       <c r="F57">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1940,7 +1904,7 @@
         <v>3.02</v>
       </c>
       <c r="F59">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2020,7 +1984,7 @@
         <v>8.83</v>
       </c>
       <c r="F63" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2059,10 +2023,10 @@
         <v>17</v>
       </c>
       <c r="E65">
-        <v>4.63</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="F65">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2082,7 +2046,7 @@
         <v>5.51</v>
       </c>
       <c r="F66">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2099,10 +2063,10 @@
         <v>50</v>
       </c>
       <c r="E67">
-        <v>4.67</v>
+        <v>4.5170000000000003</v>
       </c>
       <c r="F67">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2162,7 +2126,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="F70">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2182,7 +2146,7 @@
         <v>13.27</v>
       </c>
       <c r="F71">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2202,7 +2166,7 @@
         <v>4.76</v>
       </c>
       <c r="F72">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2242,7 +2206,7 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="F74">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2259,10 +2223,10 @@
         <v>58</v>
       </c>
       <c r="E75">
-        <v>4.6100000000000003</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="F75">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -2284,7 +2248,7 @@
         <v>6.23</v>
       </c>
       <c r="F76">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2344,7 +2308,7 @@
         <v>8.27</v>
       </c>
       <c r="F79">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2364,7 +2328,7 @@
         <v>2.93</v>
       </c>
       <c r="F80">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2384,7 +2348,7 @@
         <v>2.87</v>
       </c>
       <c r="F81">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2404,7 +2368,7 @@
         <v>2.87</v>
       </c>
       <c r="F82">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2424,7 +2388,7 @@
         <v>2.81</v>
       </c>
       <c r="F83">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H83" t="s">
         <v>59</v>
@@ -2447,7 +2411,7 @@
         <v>2.84</v>
       </c>
       <c r="F84">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H84" t="s">
         <v>81</v>
@@ -2470,7 +2434,7 @@
         <v>4.3</v>
       </c>
       <c r="F85">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2510,7 +2474,7 @@
         <v>3.07</v>
       </c>
       <c r="F87">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2550,7 +2514,7 @@
         <v>2.85</v>
       </c>
       <c r="F89">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2570,7 +2534,7 @@
         <v>3.07</v>
       </c>
       <c r="F90">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2590,7 +2554,7 @@
         <v>3.07</v>
       </c>
       <c r="F91">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2610,7 +2574,7 @@
         <v>2.88</v>
       </c>
       <c r="F92">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,7 +2594,7 @@
         <v>2.98</v>
       </c>
       <c r="F93">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2650,7 +2614,7 @@
         <v>2.9</v>
       </c>
       <c r="F94">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -2670,7 +2634,7 @@
         <v>3.12</v>
       </c>
       <c r="F95">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -2690,7 +2654,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F96">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2707,10 +2671,10 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="F97">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,7 +2694,7 @@
         <v>2.83</v>
       </c>
       <c r="F98">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2770,7 +2734,7 @@
         <v>7.08</v>
       </c>
       <c r="F100">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2810,7 +2774,7 @@
         <v>4.7</v>
       </c>
       <c r="F102">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2970,7 +2934,7 @@
         <v>4.96</v>
       </c>
       <c r="F110">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -2990,7 +2954,7 @@
         <v>5.64</v>
       </c>
       <c r="F111">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3030,7 +2994,7 @@
         <v>4.49</v>
       </c>
       <c r="F113">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3050,7 +3014,7 @@
         <v>4.5</v>
       </c>
       <c r="F114">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H114" t="s">
         <v>64</v>
@@ -3073,7 +3037,7 @@
         <v>5.17</v>
       </c>
       <c r="F115">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -3090,10 +3054,10 @@
         <v>69</v>
       </c>
       <c r="E116">
-        <v>4.67</v>
+        <v>4.5170000000000003</v>
       </c>
       <c r="F116">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -3110,10 +3074,10 @@
         <v>50</v>
       </c>
       <c r="E117">
-        <v>4.62</v>
+        <v>4.5119999999999996</v>
       </c>
       <c r="F117">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -3153,7 +3117,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="F119">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3173,7 +3137,7 @@
         <v>5.07</v>
       </c>
       <c r="F120">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -3193,7 +3157,7 @@
         <v>2.83</v>
       </c>
       <c r="F121">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -3213,7 +3177,7 @@
         <v>2.98</v>
       </c>
       <c r="F122">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3230,10 +3194,10 @@
         <v>93</v>
       </c>
       <c r="E123">
-        <v>4.66</v>
+        <v>4.516</v>
       </c>
       <c r="F123">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -3253,7 +3217,7 @@
         <v>2.99</v>
       </c>
       <c r="F124">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -3273,7 +3237,7 @@
         <v>3.04</v>
       </c>
       <c r="F125">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -3293,7 +3257,7 @@
         <v>2.84</v>
       </c>
       <c r="F126">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -3333,7 +3297,7 @@
         <v>3.23</v>
       </c>
       <c r="F128">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3353,7 +3317,7 @@
         <v>4.93</v>
       </c>
       <c r="F129">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3373,7 +3337,7 @@
         <v>2.99</v>
       </c>
       <c r="F130">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -3393,7 +3357,7 @@
         <v>3.17</v>
       </c>
       <c r="F131">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H131" t="s">
         <v>59</v>
@@ -3416,7 +3380,7 @@
         <v>3.54</v>
       </c>
       <c r="F132">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3436,7 +3400,7 @@
         <v>6.03</v>
       </c>
       <c r="F133">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -3476,7 +3440,7 @@
         <v>2.93</v>
       </c>
       <c r="F135">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3496,7 +3460,7 @@
         <v>7.01</v>
       </c>
       <c r="F136">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3516,7 +3480,7 @@
         <v>7.77</v>
       </c>
       <c r="F137">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,7 +3500,7 @@
         <v>5.27</v>
       </c>
       <c r="F138">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H138" t="s">
         <v>59</v>
@@ -3579,7 +3543,7 @@
         <v>2.83</v>
       </c>
       <c r="F140">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3599,7 +3563,7 @@
         <v>7.11</v>
       </c>
       <c r="F141">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3619,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="F142">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -3659,7 +3623,7 @@
         <v>2.93</v>
       </c>
       <c r="F144">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -3679,7 +3643,7 @@
         <v>3.69</v>
       </c>
       <c r="F145">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3699,7 +3663,7 @@
         <v>3.85</v>
       </c>
       <c r="F146">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3719,7 +3683,7 @@
         <v>7.03</v>
       </c>
       <c r="F147">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -3739,7 +3703,7 @@
         <v>2.87</v>
       </c>
       <c r="F148">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H148" t="s">
         <v>59</v>
@@ -3762,7 +3726,7 @@
         <v>3.13</v>
       </c>
       <c r="F149">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H149" t="s">
         <v>59</v>
@@ -3785,7 +3749,7 @@
         <v>6.81</v>
       </c>
       <c r="F150">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3825,7 +3789,7 @@
         <v>2.89</v>
       </c>
       <c r="F152">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -3845,7 +3809,7 @@
         <v>2.97</v>
       </c>
       <c r="F153">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3862,10 +3826,10 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="F154">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H154" t="s">
         <v>59</v>
@@ -3888,7 +3852,7 @@
         <v>2.83</v>
       </c>
       <c r="F155">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H155" t="s">
         <v>59</v>
@@ -3911,7 +3875,7 @@
         <v>2.87</v>
       </c>
       <c r="F156">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -3948,10 +3912,10 @@
         <v>68</v>
       </c>
       <c r="E158">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="F158">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -3971,7 +3935,7 @@
         <v>4.91</v>
       </c>
       <c r="F159">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -4011,7 +3975,7 @@
         <v>5.83</v>
       </c>
       <c r="F161">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -4051,7 +4015,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="F163">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -4111,7 +4075,7 @@
         <v>5.27</v>
       </c>
       <c r="F166">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -4131,7 +4095,7 @@
         <v>4.47</v>
       </c>
       <c r="F167">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H167" t="s">
         <v>59</v>
@@ -4154,7 +4118,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="F168">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H168" t="s">
         <v>81</v>
@@ -4177,7 +4141,7 @@
         <v>3.99</v>
       </c>
       <c r="F169">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -4197,7 +4161,7 @@
         <v>3.03</v>
       </c>
       <c r="F170">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -4217,7 +4181,7 @@
         <v>6.76</v>
       </c>
       <c r="F171">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -4257,7 +4221,7 @@
         <v>4.97</v>
       </c>
       <c r="F173">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -4317,7 +4281,7 @@
         <v>7.16</v>
       </c>
       <c r="F176">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -4337,7 +4301,7 @@
         <v>2.95</v>
       </c>
       <c r="F177">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4377,7 +4341,7 @@
         <v>8.77</v>
       </c>
       <c r="F179">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4397,7 +4361,7 @@
         <v>2.96</v>
       </c>
       <c r="F180">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4557,7 +4521,7 @@
         <v>4.96</v>
       </c>
       <c r="F188">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4574,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="E189">
-        <v>14.6</v>
+        <v>14.51</v>
       </c>
       <c r="F189">
         <v>7</v>
@@ -4617,7 +4581,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="F191">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4637,7 +4601,7 @@
         <v>7.03</v>
       </c>
       <c r="F192">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -4674,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>54.6</v>
+        <v>54.51</v>
       </c>
       <c r="F194">
         <v>7</v>
@@ -4697,7 +4661,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="F195">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G195"/>
       <c r="H195"/>
@@ -4739,7 +4703,7 @@
         <v>7.56</v>
       </c>
       <c r="F197">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -4779,7 +4743,7 @@
         <v>2.95</v>
       </c>
       <c r="F199">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -4799,7 +4763,7 @@
         <v>3.63</v>
       </c>
       <c r="F200">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -4819,7 +4783,7 @@
         <v>2.76</v>
       </c>
       <c r="F201">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H201" t="s">
         <v>59</v>
@@ -4842,7 +4806,7 @@
         <v>8.69</v>
       </c>
       <c r="F202">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -4862,7 +4826,7 @@
         <v>7.08</v>
       </c>
       <c r="F203">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -4882,7 +4846,7 @@
         <v>2.76</v>
       </c>
       <c r="F204">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -4922,7 +4886,7 @@
         <v>12.95</v>
       </c>
       <c r="F206">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -4962,7 +4926,7 @@
         <v>7.12</v>
       </c>
       <c r="F208">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -4979,10 +4943,10 @@
         <v>15</v>
       </c>
       <c r="E209">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="F209">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H209" t="s">
         <v>59</v>
@@ -5005,7 +4969,7 @@
         <v>2.85</v>
       </c>
       <c r="F210">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H210" t="s">
         <v>59</v>
@@ -5028,7 +4992,7 @@
         <v>4.88</v>
       </c>
       <c r="F211">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -5048,7 +5012,7 @@
         <v>4.72</v>
       </c>
       <c r="F212">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -5108,7 +5072,7 @@
         <v>2.75</v>
       </c>
       <c r="F215">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H215" t="s">
         <v>59</v>
@@ -5131,7 +5095,7 @@
         <v>8.39</v>
       </c>
       <c r="F216">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -5171,7 +5135,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="F218">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -5211,7 +5175,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="F220">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -5231,7 +5195,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="F221">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -5251,7 +5215,7 @@
         <v>5.2</v>
       </c>
       <c r="F222">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -5271,7 +5235,7 @@
         <v>4.2</v>
       </c>
       <c r="F223">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -5291,7 +5255,7 @@
         <v>4.74</v>
       </c>
       <c r="F224">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -5351,7 +5315,7 @@
         <v>4.54</v>
       </c>
       <c r="F227">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G227"/>
       <c r="H227"/>
@@ -5373,7 +5337,7 @@
         <v>4.74</v>
       </c>
       <c r="F228">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -5390,10 +5354,10 @@
         <v>27</v>
       </c>
       <c r="E229">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="F229">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -5433,7 +5397,7 @@
         <v>11.97</v>
       </c>
       <c r="F231">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -5450,10 +5414,10 @@
         <v>51</v>
       </c>
       <c r="E232">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="F232">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -5473,7 +5437,7 @@
         <v>2.78</v>
       </c>
       <c r="F233">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -5493,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="F234">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -5510,10 +5474,10 @@
         <v>8</v>
       </c>
       <c r="E235">
-        <v>4.6900000000000004</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="F235">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -5553,7 +5517,7 @@
         <v>5.98</v>
       </c>
       <c r="F237">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -5573,7 +5537,7 @@
         <v>5.78</v>
       </c>
       <c r="F238">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H238" t="s">
         <v>61</v>
@@ -5596,7 +5560,7 @@
         <v>5.68</v>
       </c>
       <c r="F239">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -5616,7 +5580,7 @@
         <v>5.41</v>
       </c>
       <c r="F240">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -5636,7 +5600,7 @@
         <v>2.81</v>
       </c>
       <c r="F241">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -5656,7 +5620,7 @@
         <v>2.81</v>
       </c>
       <c r="F242">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -5676,7 +5640,7 @@
         <v>2.78</v>
       </c>
       <c r="F243">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H243" t="s">
         <v>59</v>
@@ -5699,7 +5663,7 @@
         <v>2.81</v>
       </c>
       <c r="F244">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H244" t="s">
         <v>59</v>
@@ -5762,7 +5726,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="F247">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -5822,7 +5786,7 @@
         <v>7.38</v>
       </c>
       <c r="F250">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -5842,7 +5806,7 @@
         <v>5.38</v>
       </c>
       <c r="F251">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -5902,7 +5866,7 @@
         <v>6.55</v>
       </c>
       <c r="F254">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -5962,7 +5926,7 @@
         <v>9.84</v>
       </c>
       <c r="F257">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -5982,7 +5946,7 @@
         <v>11.66</v>
       </c>
       <c r="F258" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
@@ -6004,7 +5968,7 @@
         <v>6.26</v>
       </c>
       <c r="F259">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -6044,7 +6008,7 @@
         <v>4.38</v>
       </c>
       <c r="F261">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6064,7 +6028,7 @@
         <v>10.56</v>
       </c>
       <c r="F262" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -6124,7 +6088,7 @@
         <v>4.76</v>
       </c>
       <c r="F265">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -6164,7 +6128,7 @@
         <v>8.44</v>
       </c>
       <c r="F267">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -6204,7 +6168,7 @@
         <v>2.85</v>
       </c>
       <c r="F269">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -6224,7 +6188,7 @@
         <v>2.86</v>
       </c>
       <c r="F270">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -6264,7 +6228,7 @@
         <v>11.8</v>
       </c>
       <c r="F272">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -6284,7 +6248,7 @@
         <v>7.86</v>
       </c>
       <c r="F273">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -6324,7 +6288,7 @@
         <v>6.14</v>
       </c>
       <c r="F275">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -6344,7 +6308,7 @@
         <v>7.17</v>
       </c>
       <c r="F276">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -6381,10 +6345,10 @@
         <v>43</v>
       </c>
       <c r="E278">
-        <v>4.68</v>
+        <v>4.5179999999999998</v>
       </c>
       <c r="F278">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -6444,7 +6408,7 @@
         <v>3.24</v>
       </c>
       <c r="F281">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -6464,7 +6428,7 @@
         <v>3.43</v>
       </c>
       <c r="F282">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -6524,7 +6488,7 @@
         <v>5.07</v>
       </c>
       <c r="F285">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -6564,7 +6528,7 @@
         <v>4.74</v>
       </c>
       <c r="F287">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -6624,7 +6588,7 @@
         <v>4.7</v>
       </c>
       <c r="F290">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -6684,7 +6648,7 @@
         <v>14.71</v>
       </c>
       <c r="F293">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -6704,7 +6668,7 @@
         <v>6.53</v>
       </c>
       <c r="F294">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -6781,10 +6745,10 @@
         <v>72</v>
       </c>
       <c r="E298">
-        <v>4.6100000000000003</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="F298">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -6804,7 +6768,7 @@
         <v>4.75</v>
       </c>
       <c r="F299">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -6844,7 +6808,7 @@
         <v>8.08</v>
       </c>
       <c r="F301" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -6861,10 +6825,10 @@
         <v>46</v>
       </c>
       <c r="E302">
-        <v>4.63</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="F302">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -6881,10 +6845,10 @@
         <v>15</v>
       </c>
       <c r="E303">
-        <v>4.6100000000000003</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="F303">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H303" t="s">
         <v>59</v>
@@ -6947,7 +6911,7 @@
         <v>6.98</v>
       </c>
       <c r="F306">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -6967,7 +6931,7 @@
         <v>5.32</v>
       </c>
       <c r="F307">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -6987,7 +6951,7 @@
         <v>4.46</v>
       </c>
       <c r="F308">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -7024,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>124.6</v>
+        <v>124.51</v>
       </c>
       <c r="F310">
         <v>10.199999999999999</v>
@@ -7091,7 +7055,7 @@
         <v>4.46</v>
       </c>
       <c r="F313">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
@@ -7131,7 +7095,7 @@
         <v>5.93</v>
       </c>
       <c r="F315">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -7151,7 +7115,7 @@
         <v>4.87</v>
       </c>
       <c r="F316">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
@@ -7171,7 +7135,7 @@
         <v>4.53</v>
       </c>
       <c r="F317">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
@@ -7191,7 +7155,7 @@
         <v>11.91</v>
       </c>
       <c r="F318">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -7211,7 +7175,7 @@
         <v>4.84</v>
       </c>
       <c r="F319">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -7251,7 +7215,7 @@
         <v>6.3</v>
       </c>
       <c r="F321">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G321"/>
       <c r="H321"/>
@@ -7273,7 +7237,7 @@
         <v>8.19</v>
       </c>
       <c r="F322">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G322"/>
       <c r="H322"/>
@@ -7295,7 +7259,7 @@
         <v>3.09</v>
       </c>
       <c r="F323">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -7315,7 +7279,7 @@
         <v>9.82</v>
       </c>
       <c r="F324">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -7335,7 +7299,7 @@
         <v>5.55</v>
       </c>
       <c r="F325">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -7355,7 +7319,7 @@
         <v>2.79</v>
       </c>
       <c r="F326">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H326" t="s">
         <v>59</v>
@@ -7398,7 +7362,7 @@
         <v>2.83</v>
       </c>
       <c r="F328">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H328" t="s">
         <v>49</v>
@@ -7441,7 +7405,7 @@
         <v>2.83</v>
       </c>
       <c r="F330">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7461,7 +7425,7 @@
         <v>2.82</v>
       </c>
       <c r="F331">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G331"/>
       <c r="H331"/>
@@ -7483,7 +7447,7 @@
         <v>4.72</v>
       </c>
       <c r="F332">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H332" t="s">
         <v>66</v>
@@ -7506,7 +7470,7 @@
         <v>4.54</v>
       </c>
       <c r="F333">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -7546,7 +7510,7 @@
         <v>4.51</v>
       </c>
       <c r="F335">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H335" t="s">
         <v>67</v>
@@ -7569,7 +7533,7 @@
         <v>6.6</v>
       </c>
       <c r="F336">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -7586,10 +7550,10 @@
         <v>7</v>
       </c>
       <c r="E337">
-        <v>4.6100000000000003</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="F337">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -7629,7 +7593,7 @@
         <v>6.78</v>
       </c>
       <c r="F339">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -7649,7 +7613,7 @@
         <v>9.67</v>
       </c>
       <c r="F340">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -7669,7 +7633,7 @@
         <v>5.41</v>
       </c>
       <c r="F341">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -7689,7 +7653,7 @@
         <v>11.19</v>
       </c>
       <c r="F342">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -7709,7 +7673,7 @@
         <v>6.96</v>
       </c>
       <c r="F343">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -7729,7 +7693,7 @@
         <v>5.31</v>
       </c>
       <c r="F344">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -7746,10 +7710,10 @@
         <v>76</v>
       </c>
       <c r="E345">
-        <v>4.6500000000000004</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="F345">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -7769,7 +7733,7 @@
         <v>7.45</v>
       </c>
       <c r="F346">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -7789,7 +7753,7 @@
         <v>5.99</v>
       </c>
       <c r="F347">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -7809,7 +7773,7 @@
         <v>9.4</v>
       </c>
       <c r="F348">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -7849,7 +7813,7 @@
         <v>7.6</v>
       </c>
       <c r="F350">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -7869,7 +7833,7 @@
         <v>7.1</v>
       </c>
       <c r="F351">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
@@ -7909,7 +7873,7 @@
         <v>4.87</v>
       </c>
       <c r="F353">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G353"/>
       <c r="H353"/>
@@ -7931,7 +7895,7 @@
         <v>10.57</v>
       </c>
       <c r="F354">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G354"/>
       <c r="H354"/>
@@ -7953,7 +7917,7 @@
         <v>11.73</v>
       </c>
       <c r="F355">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G355"/>
       <c r="H355"/>
@@ -7997,7 +7961,7 @@
         <v>6.06</v>
       </c>
       <c r="F357">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G357"/>
       <c r="H357"/>
@@ -8019,7 +7983,7 @@
         <v>3.16</v>
       </c>
       <c r="F358">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G358"/>
       <c r="H358"/>
@@ -8041,7 +8005,7 @@
         <v>2.73</v>
       </c>
       <c r="F359">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -8061,7 +8025,7 @@
         <v>15.58</v>
       </c>
       <c r="F360">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8081,7 +8045,7 @@
         <v>2.74</v>
       </c>
       <c r="F361">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
@@ -8105,7 +8069,7 @@
         <v>2.92</v>
       </c>
       <c r="F362">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G362"/>
       <c r="H362"/>
@@ -8127,7 +8091,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="F363">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
@@ -8147,7 +8111,7 @@
         <v>2.91</v>
       </c>
       <c r="F364">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
@@ -8167,7 +8131,7 @@
         <v>2.92</v>
       </c>
       <c r="F365">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -8187,7 +8151,7 @@
         <v>5.65</v>
       </c>
       <c r="F366">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
@@ -8207,7 +8171,7 @@
         <v>2.9</v>
       </c>
       <c r="F367">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -8227,7 +8191,7 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="F368">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -8247,7 +8211,7 @@
         <v>7.64</v>
       </c>
       <c r="F369">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
@@ -8267,7 +8231,7 @@
         <v>6.73</v>
       </c>
       <c r="F370">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -8287,7 +8251,7 @@
         <v>5.53</v>
       </c>
       <c r="F371">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -8327,7 +8291,7 @@
         <v>2.84</v>
       </c>
       <c r="F373">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -8347,7 +8311,7 @@
         <v>6.5</v>
       </c>
       <c r="F374">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -8367,7 +8331,7 @@
         <v>2.87</v>
       </c>
       <c r="F375">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -8387,7 +8351,7 @@
         <v>5.38</v>
       </c>
       <c r="F376">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -8407,7 +8371,7 @@
         <v>2.89</v>
       </c>
       <c r="F377">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -8427,7 +8391,7 @@
         <v>2.85</v>
       </c>
       <c r="F378">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -8487,7 +8451,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F381">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
@@ -8507,7 +8471,7 @@
         <v>8.16</v>
       </c>
       <c r="F382">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -8527,7 +8491,7 @@
         <v>6.45</v>
       </c>
       <c r="F383">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -8547,7 +8511,7 @@
         <v>10.54</v>
       </c>
       <c r="F384" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
@@ -8569,7 +8533,7 @@
         <v>5.53</v>
       </c>
       <c r="F385">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -8589,7 +8553,7 @@
         <v>4.57</v>
       </c>
       <c r="F386">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -8606,10 +8570,10 @@
         <v>7</v>
       </c>
       <c r="E387">
-        <v>4.6500000000000004</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="F387">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -8649,7 +8613,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="F389">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -8666,10 +8630,10 @@
         <v>71</v>
       </c>
       <c r="E390">
-        <v>4.63</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="F390">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -8689,7 +8653,7 @@
         <v>13.08</v>
       </c>
       <c r="F391">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -8706,10 +8670,10 @@
         <v>46</v>
       </c>
       <c r="E392">
-        <v>4.62</v>
+        <v>4.5119999999999996</v>
       </c>
       <c r="F392">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -8729,7 +8693,7 @@
         <v>9.31</v>
       </c>
       <c r="F393">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -8749,7 +8713,7 @@
         <v>5.89</v>
       </c>
       <c r="F394" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
@@ -8771,7 +8735,7 @@
         <v>5.23</v>
       </c>
       <c r="F395" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
@@ -8793,7 +8757,7 @@
         <v>3.54</v>
       </c>
       <c r="F396">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -8833,7 +8797,7 @@
         <v>7.22</v>
       </c>
       <c r="F398">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -8853,7 +8817,7 @@
         <v>3.07</v>
       </c>
       <c r="F399">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -8873,7 +8837,7 @@
         <v>8.14</v>
       </c>
       <c r="F400">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -8913,7 +8877,7 @@
         <v>2.79</v>
       </c>
       <c r="F402">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -8933,7 +8897,7 @@
         <v>6.62</v>
       </c>
       <c r="F403">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
@@ -8953,7 +8917,7 @@
         <v>3.2</v>
       </c>
       <c r="F404">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.2">
@@ -8993,7 +8957,7 @@
         <v>2.97</v>
       </c>
       <c r="F406">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
@@ -9013,7 +8977,7 @@
         <v>3.64</v>
       </c>
       <c r="F407">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
@@ -9033,7 +8997,7 @@
         <v>3.04</v>
       </c>
       <c r="F408">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -9053,7 +9017,7 @@
         <v>2.96</v>
       </c>
       <c r="F409">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
@@ -9073,7 +9037,7 @@
         <v>3.03</v>
       </c>
       <c r="F410">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
@@ -9093,7 +9057,7 @@
         <v>3.31</v>
       </c>
       <c r="F411">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
@@ -9133,7 +9097,7 @@
         <v>3.07</v>
       </c>
       <c r="F413">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
@@ -9173,7 +9137,7 @@
         <v>2.82</v>
       </c>
       <c r="F415">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H415" t="s">
         <v>29</v>
@@ -9196,7 +9160,7 @@
         <v>2.84</v>
       </c>
       <c r="F416">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
@@ -9216,7 +9180,7 @@
         <v>5.57</v>
       </c>
       <c r="F417">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
@@ -9236,7 +9200,7 @@
         <v>4.58</v>
       </c>
       <c r="F418">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
@@ -9256,7 +9220,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="F419">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
@@ -9273,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>34.6</v>
+        <v>34.51</v>
       </c>
       <c r="F420">
         <v>7</v>
@@ -9296,7 +9260,7 @@
         <v>5.12</v>
       </c>
       <c r="F421">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
@@ -9313,10 +9277,10 @@
         <v>35</v>
       </c>
       <c r="E422">
-        <v>4.6500000000000004</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="F422">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
@@ -9336,7 +9300,7 @@
         <v>11.59</v>
       </c>
       <c r="F423">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
@@ -9356,7 +9320,7 @@
         <v>4.54</v>
       </c>
       <c r="F424">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
@@ -9373,10 +9337,10 @@
         <v>15</v>
       </c>
       <c r="E425">
-        <v>4.6100000000000003</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="F425">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H425" t="s">
         <v>59</v>
@@ -9439,7 +9403,7 @@
         <v>2.91</v>
       </c>
       <c r="F428" s="2">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
@@ -9485,7 +9449,7 @@
         <v>3.51</v>
       </c>
       <c r="F430" s="2">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
@@ -9507,7 +9471,7 @@
         <v>3.01</v>
       </c>
       <c r="F431">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -9527,7 +9491,7 @@
         <v>2.82</v>
       </c>
       <c r="F432">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -9547,7 +9511,7 @@
         <v>3.04</v>
       </c>
       <c r="F433" s="2">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G433" s="2"/>
     </row>
@@ -9568,7 +9532,7 @@
         <v>2.89</v>
       </c>
       <c r="F434">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
@@ -9588,7 +9552,7 @@
         <v>2.81</v>
       </c>
       <c r="F435">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
@@ -9608,7 +9572,7 @@
         <v>5.39</v>
       </c>
       <c r="F436">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="437" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9628,7 +9592,7 @@
         <v>3.01</v>
       </c>
       <c r="F437">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G437"/>
       <c r="H437"/>
@@ -9652,7 +9616,7 @@
         <v>3.21</v>
       </c>
       <c r="F438" s="2">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
@@ -9694,7 +9658,7 @@
         <v>5.3</v>
       </c>
       <c r="F440" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
@@ -9757,7 +9721,7 @@
         <v>8.77</v>
       </c>
       <c r="F443" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
@@ -9779,7 +9743,7 @@
         <v>2.86</v>
       </c>
       <c r="F444" s="2">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
@@ -9823,7 +9787,7 @@
         <v>6.84</v>
       </c>
       <c r="F446" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
@@ -9845,7 +9809,7 @@
         <v>5.07</v>
       </c>
       <c r="F447" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
@@ -9885,7 +9849,7 @@
         <v>5.85</v>
       </c>
       <c r="F449">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
@@ -9905,7 +9869,7 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="F450">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
@@ -9925,7 +9889,7 @@
         <v>6.07</v>
       </c>
       <c r="F451">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
@@ -9942,10 +9906,10 @@
         <v>54</v>
       </c>
       <c r="E452">
-        <v>4.67</v>
+        <v>4.5170000000000003</v>
       </c>
       <c r="F452">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
@@ -9965,7 +9929,7 @@
         <v>4.84</v>
       </c>
       <c r="F453">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="H453" t="s">
         <v>59</v>
@@ -10028,7 +9992,7 @@
         <v>3.24</v>
       </c>
       <c r="F456">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
@@ -10048,7 +10012,7 @@
         <v>7.26</v>
       </c>
       <c r="F457">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
@@ -10068,7 +10032,7 @@
         <v>6.05</v>
       </c>
       <c r="F458">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
@@ -10088,7 +10052,7 @@
         <v>6.06</v>
       </c>
       <c r="F459">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
@@ -10128,7 +10092,7 @@
         <v>3.39</v>
       </c>
       <c r="F461">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
@@ -10148,7 +10112,7 @@
         <v>3.31</v>
       </c>
       <c r="F462">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -10188,7 +10152,7 @@
         <v>7.67</v>
       </c>
       <c r="F464">
-        <v>4.5999999999999996</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
@@ -10208,7 +10172,7 @@
         <v>4.22</v>
       </c>
       <c r="F465">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
@@ -10228,7 +10192,7 @@
         <v>2.83</v>
       </c>
       <c r="F466">
-        <v>2.77</v>
+        <v>2.7475000000000001</v>
       </c>
       <c r="H466" t="s">
         <v>59</v>
